--- a/file.xlsx
+++ b/file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>Для всех зарегистрированных лиц Анкета должна содержать:
  – наименование эмитента (эмитентов), в реестр (-ы) которого(-ых) предоставлена анкета зарегистрированного лица;
@@ -214,20 +214,6 @@
 Внесение изменений в данные лицевого счета залогодателя о заложенных ценных бумагах и условиях залога осуществляется Регистратором на основании распоряжения о внесении изменений, подписанного залогодателем и залогодержателем (в том числе скрепленного печатью юридического лица) или их уполномоченными представителями. Если ценные бумаги заложены в обеспечение исполнения обязательств по облигациям, подпись залогодержателя не требуется.</t>
   </si>
   <si>
-    <t>Распоряжение о внесении изменений в данные лицевого счета залогодателя о заложенных ценных бумагах и условиях залога должно содержать следующие данные:
-В отношении залогодателя и залогодержателя:
-– фамилия, имя, отчество (при наличии; для физических лиц) или полное наименование (для юридических лиц);
-– вид, серия, номер, дата выдачи документа, удостоверяющего личность, наименование органа, выдавшего документ (для физических лиц); или наименование органа, осуществившего государственную регистрацию, ОГРН и дата государственной регистрации (для российских юридических лиц), либо номер, присвоенный иностранному юридическому лицу в торговом реестре или ином учетном регистре государства, в котором зарегистрировано такое юридическое лицо (если имеется), дата государственной регистрации такого юридического лица и наименование государственного органа, осуществившего государственную регистрацию юридического лица (для иностранных юридических лиц).
-Сведения о зарегистрированном залоге ценных бумаг:
-– полное наименование эмитента;
-– номер лицевого счета залогодателя, на котором учитываются заложенные ценные бумаги;
-– номер и дата договора о залоге ценных бумаг, зарегистрированного в качестве основания при фиксации права залога;
-– номер и дата дополнительного договора/соглашения о зарегистрированном залоге, на основании которого вносятся данные изменения (при наличии);
-– условия залога.
-Распоряжение о внесении изменений в условия залога должно быть подписано залогодателем и залогодержателем (в том числе скрепленного печатью юридического лица) или их уполномоченными представителями, либо без такого распоряжения в случаях, предусмотренных федеральным законом или соглашением правообладателя с лицом, осуществляющим учет прав на бездокументарные ценные бумаги, и лицом, в пользу которого установлено обременение. Письменная форма согласия, предусмотренного настоящим пунктом, считается соблюденной, если оно предоставлено Регистратору в форме электронного сообщения, подписанного квалифицированной электронной подписью либо, если это предусмотрено правилами ведения реестра или условиями соглашения депозитария с лицом, в отношении ценных бумаг которого 22 установлено обременение, и лицом, в пользу которого установлено такое обременение, простой или неквалифицированной электронной подписью.
-Если ценные бумаги заложены в обеспечение исполнения обязательств по облигациям, подпись залогодержателя не требуется.</t>
-  </si>
-  <si>
     <t>Распоряжение о передаче прав залога должно содержать следующие данные:
 В распоряжении о передаче прав залога в отношении лица, уступающего права по договору о залоге ценных бумаг, лица, которому соответствующие права уступаются, и залогодателя должны содержаться следующие данные:
 – фамилия, имя, отчество (при наличии; для физических лиц) или полное наименование (для юридических лиц);
@@ -289,19 +275,6 @@
   </si>
   <si>
     <t>Порядок предоставления документов</t>
-  </si>
-  <si>
-    <t>Прием документов от зарегистрированных лиц, их уполномоченных представителей, уполномоченных представителей эмитента и иных лиц осуществляется Регистратором в соответствии с требованиями нормативных актов Банка России и Правил. 
-Регистратор осуществляет прием документов по месту нахождения Регистратора, не менее 4 часов каждый рабочий день. Время приема размещено на официальном сайте в сети Интернет: https://crc-reg.com.
-Документы могут быть предоставлены регистратору:
-– лично;
-– через уполномоченного представителя;
-– по почте;
-– через трансфер-агента/эмитента, выполняющего часть функций регистратора;
-– по электронным каналам связи. 
-Распоряжения могут быть направлены Регистратору по почте, если:
-– зарегистрированное лицо прямо указало на такой способ предоставления документов в анкете зарегистрированного лица;
-– зарегистрированное лицо приложило к предоставляемым документам соответствующее письменное указание на такой способ предоставления документов.</t>
   </si>
   <si>
     <t>Документы для открытия лицевого счета предоставляются Регистратору зарегистрированными лицами одним из следующих способов:
@@ -392,9 +365,6 @@
   </si>
   <si>
     <t>Для открытия казначейского лицевого счета эмитенту необходимо предоставить заявление эмитента на открытие казначейского лицевого счета.</t>
-  </si>
-  <si>
-    <t>Эмиссионный счет открывается Регистратором на основании свидетельства о государственной регистрации эмитента и учредительных документов.</t>
   </si>
   <si>
     <t>Распоряжения</t>
@@ -490,20 +460,6 @@
 В случае невозможности исполнения решения суда, вступившего в законную силу, Регистратор вправе обратиться в суд с заявление о разъяснении данного решения. При этом срок исполнения решения суда приостанавливается до момента получения Регистратором разъяснений суда.</t>
   </si>
   <si>
-    <t>Регистратор вносит в реестр запись о переходе права собственности на ценные бумаги при реорганизации зарегистрированного лица в форме слияния, присоединения, разделения, выделения и преобразования на основании следующих документов:
-Выписка из передаточного акта о передаче ценных бумаг вновь возникшему юридическому лицу (при слиянии) (в случае его составления), копии договора или решения о реорганизации, заверенные в установленном порядке и документа, подтверждающего государственную регистрацию вновь созданного юридического лица (при реорганизации в форме слияния, разделения, выделения);
-Выписка из передаточного акта о передаче ценных бумаг юридическому лицу, к которому присоединилось зарегистрированное лицо (при присоединении) (в случае его составления), копии договора или решения о реорганизации, заверенные в установленном порядке.
-Выписка из передаточного акта зарегистрированного юридического лица о передаче ценных бумаг одному или нескольким вновь образованным юридическим лицам (при разделении и выделении), копии договора или решения о реорганизации, заверенные в установленном порядке и документа, подтверждающего государственную регистрацию вновь созданного юридического лица.
-Документы, необходимые для открытия лицевого счета нового владельца (если счет не был открыт в реестре ранее).
-Нотариально удостоверенная копия (или электронный документ, подписанный усиленной квалифицированной электронной подписью органа, выдавшего документ) выписки из ЕГРЮЛ о прекращении деятельности юридического лица и/или о создании юридического лица (при присоединении, разделении, слиянии и преобразовании).
-Выписка из передаточного акта должна быть подписана уполномоченными представителями юридического лица (лиц).
-Проведение в реестре операций в связи с реорганизацией в форме преобразования осуществляется путем внесения Регистратором записи о списании ценных бумаг с лицевого счета зарегистрированного лица и зачислении ценных бумаг на лицевой счет вновь возникшего юридического лица.
-В случае реорганизации в форме преобразования номинального держателя (доверительного управляющего), которому открыт лицевой счет в реестре владельцев ценных бумаг, а также в случае его реорганизации в форме присоединения к другому депозитарию (доверительному управляющему), которому в реестре владельцев ценных бумаг не открыт лицевой счет номинального держателя (доверительного управляющего), Регистратором проводится 38 операция по внесению изменений в информацию указанного лицевого счета номинального держателя (доверительного управляющего).
-В случае присоединения номинального держателя к другому депозитарию, которому в реестре владельцев именных ценных бумаг открыт лицевой счет номинального держателя, Регистратором проводится перерегистрация ценных бумаг с лицевого счета присоединенного номинального держателя на лицевой счет номинального держателя, к которому осуществлено присоединение, на основании следующих документов:
-– распоряжения номинального держателя, к которому осуществлено присоединение;
-– копия (копии) документа (документов), подтверждающего (подтверждающих) внесение в ЕГРЮЛ записи об исключении из указанного реестра номинального держателя (доверительного управляющего) в результате его реорганизации в форме присоединения, и о его присоединении к другому номинальному держателю (доверительному управляющему), удостоверенная нотариально или заверенная регистрирующим органом, в случае реорганизации в форме присоединения.</t>
-  </si>
-  <si>
     <t>Регистратор вносит запись о переходе права собственности на ценные бумаги при добровольной ликвидации юридического лица на основании распоряжения и следующих документов:
 Выписка из решения уполномоченного органа зарегистрированного лица о назначении ликвидационной комиссии, согласованного с органом, осуществляющим государственную регистрацию юридических лиц (либо справка из органа, осуществившего государственную регистрацию юридического лица, содержащая сведения о том, что юридическое лицо находится в процессе ликвидации).
 Документ, подтверждающий полномочия председателя ликвидационной комиссии.
@@ -629,9 +585,6 @@
   </si>
   <si>
     <t>btn25</t>
-  </si>
-  <si>
-    <t>btn26</t>
   </si>
   <si>
     <t>btn27</t>
@@ -725,6 +678,90 @@
   </si>
   <si>
     <t>btn43</t>
+  </si>
+  <si>
+    <t>btn26</t>
+  </si>
+  <si>
+    <t>Лицевой счет владельца ценных бумаг для учета права общей долевой собственности на ценные бумаги открывается при условии представления Регистратору анкет на каждого участника общей долевой собственности.</t>
+  </si>
+  <si>
+    <t>Анкета залогодержателя - физического лица предоставляется для внесения информации о залогодержателе или внесения изменений в информацию о залогодержателе и должна содержать следующие данные:
+– фамилия, имя, отчество (при наличии);
+– гражданство, а если такое физическое лицо является лицом без гражданства, – указание на это обстоятельство;
+– вид, серия, номер, дата выдачи документа, удостоверяющего личность, наименование органа, выдавшего документ;
+– дата и место рождения;
+– адрес места регистрации;
+– адрес фактического места жительства (почтовый адрес) с указанием индекса;
+– образец подписи физического лица;
+– электронный адрес (при наличии);
+– номер телефона, факса (при наличии);
+– способ получения сообщения о проведении общего собрания акционеров из числа предусмотренных Уставом эмитента;
+– может содержать иные сведения, не противоречащие требованиям законодательства.</t>
+  </si>
+  <si>
+    <t>Анкета залогодержателя - юридического лица предоставляется для внесения информации о залогодержателе или внесения изменений в информацию о залогодержателе и должна содержать следующие данные:
+– полное и, если имеется, сокращенное наименование юридического лица в соответствии с его уставом;
+– ОГРН и дата его присвоения (для юридического лица, созданного в соответствии с законодательством Российской Федерации);
+– номер, присвоенный юридическому лицу в торговом реестре или ином учетном регистре государства, в котором зарегистрировано такое юридическое лицо (если имеется), и дата государственной регистрации юридического лица или присвоения номера (для иностранного юридического лица);
+– место нахождения;
+– адрес для направления корреспонденции (почтовый адрес) с указанием индекса;
+– номер телефона, факса (при наличии);
+– электронный адрес (при наличии);
+– способ получения сообщения о проведении общего собрания акционеров из числа предусмотренных Уставом эмитента;
+– фамилия, имя, отчество (при наличии) должностного лица, имеющего право действовать от имени юридического лица без доверенности, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, и наименование органа, выдавшего соответствующий документ, сведения о том, является ли такое должностное лицо ИПДЛ/РПДЛ/ДЛПМО/супругой (-ом), близким родственником;
+– образец печати (при наличии) и образец подписи лица, имеющего право действовать от имени юридического лица без доверенности (может не содержаться в случае направления анкеты в виде электронного документа, подписанного электронной подписью).
+Если полномочия единоличного исполнительного органа юридического лица, которому открывается лицевой счет, переданы управляющей организации, то анкета должна содержать сведения об управляющей организации, в том же объеме, что и в отношении юридического лица, которому открывается лицевой счет.
+В случае введения внешнего управления, открытия конкурсного производства (в случае, если на арбитражного управляющего в деле о банкротстве юридического лица возложено осуществление функций единоличного исполнительного органа), для внесения записей в реестр в анкете дополнительно указываются следующие данные:
+– фамилия, имя, отчество (при наличии), наименование должности и образец подписи арбитражного управляющего, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, и наименование органа, выдавшего соответствующий документ;
+– образец печати юридического лица.</t>
+  </si>
+  <si>
+    <t>btn44</t>
+  </si>
+  <si>
+    <t>btn45</t>
+  </si>
+  <si>
+    <t>Распоряжение о внесении изменений в данные лицевого счета залогодателя о заложенных ценных бумагах и условиях залога должно содержать следующие данные:
+В отношении залогодателя и залогодержателя:
+– фамилия, имя, отчество (при наличии; для физических лиц) или полное наименование (для юридических лиц);
+– вид, серия, номер, дата выдачи документа, удостоверяющего личность, наименование органа, выдавшего документ (для физических лиц); или наименование органа, осуществившего государственную регистрацию, ОГРН и дата государственной регистрации (для российских юридических лиц), либо номер, присвоенный иностранному юридическому лицу в торговом реестре или ином учетном регистре государства, в котором зарегистрировано такое юридическое лицо (если имеется), дата государственной регистрации такого юридического лица и наименование государственного органа, осуществившего государственную регистрацию юридического лица (для иностранных юридических лиц).
+Сведения о зарегистрированном залоге ценных бумаг:
+– полное наименование эмитента;
+– номер лицевого счета залогодателя, на котором учитываются заложенные ценные бумаги;
+– номер и дата договора о залоге ценных бумаг, зарегистрированного в качестве основания при фиксации права залога;
+– номер и дата дополнительного договора/соглашения о зарегистрированном залоге, на основании которого вносятся данные изменения (при наличии);
+– условия залога.
+Распоряжение о внесении изменений в условия залога должно быть подписано залогодателем и залогодержателем (в том числе скрепленного печатью юридического лица) или их уполномоченными представителями, либо без такого распоряжения в случаях, предусмотренных федеральным законом или соглашением правообладателя с лицом, осуществляющим учет прав на бездокументарные ценные бумаги, и лицом, в пользу которого установлено обременение. Письменная форма согласия, предусмотренного настоящим пунктом, считается соблюденной, если оно предоставлено Регистратору в форме электронного сообщения, подписанного квалифицированной электронной подписью либо, если это предусмотрено правилами ведения реестра или условиями соглашения депозитария с лицом, в отношении ценных бумаг которого установлено обременение, и лицом, в пользу которого установлено такое обременение, простой или неквалифицированной электронной подписью.
+Если ценные бумаги заложены в обеспечение исполнения обязательств по облигациям, подпись залогодержателя не требуется.</t>
+  </si>
+  <si>
+    <t>Прием документов от зарегистрированных лиц, их уполномоченных представителей, уполномоченных представителей эмитента и иных лиц осуществляется Регистратором в соответствии с требованиями нормативных актов Банка России и Правил ведения реестра. 
+Регистратор осуществляет прием документов по месту нахождения Регистратора, не менее 4 часов каждый рабочий день. Время приема размещено на официальном сайте в сети Интернет: https://crc-reg.com.
+Документы могут быть предоставлены регистратору:
+– лично;
+– через уполномоченного представителя;
+– по почте;
+– через трансфер-агента/эмитента, выполняющего часть функций регистратора;
+– по электронным каналам связи. 
+Распоряжения могут быть направлены Регистратору по почте, если:
+– зарегистрированное лицо прямо указало на такой способ предоставления документов в анкете зарегистрированного лица;
+– зарегистрированное лицо приложило к предоставляемым документам соответствующее письменное указание на такой способ предоставления документов.</t>
+  </si>
+  <si>
+    <t>Регистратор вносит в реестр запись о переходе права собственности на ценные бумаги при реорганизации зарегистрированного лица в форме слияния, присоединения, разделения, выделения и преобразования на основании следующих документов:
+Выписка из передаточного акта о передаче ценных бумаг вновь возникшему юридическому лицу (при слиянии) (в случае его составления), копии договора или решения о реорганизации, заверенные в установленном порядке и документа, подтверждающего государственную регистрацию вновь созданного юридического лица (при реорганизации в форме слияния, разделения, выделения);
+Выписка из передаточного акта о передаче ценных бумаг юридическому лицу, к которому присоединилось зарегистрированное лицо (при присоединении) (в случае его составления), копии договора или решения о реорганизации, заверенные в установленном порядке.
+Выписка из передаточного акта зарегистрированного юридического лица о передаче ценных бумаг одному или нескольким вновь образованным юридическим лицам (при разделении и выделении), копии договора или решения о реорганизации, заверенные в установленном порядке и документа, подтверждающего государственную регистрацию вновь созданного юридического лица.
+Документы, необходимые для открытия лицевого счета нового владельца (если счет не был открыт в реестре ранее).
+Нотариально удостоверенная копия (или электронный документ, подписанный усиленной квалифицированной электронной подписью органа, выдавшего документ) выписки из ЕГРЮЛ о прекращении деятельности юридического лица и/или о создании юридического лица (при присоединении, разделении, слиянии и преобразовании).
+Выписка из передаточного акта должна быть подписана уполномоченными представителями юридического лица (лиц).
+Проведение в реестре операций в связи с реорганизацией в форме преобразования осуществляется путем внесения Регистратором записи о списании ценных бумаг с лицевого счета зарегистрированного лица и зачислении ценных бумаг на лицевой счет вновь возникшего юридического лица.
+В случае реорганизации в форме преобразования номинального держателя (доверительного управляющего), которому открыт лицевой счет в реестре владельцев ценных бумаг, а также в случае его реорганизации в форме присоединения к другому депозитарию (доверительному управляющему), которому в реестре владельцев ценных бумаг не открыт лицевой счет номинального держателя (доверительного управляющего), Регистратором проводится операция по внесению изменений в информацию указанного лицевого счета номинального держателя (доверительного управляющего).
+В случае присоединения номинального держателя к другому депозитарию, которому в реестре владельцев именных ценных бумаг открыт лицевой счет номинального держателя, Регистратором проводится перерегистрация ценных бумаг с лицевого счета присоединенного номинального держателя на лицевой счет номинального держателя, к которому осуществлено присоединение, на основании следующих документов:
+– распоряжения номинального держателя, к которому осуществлено присоединение;
+– копия (копии) документа (документов), подтверждающего (подтверждающих) внесение в ЕГРЮЛ записи об исключении из указанного реестра номинального держателя (доверительного управляющего) в результате его реорганизации в форме присоединения, и о его присоединении к другому номинальному держателю (доверительному управляющему), удостоверенная нотариально или заверенная регистрирующим органом, в случае реорганизации в форме присоединения.</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1097,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1068,7 +1105,7 @@
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1076,7 +1113,7 @@
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1084,7 +1121,7 @@
     </row>
     <row r="4" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1092,7 +1129,7 @@
     </row>
     <row r="5" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1100,7 +1137,7 @@
     </row>
     <row r="6" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1108,298 +1145,314 @@
     </row>
     <row r="7" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="270" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="315" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="33" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="34" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="45" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="178">
   <si>
     <t>Для всех зарегистрированных лиц Анкета должна содержать:
  – наименование эмитента (эмитентов), в реестр (-ы) которого(-ых) предоставлена анкета зарегистрированного лица;
@@ -518,112 +518,7 @@
 – в иных случаях, предусмотренных законодательством Российской Федерации.</t>
   </si>
   <si>
-    <t>btn4</t>
-  </si>
-  <si>
     <t>Анкеты</t>
-  </si>
-  <si>
-    <t>btn5</t>
-  </si>
-  <si>
-    <t>btn6</t>
-  </si>
-  <si>
-    <t>btn7</t>
-  </si>
-  <si>
-    <t>btn8</t>
-  </si>
-  <si>
-    <t>btn9</t>
-  </si>
-  <si>
-    <t>btn10</t>
-  </si>
-  <si>
-    <t>btn11</t>
-  </si>
-  <si>
-    <t>btn12</t>
-  </si>
-  <si>
-    <t>btn13</t>
-  </si>
-  <si>
-    <t>btn14</t>
-  </si>
-  <si>
-    <t>btn15</t>
-  </si>
-  <si>
-    <t>btn16</t>
-  </si>
-  <si>
-    <t>btn17</t>
-  </si>
-  <si>
-    <t>btn18</t>
-  </si>
-  <si>
-    <t>btn19</t>
-  </si>
-  <si>
-    <t>btn20</t>
-  </si>
-  <si>
-    <t>btn21</t>
-  </si>
-  <si>
-    <t>btn22</t>
-  </si>
-  <si>
-    <t>btn23</t>
-  </si>
-  <si>
-    <t>btn24</t>
-  </si>
-  <si>
-    <t>btn25</t>
-  </si>
-  <si>
-    <t>btn27</t>
-  </si>
-  <si>
-    <t>btn28</t>
-  </si>
-  <si>
-    <t>btn29</t>
-  </si>
-  <si>
-    <t>btn30</t>
-  </si>
-  <si>
-    <t>btn31</t>
-  </si>
-  <si>
-    <t>btn32</t>
-  </si>
-  <si>
-    <t>btn33</t>
-  </si>
-  <si>
-    <t>btn34</t>
-  </si>
-  <si>
-    <t>btn35</t>
-  </si>
-  <si>
-    <t>btn36</t>
-  </si>
-  <si>
-    <t>btn37</t>
-  </si>
-  <si>
-    <t>btn38</t>
-  </si>
-  <si>
-    <t>btn39</t>
   </si>
   <si>
     <t>Регистратор вносит в реестр запись о фиксации права залога ценных бумаг, в том числе последующего залога ценных бумаг на основании залогового распоряжения.
@@ -657,15 +552,6 @@
     <t>Регистратор вносит в реестр запись о зачислении заложенных ценных бумаг (с переходом или без перехода прав собственности) на лицевой счет номинального держателя на основании распоряжения, содержащего указание на наличие обременения передаваемых ценных бумаг обязательствами.</t>
   </si>
   <si>
-    <t>btn40</t>
-  </si>
-  <si>
-    <t>btn41</t>
-  </si>
-  <si>
-    <t>btn42</t>
-  </si>
-  <si>
     <t>Регистратор вносит в реестр запись об объединении лицевых счетов на основании распоряжения зарегистрированного лица на объединение лицевых счетов, при наличии в реестре одного эмитента нескольких лицевых счетов, открытых одному и тому же зарегистрированному лицу.</t>
   </si>
   <si>
@@ -675,12 +561,6 @@
 – в случае прекращения деятельности юридического лица на основании предоставленной Регистратору или полученной Регистратором выписки из ЕГРЮЛ и/или Свидетельства о внесении записи в ЕГРЮЛ;
 – на основании свидетельства о праве на наследство после списания ценных бумаг на счет (счета) наследников;
 – на основании списка клиентов организации, прекратившей исполнение функций номинального держателя, после списания всех ценных бумаг с лицевого счета этого номинального держателя.</t>
-  </si>
-  <si>
-    <t>btn43</t>
-  </si>
-  <si>
-    <t>btn26</t>
   </si>
   <si>
     <t>Лицевой счет владельца ценных бумаг для учета права общей долевой собственности на ценные бумаги открывается при условии представления Регистратору анкет на каждого участника общей долевой собственности.</t>
@@ -717,12 +597,6 @@
 – образец печати юридического лица.</t>
   </si>
   <si>
-    <t>btn44</t>
-  </si>
-  <si>
-    <t>btn45</t>
-  </si>
-  <si>
     <t>Распоряжение о внесении изменений в данные лицевого счета залогодателя о заложенных ценных бумагах и условиях залога должно содержать следующие данные:
 В отношении залогодателя и залогодержателя:
 – фамилия, имя, отчество (при наличии; для физических лиц) или полное наименование (для юридических лиц);
@@ -762,6 +636,874 @@
 В случае присоединения номинального держателя к другому депозитарию, которому в реестре владельцев именных ценных бумаг открыт лицевой счет номинального держателя, Регистратором проводится перерегистрация ценных бумаг с лицевого счета присоединенного номинального держателя на лицевой счет номинального держателя, к которому осуществлено присоединение, на основании следующих документов:
 – распоряжения номинального держателя, к которому осуществлено присоединение;
 – копия (копии) документа (документов), подтверждающего (подтверждающих) внесение в ЕГРЮЛ записи об исключении из указанного реестра номинального держателя (доверительного управляющего) в результате его реорганизации в форме присоединения, и о его присоединении к другому номинальному держателю (доверительному управляющему), удостоверенная нотариально или заверенная регистрирующим органом, в случае реорганизации в форме присоединения.</t>
+  </si>
+  <si>
+    <t>Application forms</t>
+  </si>
+  <si>
+    <t>For all registered persons the Application Form must contain:
+ – name of the issuer(s) to whose register(s) the application form of a registered person has been submitted;
+– purpose of submission (for opening a personal account or amending the personal account information of a registered person);
+– type of the registered person's personal account (personal account of the securities holder, personal account of the trustee, personal account of the nominee holder, personal account of the nominee holder of the central depository, deposit account, treasury personal account of the issuer, personal account, escrow agent);
+– taxpayer identification number (if any);
+– information on the requisites for the payment of income on securities;
+– bank details (in case of money transfer to the bank account);
+– method of submitting the documents constituting the grounds for transactions to the Registrar (by post, in person/by an authorised representative, in the form of an electronic document signed with an electronic signature);
+– method of receiving a notice of opening/rejection to open a personal account/other documents from the Registrar (by mail, in person at the Registrar, by an authorised representative, in the form of an electronic document signed by electronic signature);
+– consent to make corrective entries pursuant to Article 8.5 of the Federal Law 'On the Securities Market';
+– consent to the processing of personal data pursuant to Article 9 of Federal Law No 152-ФЗ dated July 27, 2006 'On Personal Data' (save for legal entities).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Issuer Application Form will be submitted upon receipt of the Register of Securities Holders to make entries/changes in the Issuer's profile and must contain the following information:
+ – Full name of the Issuer pursuant to its Articles of Association;
+– Abbreviated name of the Issuer pursuant to its Articles of Association;
+– information on state registration and making an entry in the Unified State Register of Legal Entities (date, number and name of the registering state body);
+– registered office;
+– postal address;
+– telephone number, fax number (if any);
+– e-mail address (if any);
+– surname, name, patronymic (if any) of the sole executive body of the issuer, name of his/her position pursuant to the Articles of Association, as well as type, series, number, date of issue of his/her identity document and name of the issuing authority, information whether such official is a foreign public official / Russian public official / official of public international organisations / his/her spouse, close relative;
+– sample seal (if any) and sample signature of the person entitled to act on behalf of the issuer without power of attorney (may be omitted if the application form is sent as an electronic document signed with an electronic signature);
+– taxpayer identification number (INN);
+– banking details;
+– other information not in conflict with legal requirements.
+Where the functions of the issuer's sole executive body are delegated to a Management Company under a contract, the Registrar will be provided with an issuer application form and the same for the Management Company, containing the following information:
+– full name of the issuer's Management Company pursuant to its Articles of Association;
+– information on the state registration and/or making an entry in the Unified State Register of Legal Entities (date, number and name of the registering state body);
+– registered office;
+– postal address;
+– telephone number, fax number (if any);
+– e-mail address (if any);
+– surname, first name, patronymic (if any) of the officer authorised under the Articles of Association to act on behalf of the Management Company of the Issuer without a power of attorney, his/her job title as well as the type, series, number, date of issue of his/her identity document and the name of the issuing authority for the respective document;
+– sample seal of the Management Company (if any) and sample signature of the person authorised to act on behalf of the Issuer's Management Company without power of attorney (may be omitted if the questionnaire is sent as an electronic document signed with an electronic signature);
+– taxpayer identification number (INN);
+– bank details;
+– other information not in conflict with legal requirements.
+</t>
+  </si>
+  <si>
+    <t>The individual application form will be submitted to open a personal account or to make changes to personal account information and must contain the following data:
+– surname, first name, patronymic (if any);
+– nationality or, if the individual is a stateless person, an indication of this fact;
+– type, series, number, date of issue of the identity document, name of issuing authority;
+– date and place of birth;
+– registration address;
+– address of actual residence (postal address) with postcode;
+– individual's sample signature;
+– e‑mail address (if available);
+– telephone number, fax number (if any);
+– method of obtaining notice of a general meeting of shareholders from among those provided for in the Articles of Association of the Issuer;
+– may contain other information not in conflict with legal requirements.
+For an individual under 18 years of age the following information must also be provided:
+– surname, first name, patronymic (if any) of parent(s), adoptive parent(s), guardian or custodian;
+– type, series, number, date of document(s) certifying identity of parent(s), adoptive parent(s), guardian or custodian, and name of issuing authority;
+– sample signature of parent(s), adoptive parent(s), guardian or custodian. The information provided for in this clause may not be included in the application form if the personal account is opened for an individual who is a minor individual and the said individual has submitted documents certifying that he/she has acquired full legal capacity or has been declared legally capable in full.
+An application form submitted to open a personal account of an individual recognised as legally incapable must also contain the following information:
+– surname, first name, patronymic (if any) of the custodian;
+– type, series, number, date of issue of the custodian's identity document(s), as well as the name of the issuing authority;
+– details of the certificate of appointment of the custodian;
+– sample signature of the custodian.
+An application form submitted to open a personal account for a natural person whose legal capacity is restricted must also contain the following information:
+– surname, first name, patronymic (if any) of the custodian;
+– type, series, number, date of issue of the custodian's identity document(s), as well as the name of the issuing authority;
+– details of the certificate of appointment of the custodian;
+– sample signature of the custodian.
+In case a financial manager is appointed in a bankruptcy case of an individual, the Registrar will additionally be provided with the following information:
+– surname, name, patronymic (if any) of the financial manager, his/her sample signature (the signature must be notarised if not affixed in the presence of a Registrar employee), as well as type, series, number, date of issue of his/her identity document and name of the issuing authority, details of the court act on approval of the financial manager.
+Where the person whom the personal account is opened to is under 14 years of age, the application form may not contain his/her sample signature.
+An application form to open a personal account for a natural person under 18 years of age must contain a sample signature of the parent(s), adoptive parent(s), guardian(s) or custodian(s).
+An application form to open a personal account for a person declared legally incapable (or whose legal capability is restricted) must contain a sample signature of the guardian (custodian).</t>
+  </si>
+  <si>
+    <t>An application form of a registered person of a legal entity will be submitted to open a personal account or to make changes to the personal account information and must contain the following data:
+– full and, if available, abbreviated name of the legal entity pursuant to its Articles of Association;;
+– Main State Registration Number and the date of its assignment (for a legal entity established under the legislation of the Russian Federation);
+– number assigned to the legal entity in the commercial register or other register of the state where such legal entity is registered (if any), and the date of the legal entity's state registration or number assignment (for a foreign legal entity);
+– place of business;
+– correspondence address (postal address) with postal code;
+– telephone number, fax number (if any);
+– e-mail address (if any);
+– method of obtaining notice of a general meeting of shareholders from among those provided for in the Articles of Association of the issuer;
+– surname, first name, patronymic (if any) of the official entitled to act on behalf of the legal entity without a power of attorney, as well as the type, series, number, date of issue of his/her identity document and the name of the issuing authority, information on whether such official is a foreign public official / Russian public official / official of public international organisations / his/her spouse, close relative;
+– sample seal (if any) and sample signature of the person authorised to act on behalf of the legal entity without a power of attorney (may be omitted if the application form is sent as an electronic document signed with an electronic signature).
+Should the powers of the sole executive body of the legal entity to which the personal account is opened be transferred to a managing organisation, the application form must contain information on the managing organisation to the same extent as in relation to the legal entity to which the personal account is opened.
+In case of introduction of receivership or bankruptcy proceedings (should the trustee in bankruptcy of a legal entity be entrusted with the functions of the sole executive body), the following data will be additionally indicated in the application form of the registered person for making entries into the register:
+– name, surname, patronymic (if any), job title and sample signature of the trustee in bankruptcy and type, series, number, issue date of the identity document and the name of the issuing authority;
+– sample corporate seal.</t>
+  </si>
+  <si>
+    <t>An application form of a registered person (for a notary) will be submitted to open a personal account or to make changes in personal account information and must contain the following data:
+– surname, first name, patronymic (if any) of a notary
+– notary's date and place of birth;
+– type, series, number, date of issue of the notary's identity document and name of the issuing authority;
+– notary's address of registration and actual place of residence;
+– e-mail address and telephone number of the notary (if any);
+– details of the notary license (date, number and name of the licence issuing authority), number and date of the commission of appointment;
+– address of the place of notarial practice; bank details;
+– telephone number, fax number (if any);
+– notary's sample signature;
+– notary's sample official seal.</t>
+  </si>
+  <si>
+    <t>An application form submitted to open a personal account to the Russian Federation, a constituent entity of the Russian Federation, a municipal entity represented by the governmental authority or a local government body exercising the powers of the security owner (hereinafter, the Authorised Body) must contain the following data:
+– full name of the authorised body (specifying the shareholder represented by the authorised body);
+– Primary State Registration Number of the authorised body;
+– date of assignment of the Primary State Registration Number to the authorised body;
+– location address of the authorised body and its postal address;
+– e-mail address of the authorised body (if any);
+– method of receiving a notice of a General Meeting of Shareholders from among those provided for in the Issuer's Articles of Association;
+– surname, first name, patronymic (if any) of the head of the authorised body as well as type, series, number, date of issue of his/her identity document and the name of the body issuing the respective document;
+– sample official seal of the authorised body and sample signature of the head of the authorised body.</t>
+  </si>
+  <si>
+    <t>An application form to be submitted upon opening of a personal account of the trustee, must contain with respect to the trustor the following information:
+In relation to an individual:
+– surname, first name, patronymic (if any);
+– type, series, number and date of issue of an identification document;
+– date of birth;
+– address of residence;
+– number and date of issue of notary license and name of issuing authority, number and date of order of appointment as notary, address of notary activity (in case of opening of deposit account for notary);
+– information on the right to vote at the general meeting of securities holders.
+In relation to a legal entity, including a state or local government body
+– full name;
+– number (if any), date of state registration and name of the registering authority (for a foreign legal entity) or Primary State Registration Number, date the said number was assigned and name of the issuing state authority (for a Russian legal entity);
+– location address;
+– information on the right to vote at the general meeting of securities holders.</t>
+  </si>
+  <si>
+    <t>Application form of a pledgee being an individual will be submitted to enter information on pledgee or to make changes in information on pledgee and must contain the following data:
+– surname, first name, patronymic (if any);
+– nationality and if the individual is a stateless person, an indication of this fact;
+– type, series, number, date of issue of an identity document, name of issuing authority;
+– date and place of birth;
+– address of the place of registration;
+– address of actual place of residence (postal address) with indication of postal code;
+– individual's sample signature;
+– e‑mail address (if any);
+– telephone number, fax number (if any);
+– method of receiving a notice of a general meeting of shareholders from among those provided for in the Articles of Association of the issuer;
+– may contain other information not in conflict with legal requirements.</t>
+  </si>
+  <si>
+    <t>An application form of a pledgee being a legal entity will be submitted to enter information on the pledgee or to amend the information on the pledgee and must contain the following data:
+– full and, if available, abbreviated name of the legal entity pursuant to its Articles of Association;;
+– Main State Registration Number and the date of its assignment (for a legal entity established under the legislation of the Russian Federation);
+– number assigned to the legal entity in the commercial register or other register of the state where such legal entity is registered (if any), and the date of the legal entity's state registration or number assignment (for a foreign legal entity);
+– place of business;
+– correspondence address (postal address) with postal code;
+– telephone number, fax number (if any);
+– e-mail address (if any);
+– method of obtaining notice of a general meeting of shareholders from among those provided for in the Articles of Association of the issuer;
+– surname, first name, patronymic (if any) of the official entitled to act on behalf of the legal entity without a power of attorney, as well as the type, series, number, date of issue of his/her identity document and the name of the issuing authority, information on whether such official is a foreign public official / Russian public official / official of public international organisations / his/her spouse, close relative;
+– sample seal (if any) and sample signature of the person authorised to act on behalf of the legal entity without a power of attorney (may be omitted if the application form is sent as an electronic document signed with an electronic signature).
+Should the powers of the sole executive body of the legal entity to which the personal account is opened be transferred to a managing organisation, the application form must contain information on the managing organisation to the same extent as in relation to the legal entity to which the personal account is opened.
+In case of introduction of receivership or bankruptcy proceedings (should the trustee in bankruptcy of a legal entity be entrusted with the functions of the sole executive body), the following data will be additionally indicated in the application form for making entries into the register:
+– name, surname, patronymic (if any), job title and sample signature of the trustee in bankruptcy and type, series, number, issue date of the identity document and the name of the issuing authority;
+– sample corporate seal.</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>The transaction order must contain:
+In relation to the person transferring the securities:
+– surname, first name, patronymic (if any; for individuals and notaries) or full name (for legal entities). Should a transaction order be submitted in the form of an electronic document with an electronic signature, it may not contain the surname, first name, patronymic of an individual or the full name of a legal entity;
+– type of personal account of a registered person (personal account of a securities holder, personal account of a trustee, personal account of a nominee holder, personal account of a nominee holder of the central depository, deposit personal account, treasury personal account of the issuer, escrow account). Should the transaction order be submitted as an electronic document with an electronic signature, it must contain the
+account number (code);
+– type, series, number, date of issue of an identity document or birth certificate (in the case of an individual under 14 years of age), name of the issuing authority (for individuals);
+– Primary State Registration Number and date of its assignment (for Russian legal entities), number (if any) and date of document confirming State Registration (for foreign legal entities); details of notary license (document) (date, number and name of issuing authority); residence address of the deceased (in case of transfer of securities by the trustor of inherited property);
+– personal account number (to be specified if the transferor has more than one account in the register).
+In relation to transferred securities:
+– full name of the issuer (may be omitted in the order submitted as an electronic document with an electronic signature);
+– type, category, state registration number (identification number) of issue (additional issue) of equity securities;
+– number of securities to be transferred in figures and words (may be omitted in an order submitted as an electronic document with an electronic signature);
+– the basis for the transfer of ownership of the securities (name and details of the document);
+– an indication of the existence and type of encumbrances on the securities to be transferred.
+In relation to the person to whose personal account the securities are to be credited:
+– last name, first name, patronymic (if any; for individuals and notaries) or full name (for legal entities);
+– type of personal account of a registered person (personal account of a securities holder, personal account of a trustee, personal account of a nominee holder, personal account of a nominee holder of the central depository, deposit personal account, treasury personal account of an issuer (obligor upon securities), personal account of an escrow agent);
+– type, series, number, date of issue of an identification document or birth certificate (in the case of an individual under 14 years of age), name of the issuing authority; Primary State Registration Number and date of its assignment (for Russian legal entities), number (if any) and date of the document confirming the state registration (for foreign legal entities); details of the notary license (document) (date, number and name of the licensing authority for notaries);
+– personal account number (mandatory if the person to whose personal account the securities are to be credited has more than one account in the register).
+The order must be signed by the registered person transferring the securities or his/her authorised representative.
+Where pledged securities are transferred (save when they are transferred by the pledgor to the pledgee), unless the terms and conditions of the pledge stipulate that the pledged securities are disposed of without the consent of the pledgee, the order must also be signed by the person whose sample signature is contained in the pledgee application form.
+Where the pledged securities are transferred by the pledgor to the pledgee, the order must be signed by the pledgor (including affixed with the stamp of the legal person) or its authorised representative.
+Where the securities are held by the holder under the right of common shared ownership, the order must be signed by all participants of common shared ownership. In the absence of such signatures, a notarised power of attorney must be provided, issued by all participants of common shared ownership to the person who signed the order on their behalf.
+An order authorising transactions in the personal account of a registered individual under 14 years of age must be signed by his/her parent, adoptive parent or guardian, whose sample signature is contained in the application form of the registered individual.
+An order authorising transactions in the personal account of a registered natural person aged 14 to 18 (unless this person has attained full legal capacity or has been declared fully capable) must be signed by this registered person and must also contain a notation of consent to sign the order signed by the registered person's parent, adoptive parent or guardian, whose
+signature sample is contained in the application form of the registered person. Such an order may not contain a notation of consent to be signed by the registered person if a written consent to the transaction underlying the transfer of the securities signed by the parent, adoptive parent or guardian has been submitted to the registrar.
+An order which is the basis for transactions in the personal account of a registered individual who has been declared incapable must be signed by his/her guardian, whose sample signature is contained in the application form of the registered person. An order authorising transactions in the personal account of a registered individual whose legal capability is restricted must be signed by him/her and must also contain a note of consent to sign the order signed by his/her guardian, whose sample signature is contained in the application form
+of the registered person. Such an order may not contain a notation of consent to be signed by a registered person signed by that registered person's trustee if the registrar has been provided with his/her written consent to the transaction underlying the transfer of the securities.
+Where the order is signed by a parent, adoptive parent or guardian, or contains a notation of consent to the signing of the order by the registered person, signed by the parent, adoptive parent or guardian, or the registry holder is provided with the written consent of the parent, adoptive parent or guardian to the transaction underlying the securities transfer, the registry holder must also be provided with the written consent of the guardianship and custody authority to make (issue consent to make) such a transaction.</t>
+  </si>
+  <si>
+    <t>A pledge order will be submitted for the recording of a pledge and must contain the following data:
+In relation to the person pledging the securities and the person to whom the securities are pledged:
+– surname, first name, patronymic (if any; for individuals) or full name (for legal entities); type, series, number, date and place of issue of the identity document, name of the issuing authority (for individuals), or name of the registering authority, Primary State Registration Number and date of state registration (for Russian legal entities), or number assigned to the foreign legal entity in the commercial register or other register of the state in which such legal entity is registered (if any), date of state registration of such legal entity and name of the registering state body (for foreign legal entities).
+In relation to pledged securities:
+– full name of the issuer;
+– type, category, series, state registration number of issue of securities;
+– number of securities (in figures and words) to be pledged. 
+Instead of specifying the number of securities to be pledged, the pledge order may specify that all securities registered on the personal account of the registered person being the pledgor will be pledged;
+– number of the pledgor's personal account containing the pledged securities;
+– number and date of securities pledge agreement (save for the case when securities are pledged to secure performance of obligations under bonds and the case when securities are pledged in a criminal case);
+– indication that the pledge holders are bondholders, as well as the full name of the issuer of such bonds, their series, the state registration number of the bond issue and date of state registration, if the securities are pledged to secure the performance of obligations under the bonds.
+Where securities are pledged to a court or authority in charge of a criminal case, in relation to the pledgee, the pledge order will specify the full name of the court or authority in charge of the criminal case to which the securities have been pledged and the number of the criminal case.
+Where a pledge of pledged securities is recorded as a subsequent pledge, this must be specified in the pledge order. In this case, the pledge order must contain the surname, first name, patronymic (if any; for individuals) or full name (for legal entities) of the previous pledgees and other terms and conditions of the previous pledges.
+A pledge order may specify the following pledge terms and conditions:
+– transfer of pledged securities is permitted without the consent of the pledgee;
+– subsequent pledge of securities is prohibited;
+– assignment of rights under a pledge agreement without the consent of the pledgor is prohibited;
+– a pledge applies to all securities received by the pledgor as a result of conversion of pledged securities;
+– a pledge applies to the number of securities of a certain type, category, series additionally credited to the pledgor's personal account in proportion to all or part of the pledged securities;
+– the recipient of income on pledged securities is the pledgee;
+– the pledged securities are enforced extrajudicially, whereby the pledge must specify the date from which the pledgee has the right to enforce the pledged securities extrajudicially;
+– the securities pledged under an agreement stipulating the periodicity of performance of obligations by the pledgor being a debtor under the agreement are enforced extrajudicially, whereby the pledge order may state that the date from which the pledgee has the right to enforce the pledged securities extrajudicially is not set;
+– a list of documents to be provided by the pledgee upon termination of the pledge and extrajudicial enforcement of the securities.
+The pledge order must be signed by the pledgor (including affixed with a seal of the legal entity, if any) and the pledgee or their authorised representatives.
+Where securities are pledged to a court or authority conducting a criminal case, the pledge order must be signed by the pledgor (including affixed with a seal of the legal entity) or its authorised representative.
+Amendments to the pledgor's personal account data on pledged securities and terms and conditions of pledge will be made by the Registrar based on the amendment order signed by the pledgor and the pledgee (including affixed with a stamp of the legal entity) or their authorised representatives. Where securities are pledged to secure the performance of obligations under the bonds, no signature of the pledgee is required.</t>
+  </si>
+  <si>
+    <t>An order to amend the data in the pledgor's personal account on pledged securities and terms and conditions of pledge must contain the following data:
+In relation to the pledgor and the pledgee:
+– surname, first name, patronymic (if any; for individuals) or full name (for legal entities);
+– type, series, number, date of issue of the identity document, name of the issuing authority (for individuals); or the name of the registering authority, Primary State Registration Number and date of state registration (for Russian legal entities), or the number assigned to the foreign legal entity in the commercial register or other register of the state in which such legal entity is registered (if any), date of state registration of such legal entity and the name of the registering state authority (for foreign legal entities).
+Information on registered pledge of securities:
+– full name of the issuer;
+– number of pledgor's personal account where pledged securities are recorded;
+– number and date of the securities pledge agreement registered as the basis for recording the pledge right;
+– number and date of addendum/agreement on registered pledge on whose basis these amendments are made (if any);
+– pledge terms and conditions.
+An order to amend the pledge terms and conditions must be signed by the pledgor and the pledgee (including affixed with a seal of the legal entity) or their authorised representatives, or without such an order in cases stipulated by federal law or an agreement between the right holder and the person who records rights to uncertificated securities and the person in whose favour the encumbrance is established. The written form of consent under this clause will be deemed to have been complied with if it is provided to the Registrar in the form of an electronic message signed with a qualified electronic signature or, if provided for in the rules for maintaining the register or the terms and conditions of the depositary agreement with the person whose securities are encumbered and the person in whose favour the encumbrance is established, by a simple or non-qualified electronic signature.
+Where securities are pledged to secure the performance of obligations under the bonds, no signature of the pledgee is required.</t>
+  </si>
+  <si>
+    <t>An order to assign pledge rights must contain the following data:
+The order to assign pledge rights in relation to the person assigning rights under the securities pledge agreement, the person to whom such rights are assigned and the pledgor must contain the following data:
+– surname, first name, patronymic (if any; for individuals) or full name (for legal entities);
+– type, number, series, date and place of issue of the identity document, as well as the name of the issuing authority (for individuals) or the name of the registering state authority, Primary State Registration Number and date of state registration (for Russian legal entities), or the number assigned to the foreign legal entity in the commercial register or other register of the state in which such legal entity is registered (if any), date of state registration of such legal entity and the name of the registering state authority (for foreign legal entities).
+In relation to securities whose rights under a pledge agreement are assigned: 
+– full name of the issuer;
+– number of securities (in figures and words);
+– type, category, series, state registration number of the issue;
+– number of the pledgor's personal account where pledged securities are recorded;
+– number and date of the securities pledge agreement;
+– data on the number and date of the assignment agreement under the securities pledge agreement. An order to transfer a pledge must be signed by the pledgee or the pledgee's authorised representative and, if the pledgor's personal account information contains a prohibition on the assignment of rights under a securities pledge agreement without the consent of the pledgor, it must also be signed by the pledgor or the pledgor's authorised representative.</t>
+  </si>
+  <si>
+    <t>An order to terminate pledge must contain the following data:
+In relation to the pledgor and the pledgee:
+– surname, first name, patronymic (if any; for individuals) or full name (for legal entities);
+– type, number, series, date of issue of the identity document, name of the issuing authority (for individuals); or the name of the registering state authority, Primary State Registration Number and date of state registration (for Russian legal entities), or the number assigned to the foreign legal entity in the commercial register or other register of the state in which such legal entity is registered (if any), date of state registration of such legal entity and the name of the registering state authority (for foreign legal entities).
+In relation to pledged securities
+:– full name of the issuer;
+– type, category, series, state registration number of issue of securities;
+– number of securities (in figures and words);
+– number and date of securities pledge agreement.
+An order to terminate pledge must be signed by the pledgee or the pledgor and the pledgee (including affixed with a seal of the legal entity) or their authorised representatives.
+In case of termination of pledge of securities and assignment of securities due to foreclosure by a court decision, the order to terminate pledge must be signed by the pledgee (including affixed with a seal of the legal entity) or its authorised representative (the person indicated in the resolution on issuance of bonds secured by pledge of securities as the person in charge of the sale thereof).</t>
+  </si>
+  <si>
+    <t>An order to provide information from the registry must contain the following data: 
+– name of the issuer;
+– surname, first name, patronymic (if any; for individuals and notaries) or full name (for legal entities);
+– type, series, number, date of issue of an identity document (for individuals); name of the registering state authority, Primary State Registration Number and date of state registration (for Russian legal entities), or the number assigned to a foreign legal entity in the commercial register or other register of the state in which such legal entity is registered (if any), date of state registration of such legal entity (for foreign legal entities); details of the notary license (document) (date, number and name of the issuing authority (document) for a notary);
+– type of account of the registered person (personal account of securities owner, personal account of trustee, personal account of nominee holder, personal account of nominee holder of central depository, deposit personal account, treasury personal account of the issuer, personal account of escrow agent);
+– list of requested information;
+– method of receiving information;
+– date as of which the information is requested (if extracts, certificates of securities on account and lists of persons are requested);
+– period of time (in case of requesting reports and statements on transactions in the personal account);
+– signature of the registered person (including affixed with a seal of the legal entity, if any) or its authorised representative.
+The Registrar may provide information from the register to a registered person without an order, subject to the Registrar's obligation to do so.</t>
+  </si>
+  <si>
+    <t>An order to lift restrictions on transactions with securities must contain the following data:
+– full name of the issuer;
+– instructions to the Registrar to lift restrictions on transactions with securities;
+– type of personal account of a registered person (personal account of securities holder, personal account of trustee, personal account of nominee holder, personal account of nominee holder of central depository, deposit personal account, treasury personal account of issuer);
+– surname, first name, patronymic (if any; for individuals and notaries) or full name (for legal entities);
+– type, series, number, date of issue of the identity document, name of the issuing authority (for individuals); name of the state registration authority, Primary State Registration Number and date of state registration (for Russian legal entities), or the number assigned to the foreign legal entity in the commercial register or other register of the state in which such legal entity is registered (if any), date of state registration of such legal entity and name of the registering state authority (for foreign legal entities); details of the notary license (document) (date, number and name of the issuing authority for a notary);
+– type, category of securities, state registration number of issue, number of securities (in figures and words) on which the restriction is to be lifted;
+– signature of the registered person (including affixed with a seal of the legal entity, if any) or its authorised representative.</t>
+  </si>
+  <si>
+    <t>The owner's order to transfer securities to the deposit account must contain the following data:
+– full name of the issuer; surname, first name, patronymic (if any)/full name of the owner transferring the securities;
+– type, category (type or series), state registration number of security issue;
+– number of securities to be transferred (in figures and words);
+– substantiation documents (names and details of documents) for making entries in the register;
+– indication of the existence and type of encumbrance over the transferred securities;
+– type, series, number, date of issue of an identification document, name of the issuing authority (for individuals), information on state registration and/or entry of records in the Unified State Register of Legal Entities (date, number and name of the state registering authority for legal entities) of the holder transferring the securities;
+– surname, first name, patronymic (if any) of a notary, details of the notary licence (date, number and name of issuing authority);
+– type, series, number, date of issue of an identification document, name of the issuing authority (for individuals), information on state registration and/or entry into the Unified State Register of Legal Entities (date, number and name of the state registration authority for legal entities) of the creditor under the obligation of the securities holder;
+– person/entity being a creditor under the obligation of the securities holder, whereby the securities holder will specify information known to him/her about such creditor: type, series, number, date of issue of an identity document, name of the issuing authority (for individuals), information on state registration and/or entry into the Unified State Register of Legal Entities (date, number and name of the registering state authority for legal entities).
+Should there be uncertainty as to the identity of the creditor to the obligation of the securities holder, in particular in connection with a dispute over this between the creditor and other persons, an appropriate entry will be made in the order to deposit the securities in the deposit personal account.</t>
+  </si>
+  <si>
+    <t>Procedure for submitting documents</t>
+  </si>
+  <si>
+    <t>The Registrar will accept documents from registered persons, their authorised representatives, the issuer's authorised representatives and other persons as required by the regulations of the Bank of Russia and the Register Keeping Rules. 
+The Registrar will accept documents at the Registrar's registered office for not less than 4 hours each working day. Reception times are posted on the official website: https://crc-reg.com
+Documents may be submitted to the registrar:
+– in person;
+– through an authorised representative;
+– by mail;
+– through a transfer agent/issuer performing part of the registrar's functions;
+– through electronic communication channels. 
+Orders may be sent to the Registrar by post if:
+– the registered person has expressly indicated this method of provision of documents in the registered person's application form;
+– the registered person has attached to the documents to be provided an appropriate written indication of this method of provision of documents.</t>
+  </si>
+  <si>
+    <t>Documents to open a personal account will be submitted to the Registrar by the registered persons in one of the following ways:
+– in person by the person who needs to open a personal account;
+– in person by a representative of the person who needs to open a personal account;
+– using the electronic document management system, if the person to whom a personal account is opened using the electronic document management system has previously been identified in accordance with Federal Law No 115-ФЗ.
+The documents submitted to the Registrar pursuant to this clause must be supported by evidence of payment for the Registrar's services in accordance with the Price List in force at the time of submission of such documents.
+In all methods of submitting documents to open a personal account, the representative of the person who needs to open a personal account must submit documents that certify the representative's authority to submit these documents.</t>
+  </si>
+  <si>
+    <t>Documents for a transaction and documents for providing information from the register will be submitted to the Registrar in one of the following ways:
+– in person by the registered person;
+– in person by a representative of the registered person;
+– by post from the registered person or his/her representative;
+– using the electronic document management system.
+Documents for making entries in the register on the transfer of ownership of securities, entries on deposition of securities to the personal account of a nominee holder and withdrawal of securities from the personal account of a nominee holder, save for court decisions, documents of enforcement proceedings, as well as documents in electronic form (signed by electronic digital signature) sent to the Registrar by a registered person through the established electronic document flow between the Registrar and that person, must be submitted to the Registrar or the transfer agent of the Registrar in person by the registered person (its authorised representative) if:
+– transaction price specified in the transfer order or the total market value of the securities in whose respect the documents are submitted, based on the results of on-exchange trading for the day preceding the day on which the documents are received by the registrar, or the total nominal value of securities (if they have no market value) exceeds RUB 300,000;
+– the number of securities in whose respect the documents have been submitted is at least 1% of the total number of outstanding securities of the relevant issuer.
+These restrictions will apply to cases where the Registrar receives two or more orders for the deposition and withdrawal of securities received by the Registrar within the period specified for the execution of the first order received by the Registrar and in the aggregate satisfying one of the criteria set out above. Failure to comply with these restrictions will entitle the Registrar to refuse to conduct a transaction in the register if the documents for conducting transactions in the register are not submitted in person by the registered person or his/her authorised representative.
+The documents submitted to the Registrar pursuant to this clause must be supported by evidence of payment for the Registrar's services in accordance with the Price List in force at the time of submission of such documents.
+In all methods of submitting documents for transactions or providing information from the register, the representative of the registered person must provide documents confirming the representative's authority to provide these documents. Where a representative sends documents for transactions and information from the register by post, a duly certified copy of the representative's identity document must be submitted.
+Where the register does not contain a registered person application form, documents to perform other operations and provide information from the register must be submitted together with the registered person application form and other documents (if the information on the registered person has changed) required to amend the personal account information on the registered person.
+Should no application form of the registered person be available in the register, the documents required to amend the personal account information on the registered person must be submitted in person by the registered person or his/her representative, if as of the moment of document submission:
+– the total market value of securities registered in the personal account of the registered person, based on the results of on-exchange trading for the day preceding the day of receipt of documents by the Registrar, or the total face value of these securities exceeds RUB 300,000;
+– the number of securities registered on the personal account of the registered person is at least 1% of the total number of outstanding securities of the relevant issuer. 
+Should a registered person intend to send documents to effect a transaction or provide information from the register to the Registrar by post, the relevant indication must be contained in the order (request) of the registered person or in any other document provided to the Registrar by any means, including the registered person application form. Should the request not be made on the Registrar's letterhead and still contain all the necessary details, the Registrar will provide the requested information to the requester, provided there are no other grounds for refusal. Should there be such an indication in the registered person application form available in the register, its presence is not required in the order (request) delivered by post to perform a transaction (provide information from the register) on the basis of that order (request). This requirement does not apply to orders of the Russian Federation, a constituent entity of the Russian Federation, a municipal entity represented by a state authority or a local authority exercising the powers of the securities holder.</t>
+  </si>
+  <si>
+    <t>For opening a personal account for an individual:
+– copy of an identity document certified by an authorised person of the Registrar, or a notarised copy if the documents are not submitted in person by the person who opens the personal account (not provided if the application form is submitted by the person who opens the personal account in the form of an electronic document signed by his/her electronic signature);
+– copy of the birth certificate or adoption certificate (for minors under 14 years old) certified by an authorised person of the Registrar or a notarised copy;
+– copy of the identity document of the legal representative/guardian (for minors under 18, incapable persons or persons with restricted capability) certified by an authorised person of the Registrar;
+– copies of documents confirming the right of guardianship (guardianship certificate, order of appointment as the chief physician of a medical institution) (for incapable persons or persons with restricted capability) certified by an authorised person of the Registrar or notarised copies;
+– a court decision declaring the person incapable/restricted in capability (for incapable persons or persons with restricted capability) — an original or a copy certified by the court, a copy certified by the notary;
+– a court decision on referral to a medical treatment facility (for incapable persons or persons with restricted capability) — an original or a copy certified by the court.
+If the documents to open a personal account for an individual are not submitted in person by the person to whom the personal account is opened, notarised copies thereof must be submitted to the Registrar.</t>
+  </si>
+  <si>
+    <t>To open a personal account for a notary:
+– copy of an identity document certified by an authorised person of the Registrar;
+– copy of the notarised order granting powers to a notary;
+– copy of the notarised notary licence (document).</t>
+  </si>
+  <si>
+    <t>To open a personal account for a legal entity being a resident of the Russian Federation:
+– copy of the Articles of Association, notarised or certified by the registering authority;
+– document confirming the appointment of persons entitled to act on behalf of the legal entity without power of attorney (copy of the minutes or the original extract from the minutes of the meeting of the authorised body of the registered person, containing the resolution on appointment of the current sole executive body, certified by the legal entity);
+– copy of the certificate of state registration of a legal entity, notarised or certified by the registering authority (to be submitted if the legal entity is registered on or after July 1, 2002);
+– copy of the certificate of entry into the Unified State Register of Legal Entities regarding the legal entity registered before July 1, 2002 or the entry sheet of the Unified State Register of Legal Entities, notarised or certified by the registering authority (to be submitted if the legal entity was registered before July 1, 2002);
+– original card containing a notarised sample signature of the person entitled to act on behalf of the legal entity without a power of attorney, or a notarised copy thereof if the signature on the application form of the registered person has not been duly authenticated;
+– original extract from the Unified State Register of Legal Entities or a duly certified copy thereof, including in electronic form, signed by an enhanced qualified electronic signature of the issuing authority (to be submitted for opening a personal account of a securities holder or a personal account of a trustee for a Russian legal entity);
+– notorised copy of the licence of a professional securities market participant to perform depository activities (to be submitted for opening a personal account of a nominee holder);
+– a notarised copy of a licence of a professional securities market participant to perform securities management activities (to be submitted for opening a personal account of a trustee, save for cases when pursuant to the Federal Law 'On the Securities Market' such a licence is not required).
+Should the powers of the sole executive body be transferred:
+– the managing company must be supplemented with the following documents: – an appendix to the application form of the registered person/pledgee (for legal entities) transferring the functions of the sole executive body to the managing organisation/individual entrepreneur (manager);
+– copy of the resolution to transfer the powers of the sole executive body to the Managing Company, certified by a legal person or notarised;
+– copy of the power transfer agreement concluded between the legal entity and the Managing Company, certified by the legal entity or notarised;
+– copy of the Articles of Association, notarised or certified by the registering authority;
+– document confirming the appointment of persons authorised to act on behalf of the legal entity without a power of attorney (copy of the minutes certified by the legal entity or the original extract from the minutes of the meeting of the authorised body of the registered person, containing the resolution on the appointment of the current sole executive body);
+– copy of the certificate of state registration of the legal entity, notarised or certified by the registering authority (to be submitted if the legal entity is registered on or after July 1, 2002);
+– copy of the certificate of entry into the Unified State Register of Legal Entities regarding the legal entity registered before July 1, 2002, or the entry sheet of the Unified State Register of Legal Entities, notarised or certified by the registering authority (to be submitted if the legal entity was registered before July 1, 2002);
+– original extract from the Unified State Register of Legal Entities or a duly certified copy thereof, including in electronic form, signed by an enhanced qualified electronic signature of the authority issuing the document, will be submitted to open a personal account of a securities holder or a personal account of a trustee for a Russian legal entity).
+– The following documents must also be submitted to the individual entrepreneur (manager):
+– copy of the passport of the individual entrepreneur (manager);
+– appendix to the application form of the registered person/pledgee (for legal entities) transferring the functions of the sole executive body to the managing organisation/individual entrepreneur (manager);
+– copy of the resolution to transfer the powers of the sole executive body to an individual entrepreneur (manager), certified by a legal entity or notarised;
+– copy of the power transfer agreement concluded between the legal entity and the individual entrepreneur (manager), certified by the legal entity or notarised;
+– copy of the state registration certificate of a natural person as an individual entrepreneur, notarised or certified by the registering authority;
+– original extract from the Unified State Register of Individual Entrepreneurs or a duly certified copy thereof, including in electronic form, signed by an enhanced qualified electronic signature of the issuing authority, will be submitted to a Russian legal entity for the purpose of opening a securities holder account or a trustee account).</t>
+  </si>
+  <si>
+    <t>To open a personal account to the Russian Federation, a constituent entity of the Russian Federation, a municipality represented by the state authority or a local government body exercising the powers of the securities holder:
+– application form of the registered person;
+– copy of the legal act on whose basis the authorised body exercises the rights of the securities holder, verified by an authorised person of the authorised body;
+– copy of the document confirming the appointment of the head of the authorised body, verified by an authorised person of the authorised body; 
+– copy of the certificate of state registration of the authorised body as a legal entity, verified by an authorised person of the authorised body;
+– original documents confirming the powers of persons to act on behalf of the authorised body, or copies thereof, verified by an authorised person of the authorised body.</t>
+  </si>
+  <si>
+    <t>To open a personal account for a non-resident legal entity, the following documents should be submitted:
+– Articles of Association and/or memorandum of association or other document that, under the legislation of the country of incorporation of the legal entity, is a constituent document for the legal entity and contains information on the powers of the officers of the legal entity (notarised copy);
+– certificate of state registration of a legal entity or an equivalent document (the original extract from the commercial register or other register of the state in which the foreign legal entity is registered, or a notarised copy thereof, containing information on the registration of a legal entity in accordance with the legislation of the non-resident's country of origin;
+– a notarised document confirming the appointment of persons authorised to act on behalf of the legal entity without a power of attorney (protocol/resolution/decision to appoint a director) or a notarised copy of an extract from such a document; – documents confirming the legal seat of the legal entity, the original or a notarised copy thereof;
+– certificate of shareholders (may be submitted as a document containing information on the personal composition of the management bodies of a legal entity) (notarised copy);
+– a copy of the company's certificate of incorporation or a notarised extract from the commercial register, drawn up not more than one year before the documents are submitted to the Registrar;
+– a document containing a notarised sample signature of an official entitled to act on behalf of the legal entity without a power of attorney (if the signature on the application form of the registered person has not been duly certified).
+Should the sole executive body of a non-resident legal entity be a legal entity, in respect of the latter, all documents listed above in this clause and an annex to the application form of the registered person (for legal entities) assigning the functions of the sole executive body to the management company must be submitted.
+Documents drawn up under foreign law to be submitted to the Registrar by non-residents must be legalised in accordance with the established procedure, unless such legalisation is not required by federal laws and international treaties of the Russian Federation. Such documents must be accompanied by a translation into Russian, whose authenticity and/or authenticity of the translator's signature must be notarised.</t>
+  </si>
+  <si>
+    <t>In order to open a treasury account, the issuer must submit the issuer's application to open a treasury account.</t>
+  </si>
+  <si>
+    <t>A securities holder's personal account to record the right of common shared ownership of securities will be opened subject to the submission of application forms for each participant in common shared ownership to the Registrar.</t>
+  </si>
+  <si>
+    <t>For individuals, the documents confirming the fact of change of details will be:
+In case of a change of surname, first name, patronymic:
+– certificate of change of surname, first name, patronymic;
+– marriage/divorce certificate.
+An individual must submit the original or a notarised copy of the aforementioned document.
+In case of change of the identity document, one of the following documents:
+– statement issued by the authority which replaced the identity document, certificate obtained via a multifunctional centre for public and municipal services;
+– copy of the new identity document with a note of the former document. At the same time, the said copy must be certified in the presence of an authorised person of the Registrar or notarised (a copy of the identity document will not be provided if the documents for changing the information contained in the application form are submitted by the registered person in the form of electronic documents signed with his/her electronic signature).</t>
+  </si>
+  <si>
+    <t>For legal entities (including issuers), documents confirming the fact of change of details will be:
+– duly certified documents whose details have changed;
+– a notarised copy of the certificate of introduction of changes into the Unified State Register of Legal Entities, if such changes are subject to registration/introduction into the Unified State Register of Legal Entities.
+Where a nominee holder (trustee) who has a personal account in the register of security holders is reorganised in the form of transformation, or where it is reorganised through merger with another depository (trustee) to which no personal account of a nominee holder (trustee) is opened in the register of security holders, the Registrar will conduct an operation to amend the information in the said personal account of the nominee holder (trustee) based on the following documents:
+– legal entity application form;
+– copy of the Articles of Association, notarised or certified by the registering authority;
+– copy of the document confirming that the record on reorganisation of the nominee holder (trustee) in the form of transformation has been made in the Unified State Register of Legal Entities, notarised or certified by the registering authority, in case of reorganisation in the form of transformation;
+– copy(copies) of the document(s) confirming that an entry has been made in the Unified State Register of Legal Entities on the removal from the register of the nominee holder (trustee) as a result of its reorganisation in the form of a merger, and on its merger with another nominee holder (trustee), notarised or certified by the registering authority, in case of reorganisation in the form of a merger;
+– document confirming the appointment of persons authorised to act on behalf of the legal entity without a power of attorney (copy of the minutes certified by the legal entity or an original extract from the minutes);
+– specimen signatures and seal card of the legal entity - a notarised copy (if the officials of the legal entity entitled to act on its behalf without power of attorney have not signed the registered person application form in the presence of an authorised representative of the Registrar);
+– copy of the notarised license of a professional participant of the securities market issued to a legal entity to which the nominee holder (trustee) has been merged, in case of reorganisation in the form of a merger;
+– a legal entity established as a result of transformation must provide the Registrar with a notarised copy of the said licence within fifteen (15) working days after it has received from the Bank of Russia a duly reissued form of licence of a professional participant of the securities market.</t>
+  </si>
+  <si>
+    <t>The registrar will make an entry in the register on the transfer of securities ownership rights upon execution of a transaction based on an order submitted by registered persons or their authorised representatives, authorised representatives of the issuer, authorised representatives of state bodies, a notary with regard to the following:
+An order underlying transactions in the personal account of a registered individual under 14 years of age must be signed by his/her parent, adoptive parent or guardian, whose sample signature is contained in the registered person application form.
+An order underlying transactions in the personal account of a registered individual aged 14 to 18 (unless this individual has attained full legal capacity or has been declared fully capable) must contain a notation of consent to sign the order signed by his/her parent, adoptive parent or guardian, whose sample signature is contained in the registered person application form, or a written consent to the transaction signed by the parent, adoptive parent or guardian is submitted.
+Should the order be signed by a parent, adoptive parent or guardian or contain a notation of consent for the registered person to sign the order signed by the parent, adoptive parent or guardian, or the Registrar be provided with the written consent of the parent, adoptive parent or guardian for the transaction underlying the securities transfer, the Registrar must also be provided with the written consent of the guardianship and custody authority to make (issue consent to make) such a transaction.
+The order may be signed by the registered person transferring the securities or his/her authorised representative.
+When entries are made on the title transfer of securities held in common shared ownership, the order must be signed by all participants in common shared ownership or their authorised representatives.</t>
+  </si>
+  <si>
+    <t>The Registrar will make an entry in the register on the transfer of the securities ownership rights as a result of inheritance based on the original or notarised copy of the certificate of inheritance and/or certificate of ownership, subject to the following:
+If the personal account in the register was not opened to the heir earlier, the documents required to open a personal account must be submitted to the Registrar.
+One personal account will be opened for two or more heirs, into which the inherited securities will be credited from the personal account of the ancestor, and will be recorded in it by right of common shared ownership. A securities holder's personal account for recording the right of common shared ownership of securities will be opened subject to the submission to the Registrar of application forms for each heir or one application form of one of the heirs, subject to the provision of information allowing for the identification of each participant in the common shared ownership of the securities.
+Should a written agreement (contract, court decision) on the division of inherited property specifying the whole number of securities distributed to heirs, signed by each of the heirs or their authorised representatives, be submitted to the Registrar simultaneously with the certificate (if all heirs are named in one certificate) or the certificates (if certificates are issued to each heir) on the right of succession, the Registrar will open a personal account for the holder for each heir and credit the securities to them in accordance with the agreement (contract, court decision) on the division of inherited property.
+Upon executing the transaction, the Registrar will credit each of the heirs with securities pursuant to the certificate specifying all the heirs, or the certificates if the certificates have been issued to each of the heirs and the certificate(s) specifies(specify) an integer number of securities. The transaction will be executed when there is a personal account(s) opened in the registry for the heir(s) or when the application forms of registered persons to open personal account(s) have been submitted. 
+An agreement (contract, court decision) on the division of inherited property between heirs for minors under the age of 14 will be signed by their legal representatives; upon reaching the age of 14, the agreement will be signed by the minors personally.
+Should the inherited property be divided between heirs who include minors under 14 years of age, the Registrar must be provided with written permission from the guardianship authorities to divide the inherited property.
+Should the heirs fail to agree on the division of securities, the Registrar will open a single personal account with details of all the heirs and credit the total number of securities specified in the certificate of inheritance.</t>
+  </si>
+  <si>
+    <t>The Registrar will make an entry in the register in execution of judicial acts based on a judicial act that has entered into legal force, certified by a court or based on the act of the person executing the judicial act (hereinafter, the Enforcement Documents).
+Enforcement Documents will include (the list is not exhaustive):
+– An original Enforcement Document (in the case of enforcement of a court order);
+– An order of an enforcement officer or other officer of the bailiff service (where the Registrar is not a defendant in accordance with the court decision).
+Documents of court authorities, writs of execution will be accepted for execution in the following cases:
+– when delivered personally to the registry holder through an authorised representative of court authorities;
+– when documents sent by the judicial authorities by letter to the registry holder are received;
+– documents may be submitted by the parties to the case or their authorised representatives in person or by post;
+– the enforcement officer's order may be delivered to the registry holder in person by the enforcement officer, or sent by post by the bailiff service or provided by the recoverer.
+The enforcement document, with the exception of the order of the enforcement officer, the court order, the notary's writ of execution and the notarised alimony agreement, must specify:
+1) name and address of the court or other authority issuing the enforcement document, surname and initials of the official;
+2) the title and numbers of the case or materials on whose basis the enforcement document was issued;
+3) the date of a judicial act, act of another authority or official;
+4) the date of entry into force of a judicial act, act of another authority or official or an indication of immediate execution;
+5) information on the debtor and the recoverer:
+a) for citizens — surname, first name, patronymic (if any), place of residence or stay, and for a debtor — date and place of birth, place of employment (if known), one of the identifiers (insurance number of an individual personal account, taxpayer identification number, series and number of an identity document, series and number of a driving licence, series and number of a vehicle registration certificate); for a debtor who is an individual entrepreneur also — taxpayer identification number, Primary State Identification Number (if known);
+b) for organisations — name and address indicated in the Unified State Register of Legal Entities, actual address (if known), taxpayer identification number, Primary State Registration Number (if known);
+c) for the Russian Federation, a constituent entity of the Russian Federation or a municipality, the name and address of the body authorised to exercise rights and perform duties in enforcement proceedings on their behalf;
+d) in the case of a foreign State, also the name and location of the relevant authority, institution or other entity;
+6) the operative part of a judicial act, an act of another authority or an official requiring the debtor to transfer money or other property to the recoverer or to perform or refrain from performing certain actions in favour of the recoverer;
+7) date of issue of the enforcement document.
+The order of the enforcement officer or other officer of the bailiff service must specify:
+1) the name of the Bailiff Department and its address;
+2) the date of the order issuing;
+3) the position, surname and initials of the person issuing the order;
+4) the name and number of the enforcement proceeding in whose respect the order is issued;
+5) the matter in whose respect the order is issued;
+6) the grounds for the resolution with reference to federal laws and other normative legal acts;
+7) the resolution adopted on the matter under consideration;
+8) the procedure for appealing against the order.
+Should the Registrar directly receive an enforcement document initiating a transaction on withdrawal of securities from the personal account of the debtor and deposition of these securities on the personal account of the recoverer pursuant to Article 8.1 of the Federal Law 'On Enforcement Proceedings' No 229-ФЗ dated October 2, 2007, the Registrar will conduct the operation based on the following documents (in the aggregate):
+– provided by the recoverer of the Enforcement Document;
+– an application by the recoverer (recoverer's representative) to send the Enforcement Document for enforcement, which should specify:
+– surname, first name, patronymic (if any), citizenship, details of the identity document, place of residence or stay, taxpayer identification number (if any), details of the migration card and the document confirming the right to stay (residence) in the Russian Federation of the recovering citizen;
+– name, taxpayer identification number or code of the foreign organisation, state registration number, place of state registration and legal address of the recoverer being a legal entity.
+The recoverer's representative will present an authorisation document and provide information about the recoverer and himself or herself in the statement.
+The above documents may be submitted by the recoverer, provided that the recoverer has information about the securities held in the debtor's designated accounts.
+Transactions involving the withdrawal and deposition of securities based on Executive Documents will be carried out subject to the opening of a personal account by the person to whose personal account the securities are to be deposited.
+Pursuant to Clause 4 of Article 73.1 of the Federal Law 'On Enforcement Proceedings' No 229-ФЗ dated October 2, 2007, in case of reasonable doubts regarding authenticity of the Enforcement Document received directly from the recoverer (his/her representative) or doubts regarding authenticity of the provided information, the Registrar may delay enforcement of the Enforcement Document in order to verify its authenticity, but not longer than for seven (7) days.
+Pursuant to Clause 2 of Article 73.1 of the Federal Law 'On Enforcement Proceedings' No 229-ФЗ dated October 2, 2007 the Registrar will, within three days (save as specified in Clause 9.5.4) of receipt of the Enforcement Document from the recoverer or the enforcement officer, execute the requests contained in the Enforcement Document to withdraw from the debtor's account and deposit on the recoverer's account equity securities or make a note of full or partial non-execution of these requests due to the absence of equity securities on the debtor's accounts sufficient to satisfy the recoverer's claims. 
+Pursuant to Clause 5 of Article 73.1 of the Federal Law 'On Enforcement Proceedings' No 229-ФЗ dated October 2, 2007, if the equity securities available on the debtor's personal account are insufficient to fulfil the requirements to withdraw the equity securities contained in the Enforcement Document, the Registrar will withdraw the equity securities available on the debtor's account and continue further execution as equity securities are deposited to the debtor's account until the requirements to withdraw the securities contained in the Enforcement Document are fulfilled in full. If the Enforcement Order has been received from the recoverer, the Registrar will notify the enforcement officer, or the recoverer of the transactions carried out.
+Completion of the execution of the Enforcement Document requirements will be:
+– withdrawal of securities in full;
+– order of the enforcement officer to discontinue (terminate, cancel) the Enforcement Proceedings.
+Where circumstances hinder the execution of a judicial act, the Registrar may apply to a court or the enforcement officer for a deferral or instalment of the execution of the judicial act or for changing the manner and procedure for its execution.
+Should it be impossible to enforce a court decision that has become enforceable, the Registrar may apply to the court for an explanation of that decision. In this case, the execution of the court decision will be suspended until the Registrar receives the court's explanations.</t>
+  </si>
+  <si>
+    <t>The Registrar will make an entry in the register on the transfer of ownership of securities upon reorganisation of a registered person in the form of a merger, consolidation, division, separation and transformation based on the following documents:
+Extract from the deed of transfer of securities to the newly established legal entity (in case of merger) (if prepared), copies of the agreement or resolution on reorganisation, certified in due course, and the document confirming state registration of the newly established legal entity (in case of reorganisation by merger, division, spin-off);
+Extract from the deed of transfer of securities to the legal entity to which the registered person has merged (in case of merger) (if prepared), copies of the agreement or resolution on reorganisation, certified in due course.
+Extract from the transfer act of the registered legal entity on the transfer of securities to one or more newly established legal entities (in case of a division and spin-off), copies of the agreement or resolution on reorganisation certified in due course and the document confirming the state registration of the newly established legal entity.
+Documents required to open a personal account for the new holder (if the account was not previously opened in the register).
+Notarised copy (or electronic document signed by an enhanced qualified electronic signature of the issuing authority) of the extract from the Unified State Register of Legal Entities on the termination of the legal entity and/or establishment of the legal entity (in case of accession, division, merger and transformation).
+A copy of the deed of transfer must be signed by authorised representatives of the legal entity(ies).
+Transactions related to reorganisation in the form of transformation will be entered into the register by the Registrar making a record of withdrawal of the securities from the personal account of the registered person and deposition of the securities to the personal account of the newly established legal entity.
+Where a nominee holder (trustee) who has a personal account in the register of security holders is reorganised in the form of transformation, or where it is reorganised through merger with another depository (trustee) to which no personal account of a nominee holder (trustee) is opened in the register of security holders, the Registrar will conduct an operation to amend the information in the said personal account of the nominee holder (trustee).
+Where a nominee holder merges with another depository which has a nominee holder personal account in the register of registered securities holders, the Registrar will re-register the securities from the personal account of the merged nominee holder to the personal account of the nominee holder being merged based on the following documents:
+– instructions of the nominee holder being merged;
+– copy(copies) of document(s) confirming that an entry has been made to the Unified State Register of Legal Entities regarding the deletion of a nominee holder (trustee) from the register as a result of its reorganisation in the form of a merger, and its merger with another nominee holder (trustee), notarised or certified by the registering authority, in case of reorganisation in the form of a merger.</t>
+  </si>
+  <si>
+    <t>The Registrar will make an entry in the register on the transfer of ownership of securities upon voluntary liquidation of a legal entity based on the order and the following documents:
+Extract from the resolution of the authorised body of the registered person appointing a liquidation commission, agreed with the body conducting the state registration of legal entities (or a certificate from the body that conducted the state registration of the legal entity, containing information that the legal entity is in the process of liquidation).
+A document certifying the powers of the chairman of the liquidation commission.
+Documents required to open a personal account of the holder into which the securities of the person to be liquidated are to be credited (if the account has not been opened earlier).
+An order required to record the transfer of ownership of securities in the event of voluntary liquidation of a registered person must be signed by the chairman of the liquidation commission.
+An extract from the resolution appointing the liquidation commission must be signed by the chairman and the secretary of the authorised body of the registered person resolving on the voluntary liquidation.
+In order to make entries on the transfer of ownership of securities in the event of liquidation of a registered legal entity upon insolvency (bankruptcy), the Registrar must be provided with a court decision.</t>
+  </si>
+  <si>
+    <t>Specifics of making an entry in the register on the transfer of ownership of securities upon privatisation will be established by the legislation of the Russian Federation.</t>
+  </si>
+  <si>
+    <t>The Registrar will make an entry in the register on the recording of a pledge of securities, including a subsequent pledge of securities based on a pledge order.
+The Registrar will introduce amendments to the pledgor's personal account data on pledged securities and pledge terms and conditions based on an order to introduce amendments on pledged securities and pledge terms and conditions signed by the pledgor and the pledgee (including affixed with a seal of the legal entity) or their authorised representatives. Where securities are pledged to secure the performance of obligations under the bonds, no signature of the pledgee is required.
+The Registrar will transfer pledged securities to the pledgee based on an order signed by the pledgor (including affixed with a seal of the legal entity, if any) or its authorised representative.
+The Registrar will record the termination of pledge based on a pledge termination order signed by the pledgee or the pledgor and the pledgee (including affixed with a seal of the legal entity) or their authorised representatives.
+Where rights under a pledge agreement are transferred, the information in the pledgee's personal account will be amended accordingly.
+The Registrar will take these actions based on an order to transfer a pledge.
+The Registrar will record the termination of pledge based on a pledge termination order signed by the pledgee or the pledgor and the pledgee (including affixed with a seal of the legal entity) or their authorised representatives.
+The Registrar will make entries on termination of pledge and transfer of securities due to foreclosure without a court decision based on an order signed by the pledgee (including affixed with a seal of the legal entity) or its authorised representative (the person indicated in the resolution on the issue of pledged bonds as the person who will sell them) to which documents specified in the pledge order must be attached, namely:
+– purchase and sale agreement for pledged securities concluded as a result of an auction;;
+– an extract from the register of transactions of the trade organiser, confirming the conclusion of the securities transaction;
+– purchase and sale agreement for the securities concluded by the commission agent and the commission agreement between the pledgee and the commission agent.
+The Registrar will make a record of termination of pledge of securities pledged to a court or a body in charge of a criminal case, where the securities are returned to the pledgor, based on the court ruling that resolved the issue of return of pledge to the pledgor, or the resolution of the investigator (inquiry officer) to terminate the criminal case.
+The Registrar will make entries on the termination of the pledge of securities and the transfer of securities in connection with their foreclosure by court order based on:
+– an order signed by the pledgee (including affixed with a seal of the legal entity) or its authorised representative (the person indicated in the resolution to issue bonds secured by a pledge of securities as the person who will sell them) and originals or duly executed copies of the court decision and the pledged securities purchase and sale agreement concluded as a result of the tender;
+– an order signed by the pledgee (including affixed with a seal of the legal entity) or its authorised representative (the person indicated in the resolution to issue bonds secured by a pledge of securities as the person who will sell them) and originals or duly executed copies of the court decision when foreclosing on the securities traded on tenders held by listing authorities;
+– should the pledgee retain the pledged securities — a court decision and the minutes of the failed re-tender, after which no more than one month has elapsed;
+– should the securities pledged to the court or the authority in charge of the criminal case be recovered for the benefit of the State
+— a court decision made in accordance with the requirements of criminal procedure law.
+The Registrar will make a pledge termination entry in the event that the pledgee has not exercised the right to retain the pledged securities, based on a pledge termination order signed by the pledgor or his/her authorised representative, which must be accompanied by:
+– minutes of failed re-tendering, after which at least 2 months have elapsed;
+– written notice (dated not more than five (5) days prior to receipt by the Registrar) issued by the pledgor stating that he/she has not received an application from the pledgee to retain possession of the subject of pledge;
+– written notice (dated not more than five (5) days prior to receipt by the Registrar) from the tender organiser (enforcement officer) of the absence of receipt.</t>
+  </si>
+  <si>
+    <t>Shares not fully paid at allocation (distribution at incorporation) will be recorded on the personal account of the registered person as restricted/encumbered by the obligation to pay them in full.
+The Registrar will make a record of the restriction/encumbrance on full payment based on the issuer's order containing the requirement to restrict/encumber shares with an obligation to make full payment, the surname, first name, patronymic (if any) / name (name of the authorised organisation acting on behalf of the Russian Federation, Russian Federation constituent entity, municipal entity) and passport details (Primary State Registration Number assigned to the legal entity and date of its assignment) of the shareholder to whom the incompletely paid shares were allocated (distributed upon incorporation), the number of incompletely paid shares, the category (type) of shares, the state registration number of the issue and the full name of the issuer of such shares, reference to the resolution (agreement) under which the incompletely paid shares were allocated (distributed upon incorporation) and which provided for the term for their full payment, simultaneously with withdrawal of such shares from the issuer's issuer account upon their allocation (distribution upon incorporation).
+The Registrar, within three days of the transaction, will notify the holder by registered mail of the fact of crediting the shares to his/her/its personal account and making an entry on their restriction/encumbrance by obligation to pay them in full.
+The Registrar will cancel the entry on encumbrance of shares with the obligation to pay in full, based on the issuer's order, which contains the request to cancel the encumbrance on the shares, the full name (corporate name) and passport data (information about the state registration certificate) of the shareholder, to whom/which the shares not fully paid were allocated (distributed upon incorporation), the number of shares, category (type) of shares to be unencumberred, state registration number of issue and the full name of the issuer of these shares.
+The Registrar will, within three days of the transaction, notify the holder of the shares by registered post of the fact that the entry on the restriction/encumbrance on the shares to pay them in full has been cancelled.
+The Registrar will make an entry on the crediting to the Issuer's treasury account of shares that were not fully paid up within the period provided for by the resolution on their allocation or the agreement based on which they were distributed upon incorporation, based on a written request by the Issuer containing the surname, first name, patronymic (if any) (corporate name) and passport details (details of state registration certificate) of the shareholder to whom the shares not fully paid up were allocated (distributed upon incorporation), the number of shares not fully paid up, the category (type) of shares, the state registration number of the issue and the full name of the issuer of these shares.
+The Registrar will, within three days of the transaction, notify the holder by registered mail of the fact of the transfer of the shares subject to the obligation to pay them in full to the account of the issuer.
+The Registrar may not execute an order of a registered person relating to any transaction involving shares restricted/encumbered by an obligation to pay them in full.</t>
+  </si>
+  <si>
+    <t>The registrar will make an entry in the personal account to record the fact of restrictions imposed on transactions in securities (in respect of all or part of the shares) based on one of the following documents:
+– enforcement document (including the enforcement officer's order);
+– a legally enforceable court ruling or decision;
+– the investigator's order to seize the registered person's property;
+– an original or notarised copy of the death certificate of the registered person being the ancestor;
+– a notary's request related to the opening of an inheritance file and containing the surname, first name, patronymic (if any), date of birth and/or place of residence of the deceased;
+– information on the encumbrance of securities received from the previous registrar and copies of the documents (certified by the transferor) which served as the basis for the encumbrance, blocking and/or seizure entries in the register;
+– escrow agreement;
+– pursuant to federal law.
+An entry on recording the fact of restricting operations with securities made in the register in pursuance of the seizure of the debtor's securities imposed by the enforcement officer during foreclosure on the debtor's property will not prevent actions on their redemption, payment of income on them, their conversion or exchange for other securities, where such actions are provided for by the terms and conditions of the issue of the seized securities and are not prohibited by the resolution on the seizure of the securities.
+The Registrar will make an entry in the register on recording the fact of removing restrictions on operations with securities (part of shares) on the personal account of the registered person, for which the fact of restrictions on operations with securities was recorded based on one of the documents listed below:
+– order of the registered person;
+– writ of execution or order issued by an enforcement officer;
+– legally enforceable court ruling or decision;
+– the investigator's order to cancel the seizure of the registered person's property;
+– certificate of inheritance (original or notarised copy) before an entry is made in the register on the transfer of ownership of securities as a result of inheritance or a certificate of ownership of the surviving spouse;
+– other documents provided for in the current legislation of the Russian Federation, issued by authorised state bodies;
+– escrow agreement;
+– pursuant to federal laws.</t>
+  </si>
+  <si>
+    <t>The Registrar will make an entry in the register on the deposition/withdrawal of securities to/from an account of a nominee holder during the transfer of securities without transfer of ownership rights, based on an order specifying the agreement under which the nominee holder is servicing its client.
+The Registrar will make an entry in the register on the deposition/withdrawal of securities to/from an account of a nominee holder as a result of a transaction with simultaneous transfer of securities to nominee holding, based on an order specifying the agreement under which the securities are alienated and the agreement under which the nominee holder serves its client.</t>
+  </si>
+  <si>
+    <t>The Registrar will make an entry in the register on the deposition of pledged securities (with or without transfer of ownership rights) to the personal account of a nominee holder based on an order indicating the existence of encumbrances on the securities to be transferred.</t>
+  </si>
+  <si>
+    <t>Securities will be withdrawn from the trustee's account upon submission of the following documents:
+– an order of the trustee to withdraw/deposit the securities from/to the settlor's (security holder's) account;
+– certificates of succession to the account(s) of the heir(s);
+– court decision;
+– documents confirming payment for the securities in the event of redemption of the securities pursuant to Article 84.8 of the Federal Law 'On Joint-Stock Companies' (in this case, a securities holder or trustee may submit an application specifying the details for transferring funds for the redeemable securities);
+– other documents stipulated by the legislation of the Russian Federation.</t>
+  </si>
+  <si>
+    <t>The Registrar will terminate the blocking of transactions in the deposit personal account, as well as withdrawal from the deposit personal account of securities transferred to the notary's deposit account, upon submission of the following documents:
+– court decision;
+– documents confirming payment for the securities in the event of redemption of the securities pursuant to Article 84.8 of the Federal Law 'On Joint-Stock Companies';
+– an order to withdraw the securities to the creditor's account specified by the securities holder;
+– in other cases provided for in the legislation of the Russian Federation.</t>
+  </si>
+  <si>
+    <t>The Registrar will make an entry in the register on pooling of personal accounts based on the registered person's order to pool personal accounts, if there are several personal accounts opened for the same registered person in the register of one issuer.</t>
+  </si>
+  <si>
+    <t>The Registrar will make an entry in the register to close the personal account of a registered person when there are no securities in their account in the following cases:
+– based on the registered person's order to close his/her/its personal account;
+– when pooling personal accounts;
+– in the event of termination of the legal entity based on an extract from the Unified State Register of Legal Entities and/or Certificate of Record in the Unified State Register of Legal Entities submitted to the Registrar or received by the Registrar;
+– based on the certificate of inheritance after the securities have been withdrawn to the heirs' account(s);
+– based on the list of clients of the organisation which has ceased to perform nominee holder functions, after all securities have been withdrawn from the personal account of this nominee holder.</t>
+  </si>
+  <si>
+    <t>btn4_ru</t>
+  </si>
+  <si>
+    <t>btn5_ru</t>
+  </si>
+  <si>
+    <t>btn6_ru</t>
+  </si>
+  <si>
+    <t>btn7_ru</t>
+  </si>
+  <si>
+    <t>btn8_ru</t>
+  </si>
+  <si>
+    <t>btn9_ru</t>
+  </si>
+  <si>
+    <t>btn10_ru</t>
+  </si>
+  <si>
+    <t>btn11_ru</t>
+  </si>
+  <si>
+    <t>btn12_ru</t>
+  </si>
+  <si>
+    <t>btn13_ru</t>
+  </si>
+  <si>
+    <t>btn14_ru</t>
+  </si>
+  <si>
+    <t>btn15_ru</t>
+  </si>
+  <si>
+    <t>btn16_ru</t>
+  </si>
+  <si>
+    <t>btn17_ru</t>
+  </si>
+  <si>
+    <t>btn18_ru</t>
+  </si>
+  <si>
+    <t>btn19_ru</t>
+  </si>
+  <si>
+    <t>btn20_ru</t>
+  </si>
+  <si>
+    <t>btn21_ru</t>
+  </si>
+  <si>
+    <t>btn22_ru</t>
+  </si>
+  <si>
+    <t>btn23_ru</t>
+  </si>
+  <si>
+    <t>btn24_ru</t>
+  </si>
+  <si>
+    <t>btn25_ru</t>
+  </si>
+  <si>
+    <t>btn26_ru</t>
+  </si>
+  <si>
+    <t>btn27_ru</t>
+  </si>
+  <si>
+    <t>btn28_ru</t>
+  </si>
+  <si>
+    <t>btn29_ru</t>
+  </si>
+  <si>
+    <t>btn30_ru</t>
+  </si>
+  <si>
+    <t>btn31_ru</t>
+  </si>
+  <si>
+    <t>btn32_ru</t>
+  </si>
+  <si>
+    <t>btn33_ru</t>
+  </si>
+  <si>
+    <t>btn34_ru</t>
+  </si>
+  <si>
+    <t>btn35_ru</t>
+  </si>
+  <si>
+    <t>btn36_ru</t>
+  </si>
+  <si>
+    <t>btn37_ru</t>
+  </si>
+  <si>
+    <t>btn38_ru</t>
+  </si>
+  <si>
+    <t>btn39_ru</t>
+  </si>
+  <si>
+    <t>btn40_ru</t>
+  </si>
+  <si>
+    <t>btn41_ru</t>
+  </si>
+  <si>
+    <t>btn42_ru</t>
+  </si>
+  <si>
+    <t>btn43_ru</t>
+  </si>
+  <si>
+    <t>btn44_ru</t>
+  </si>
+  <si>
+    <t>btn45_ru</t>
+  </si>
+  <si>
+    <t>btn1_en</t>
+  </si>
+  <si>
+    <t>btn2_en</t>
+  </si>
+  <si>
+    <t>btn3_en</t>
+  </si>
+  <si>
+    <t>btn4_en</t>
+  </si>
+  <si>
+    <t>btn5_en</t>
+  </si>
+  <si>
+    <t>btn6_en</t>
+  </si>
+  <si>
+    <t>btn7_en</t>
+  </si>
+  <si>
+    <t>btn8_en</t>
+  </si>
+  <si>
+    <t>btn9_en</t>
+  </si>
+  <si>
+    <t>btn10_en</t>
+  </si>
+  <si>
+    <t>btn11_en</t>
+  </si>
+  <si>
+    <t>btn12_en</t>
+  </si>
+  <si>
+    <t>btn13_en</t>
+  </si>
+  <si>
+    <t>btn14_en</t>
+  </si>
+  <si>
+    <t>btn15_en</t>
+  </si>
+  <si>
+    <t>btn16_en</t>
+  </si>
+  <si>
+    <t>btn17_en</t>
+  </si>
+  <si>
+    <t>btn18_en</t>
+  </si>
+  <si>
+    <t>btn19_en</t>
+  </si>
+  <si>
+    <t>btn20_en</t>
+  </si>
+  <si>
+    <t>btn21_en</t>
+  </si>
+  <si>
+    <t>btn22_en</t>
+  </si>
+  <si>
+    <t>btn23_en</t>
+  </si>
+  <si>
+    <t>btn24_en</t>
+  </si>
+  <si>
+    <t>btn25_en</t>
+  </si>
+  <si>
+    <t>btn26_en</t>
+  </si>
+  <si>
+    <t>btn27_en</t>
+  </si>
+  <si>
+    <t>btn28_en</t>
+  </si>
+  <si>
+    <t>btn29_en</t>
+  </si>
+  <si>
+    <t>btn30_en</t>
+  </si>
+  <si>
+    <t>btn31_en</t>
+  </si>
+  <si>
+    <t>btn32_en</t>
+  </si>
+  <si>
+    <t>btn33_en</t>
+  </si>
+  <si>
+    <t>btn34_en</t>
+  </si>
+  <si>
+    <t>btn35_en</t>
+  </si>
+  <si>
+    <t>btn36_en</t>
+  </si>
+  <si>
+    <t>btn37_en</t>
+  </si>
+  <si>
+    <t>btn38_en</t>
+  </si>
+  <si>
+    <t>btn39_en</t>
+  </si>
+  <si>
+    <t>btn40_en</t>
+  </si>
+  <si>
+    <t>btn41_en</t>
+  </si>
+  <si>
+    <t>btn42_en</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1839,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1105,7 +1847,7 @@
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1113,7 +1855,7 @@
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1121,7 +1863,7 @@
     </row>
     <row r="4" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1129,7 +1871,7 @@
     </row>
     <row r="5" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1137,7 +1879,7 @@
     </row>
     <row r="6" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1145,7 +1887,7 @@
     </row>
     <row r="7" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1153,18 +1895,18 @@
     </row>
     <row r="8" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1177,7 +1919,7 @@
     </row>
     <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -1185,7 +1927,7 @@
     </row>
     <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -1193,15 +1935,15 @@
     </row>
     <row r="13" spans="1:2" ht="345" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
@@ -1209,7 +1951,7 @@
     </row>
     <row r="15" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1217,7 +1959,7 @@
     </row>
     <row r="16" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
@@ -1225,7 +1967,7 @@
     </row>
     <row r="17" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
@@ -1233,7 +1975,7 @@
     </row>
     <row r="18" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
@@ -1244,12 +1986,12 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
@@ -1257,7 +1999,7 @@
     </row>
     <row r="21" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
@@ -1265,7 +2007,7 @@
     </row>
     <row r="22" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
@@ -1273,7 +2015,7 @@
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>18</v>
@@ -1281,7 +2023,7 @@
     </row>
     <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
@@ -1289,7 +2031,7 @@
     </row>
     <row r="25" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
@@ -1297,7 +2039,7 @@
     </row>
     <row r="26" spans="1:2" ht="345" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>21</v>
@@ -1305,7 +2047,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
@@ -1313,15 +2055,15 @@
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>24</v>
@@ -1329,7 +2071,7 @@
     </row>
     <row r="30" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>25</v>
@@ -1337,7 +2079,7 @@
     </row>
     <row r="31" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>26</v>
@@ -1345,7 +2087,7 @@
     </row>
     <row r="32" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>27</v>
@@ -1353,7 +2095,7 @@
     </row>
     <row r="33" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>28</v>
@@ -1361,15 +2103,15 @@
     </row>
     <row r="34" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>29</v>
@@ -1377,7 +2119,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>30</v>
@@ -1385,15 +2127,15 @@
     </row>
     <row r="37" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>31</v>
@@ -1401,7 +2143,7 @@
     </row>
     <row r="39" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>32</v>
@@ -1409,23 +2151,23 @@
     </row>
     <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>33</v>
@@ -1433,7 +2175,7 @@
     </row>
     <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>34</v>
@@ -1441,22 +2183,382 @@
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>78</v>
+    </row>
+    <row r="83" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file.xlsx
+++ b/file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\Crcregbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Crcregbot new rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,167 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="178">
-  <si>
-    <t>Для всех зарегистрированных лиц Анкета должна содержать:
- – наименование эмитента (эмитентов), в реестр (-ы) которого(-ых) предоставлена анкета зарегистрированного лица;
-– цель предоставления (для открытия лицевого счета или внесения изменений в информацию лицевого счета о зарегистрированном лице);
-– вид лицевого счета зарегистрированного лица (лицевой счет владельца ценных бумаг, лицевой счет доверительного управляющего, лицевой счет номинального держателя, лицевой счет номинального держателя центрального депозитария, депозитный лицевой счет, казначейский лицевой счет эмитента, лицевой счет, эскроу-агента);
-– идентификационный номер налогоплательщика (при наличии);
-– сведения о реквизитах для выплаты доходов по ценным бумагам;
-– банковские реквизиты (при перечислении денежных средств на банковский счет);
-– способ предоставления Регистратору документов, являющихся основанием для совершения операций (почтовым отправлением, лично/уполномоченным представителем, в форме электронного документа, подписанного электронной подписью);
-– способ получения уведомления об открытии/отказе в открытии лицевого счета/других документов от Регистратора (почтовым отправлением, лично у регистратора, уполномоченным представителем, в форме электронного документа, подписанного электронной подписью);
-– согласие на внесение исправительных записей в соответствии со ст. 8.5 Федерального закона «О рынке ценных бумаг»;
-– согласие на обработку персональных данных в соответствии со ст. 9 Федерального закона от 27.07.2006 № 152-ФЗ «О персональных данных» (кроме юридических лиц).</t>
-  </si>
-  <si>
-    <t>Анкета эмитента предоставляется при приеме реестра владельцев ценных бумаг, для внесения записей/изменений в анкетные данные эмитента и должна содержать следующие данные:
- – полное наименование эмитента в соответствии с его Уставом;
-– сокращенное наименование эмитента в соответствии с его Уставом;
-– сведения о государственной регистрации и внесения записи в ЕГРЮЛ (дата, номер и наименование государственного органа, осуществившего регистрацию);
-– адрес места нахождения;
-– почтовый адрес;
-– номер телефона, факса (при наличии);
-– электронный адрес (при наличии);
-– фамилия, имя, отчество (при наличии) единоличного исполнительного органа эмитента, наименование его должности в соответствии с Уставом, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, и наименование органа, выдавшего соответствующий документ, сведения о том, является ли такое должностное лицо ИПДЛ/РПДЛ/ДЛПМО/супругой (- ом), близким родственником;
-– образец печати (при наличии) и образец подписи лица, имеющего право действовать от имени эмитента без доверенности (может не содержаться в случае направления анкеты в виде электронного документа, подписанного электронной подписью);
-– идентификационный номер налогоплательщика (ИНН);
-– банковские реквизиты;
-– иные сведения, не противоречащие требованиям законодательства.
-В случае, если функции единоличного исполнительного органа эмитента по договору переданы Управляющей организации, Регистратору предоставляется анкета эмитента и анкета на Управляющую организацию, содержащая следующие данные:
-– полное наименование Управляющей организации эмитента в соответствии с ее Уставом;
-– сведения о государственной регистрации и/или внесения записи в ЕГРЮЛ (дата, номер и наименование государственного органа, осуществившего регистрацию);
-– адрес места нахождения;
-– почтовый адрес;
-– номер телефона, факса (при наличии);
-– электронный адрес (при наличии);
-– фамилия, имя, отчество (при наличии) должностного лица, имеющего в соответствии с уставом право действовать от имени Управляющей организации эмитента без доверенности, наименование должности, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность и наименование органа, выдавшего соответствующий документ;
-– образец печати Управляющей организации (при наличии) и образец подписи лица, имеющего право действовать от имени Управляющей организации эмитента без доверенности (может не содержаться в случае направления анкеты в виде электронного документа, подписанного электронной подписью);
-– идентификационный номер налогоплательщика (ИНН);
-– банковские реквизиты;
-– иные сведение, не противоречащие требованиям законодательства.</t>
-  </si>
-  <si>
-    <t>Анкета зарегистрированного лица физического лица предоставляется для открытия лицевого счета или внесения изменений в информацию лицевого счета и должна содержать следующие данные:
-– фамилия, имя, отчество (при наличии);
-– гражданство, а если такое физическое лицо является лицом без гражданства, – указание на это обстоятельство;
-– вид, серия, номер, дата выдачи документа, удостоверяющего личность, наименование органа, выдавшего документ;
-– дата и место рождения;
-– адрес места регистрации;
-– адрес фактического места жительства (почтовый адрес) с указанием индекса;
-– образец подписи физического лица;
-– электронный адрес (при наличии);
-– номер телефона, факса (при наличии);
-– способ получения сообщения о проведении общего собрания акционеров из числа предусмотренных Уставом эмитента;
-– может содержать иные сведения, не противоречащие требованиям законодательства.
-Для физического лица в возрасте до 18 лет должны содержаться также следующие сведения:
-– фамилия, имя, отчество (при наличии) родителя (родителей), усыновителя, опекуна или попечителя;
-– вид, серия, номер, дата документа (документов), удостоверяющего личность родителя (родителей), усыновителя, опекуна или попечителя, а также наименование органа, выдавшего этот документ;
-– образец подписи родителя (родителей), усыновителя, опекуна или попечителя. Сведения, предусмотренные настоящим пунктом, могут не включаться в анкету, если лицевой счет открывается физическому лицу, являющемуся несовершеннолетним физическим лицом, и указанное лицо представило документы, подтверждающие, что оно приобрело дееспособность в полном объеме или объявлено полностью дееспособным.
-В анкете, представляемой для открытия лицевого счета физическому лицу, признанному недееспособным должны содержаться также следующие сведения:
-– фамилия, имя, отчество (при наличии) опекуна;
-– вид, серия, номер, дата выдачи документа (документов), удостоверяющего личность опекуна, а также наименование органа, выдавшего этот документ;
-– реквизиты акта о назначении опекуна;
-– образец подписи опекуна.
-В анкете, представляемой для открытия лицевого счета физическому лицу, дееспособность которого ограничена, должны содержаться также следующие сведения:
-– фамилия, имя, отчество (при наличии) попечителя;
-– вид, серия, номер, дата выдачи документа (документов), удостоверяющего личность попечителя, а также наименование органа, выдавшего этот документ;
-– реквизиты акта о назначении попечителя;
-– образец подписи попечителя.
-В случае назначения финансового управляющего в деле о банкротстве физического лица, Регистратору дополнительно предоставляются сведения:
-– фамилия, имя, отчество (при наличии) финансового управляющего, образец его подписи (подпись должна быть удостоверена нотариально, если не была проставлена в присутствии сотрудника Регистратора), а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, и наименование органа, выдавшего соответствующий документ, реквизиты судебного акта об утверждении финансового управляющего.
-Если лицо, которому открывается лицевой счет, моложе 14 лет, в анкете может не содержаться образец его подписи.
-В анкете, предоставляемой для открытия лицевого счета физическому лицу в возрасте до 18 лет, должен содержаться образец подписи родителя (родителей), усыновителя, опекуна или попечителя.
-В анкете, предоставляемой для открытия лицевого счета лица, признанного недееспособным (или дееспособность которого ограничена), должен содержаться образец подписи опекуна (попечителя).</t>
-  </si>
-  <si>
-    <t>Анкета зарегистрированного лица юридического лица предоставляется для открытия лицевого счета или внесения изменений в информацию лицевого счета и должна содержать следующие данные:
-– полное и, если имеется, сокращенное наименование юридического лица в соответствии с его уставом;
-– ОГРН и дата его присвоения (для юридического лица, созданного в соответствии с законодательством Российской Федерации);
-– номер, присвоенный юридическому лицу в торговом реестре или ином учетном регистре государства, в котором зарегистрировано такое юридическое лицо (если имеется), и дата государственной регистрации юридического лица или присвоения номера (для иностранного юридического лица);
-– место нахождения;
-– адрес для направления корреспонденции (почтовый адрес) с указанием индекса;
-– номер телефона, факса (при наличии);
-– электронный адрес (при наличии);
-– способ получения сообщения о проведении общего собрания акционеров из числа предусмотренных Уставом эмитента;
-– фамилия, имя, отчество (при наличии) должностного лица, имеющего право действовать от имени юридического лица без доверенности, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, и наименование органа, выдавшего соответствующий документ, сведения о том, является ли такое должностное лицо ИПДЛ/РПДЛ/ДЛПМО/супругой (-ом), близким родственником;
-– образец печати (при наличии) и образец подписи лица, имеющего право действовать от имени юридического лица без доверенности (может не содержаться в случае направления анкеты в виде электронного документа, подписанного электронной подписью).
-Если полномочия единоличного исполнительного органа юридического лица, которому открывается лицевой счет, переданы управляющей организации, то анкета должна содержать сведения об управляющей организации, в том же объеме, что и в отношении юридического лица, которому открывается лицевой счет.
-В случае введения внешнего управления, открытия конкурсного производства (в случае, если на арбитражного управляющего в деле о банкротстве юридического лица возложено осуществление функций единоличного исполнительного органа), для внесения записей в реестр в анкете зарегистрированного лица дополнительно указываются следующие данные:
-– фамилия, имя, отчество (при наличии), наименование должности и образец подписи арбитражного управляющего, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, и наименование органа, выдавшего соответствующий документ;
-– образец печати юридического лица.</t>
-  </si>
-  <si>
-    <t>Анкета зарегистрированного лица (для нотариуса) предоставляется для открытия лицевого счета или внесения изменений в информацию лицевого счета и должна содержать следующие данные:
-– фамилия, имя, отчество (при наличии) нотариуса;
-– дата и место рождения нотариуса;
-– вид, серия, номер, дата выдачи документа, удостоверяющего личность нотариуса, а также наименование органа, выдавшего этот документ;
-– адрес места регистрации и фактического места жительства нотариуса;
-– адрес электронной почты и номер телефона нотариуса (при наличии);
-– реквизиты лицензии на право нотариальной деятельности (дата, номер и наименование органа, выдавшего лицензию), номер и дата документа о назначении на должность;
-– адрес места осуществления нотариальной деятельности; банковские реквизиты;
-– номер телефона, факса (при наличии);
-– образец подписи нотариуса;
-– образец гербовой печати нотариуса.</t>
-  </si>
-  <si>
-    <t>Анкета, представляемая для открытия лицевого счета Российской Федерации, субъекту Российской Федерации, муниципальному образованию в лице органа государственной власти или органа местного самоуправления, осуществляющего правомочия собственника ценных бумаг (далее – Уполномоченный орган) должна содержать следующие сведения:
-– полное наименование уполномоченного органа (с указанием собственника акций, в лице которого выступает уполномоченный орган);
-– ОГРН уполномоченного органа;
-– дата присвоения уполномоченному органу ОГРН;
-– адрес места нахождения уполномоченного органа и его почтовый адрес;
-– адрес электронной почты уполномоченного органа (при наличии);
-– способ получения сообщения о проведении общего собрания акционеров из числа предусмотренных Уставом эмитента;
-– фамилия, имя, отчество (при наличии) руководителя уполномоченного органа, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, и наименование органа, выдавшего соответствующий документ;
-– образец гербовой печати уполномоченного органа и образец подписи руководителя уполномоченного органа.</t>
-  </si>
-  <si>
-    <t>Анкета, представляемая при открытии лицевого счета доверительного управляющего, должна содержать в отношении учредителя доверительного управления следующие сведения:
-В отношении физического лица:
-– фамилия, имя, отчество (при наличии);
-– вид, серия, номер и дата выдачи документа, удостоверяющего личность;
-– дата рождения;
-– адрес места жительства;
-– номер и дата выдачи лицензии на осуществление нотариальной деятельности и наименование органа, выдавшего лицензию, номер и дата приказа о назначении на должность нотариуса, адрес места осуществления нотариальной деятельности (в случае открытия депозитного лицевого счета нотариусу);
-– сведения о наличии права голоса на общем собрании владельцев ценных бумаг.
-В отношении юридического лица, в том числе органа государственной власти и органа местного самоуправления:
-– полное наименование;
-– номер (если имеется), дата государственной регистрации и наименование органа, осуществившего регистрацию (для иностранного юридического лица), или ОГРН, дата присвоения указанного номера и наименование государственного органа, присвоившего указанный номер (для российского юридического лица);
-– адрес места нахождения;
-– сведения о наличии права голоса на общем собрании владельцев ценных бумаг.</t>
-  </si>
-  <si>
-    <t>Распоряжение о совершении операции должно содержать:
-В отношении лица, передающего ценные бумаги:
-– фамилия, имя, отчество (при наличии; для физических лиц и нотариуса) или полное наименование (для юридических лиц). В случае если распоряжение о совершении операции представляется в виде электронного документа с электронной подписью, оно может не содержать фамилию, имя, отчество физического лица или полное наименование юридического лица;
-– вид лицевого счета зарегистрированного лица (лицевой счет владельца ценных бумаг, лицевой счет доверительного управляющего, лицевой счет номинального держателя, лицевой счет номинального держателя центрального депозитария, депозитный лицевой счет, казначейский лицевой счет эмитента, эскроу). В случае если распоряжение о совершении операции представляется в виде электронного документа с электронной подписью, оно должно содержать
-номер (код) счета;
-– вид, серия, номер, дата выдачи документа, удостоверяющего личность или свидетельства о рождении (в отношении физического лица в возрасте до 14 лет), наименование органа, выдавшего документ (для физических лиц);
-– ОГРН и дату его присвоения (для российского юридического лица), номер (если имеется) и дату документа, подтверждающего государственную регистрацию (для иностранного юридического лица); реквизиты лицензии (документа) на право нотариальной деятельности (дата, номер и наименование органа, выдавшего лицензию (документ) для нотариуса); адрес места жительства умершего (в случае передачи ценных бумаг учредителем доверительного управления наследуемого имущества);
-– номер лицевого счета (обязательно указывается в случае, если у лица, передающего ценные бумаги, несколько лицевых счетов в реестре).
-В отношении передаваемых ценных бумаг:
-– полное наименование эмитента (может не содержаться в распоряжении, представляемом в виде электронного документа с электронной подписью);
-– вид, категория (тип), государственный регистрационный номер (идентификационный номер) выпуска (дополнительного выпуска) эмиссионных ценных бумаг;
-– количество передаваемых ценных бумаг цифрами и прописью (может не содержаться в распоряжении, представляемом в виде электронного документа с электронной подписью);
-– основание перехода прав собственности на ценные бумаги (наименование и реквизиты документа);
-– указание на наличие и вид обременения обязательствами передаваемых ценных бумаг.
-В отношении лица, на лицевой счет которого должны быть зачислены ценные бумаги:
-– фамилия, имя, отчество (при наличии; для физических лиц и нотариуса) или полное наименование (для юридических лиц);
-– вид лицевого счета зарегистрированного лица (лицевой счет владельца ценных бумаг, лицевой счет доверительного управляющего, лицевой счет номинального держателя, лицевой счет номинального держателя центрального депозитария, депозитный лицевой счет, казначейский лицевой счет эмитента (лица, обязанного по ценным бумагам), лицевой счет эскроу-агента);
-– вид, серия, номер, дата выдачи документа, удостоверяющего личность или свидетельства о рождении (в отношении физического лица в возрасте до 14 лет), наименование органа, выдавшего документ; ОГРН и дату его присвоения (для российского юридического лица), номер (если имеется) и дату документа, подтверждающего государственную регистрацию (для иностранного юридического лица); реквизиты лицензии (документа) на право нотариальной деятельности (дата, номер и наименование органа выдавшего лицензию для нотариуса);
-– номер лицевого счета (обязательно указывается в случае если у лица, на лицевой счет которого должны быть зачислены ценные бумаги несколько лицевых счетов в реестре).
-Распоряжение должно быть подписано зарегистрированным лицом, передающим ценные бумаги или его уполномоченным представителем.
-В случае передачи заложенных ценных бумаг (кроме случая их передачи залогодателем залогодержателю), если условиями залога не предусмотрено, что распоряжение заложенными ценными бумагами осуществляется без согласия залогодержателя, распоряжение должно быть подписано также лицом, образец подписи которого содержится в анкете залогодержателя.
-В случае передачи залогодателем заложенных ценных бумаг залогодержателю, распоряжение должно быть подписано залогодателем (в том числе скреплено печатью юридического лица) или его уполномоченным представителем.
-В случае если ценные бумаги принадлежат владельцу на праве общей долевой собственности, распоряжение должно быть подписано всеми участниками общей долевой собственности. При отсутствии таких подписей должна быть предоставлена нотариально удостоверенная доверенность, выданная всеми участниками общей долевой собственности лицу, подписавшему от их имени распоряжение.
-Распоряжение, являющееся основанием для совершения операций по лицевому счету зарегистрированного физического лица в возрасте до 14 лет, должно быть подписано его родителем, усыновителем или опекуном, образец подписи которого содержится в анкете зарегистрированного лица.
-Распоряжение, являющееся основанием для совершения операций по лицевому счету зарегистрированного физического лица в возрасте от 14 до 18 лет (если это лицо не приобрело дееспособность в полном объеме или не объявлено полностью дееспособным), должно быть подписано этим зарегистрированным лицом, а также содержать отметку о согласии на подписание им распоряжения, подписанную его родителем, усыновителем или попечителем, образец подписи
-которого содержится в анкете зарегистрированного лица. Такое распоряжение может не содержать отметку о согласии на его подписание зарегистрированным лицом, если держателю реестра представлено подписанное его родителем, усыновителем или попечителем письменное согласие на совершение сделки, являющейся основанием передачи ценных бумаг.
-Распоряжение, являющееся основанием для совершения операций по лицевому счету зарегистрированного физического лица, которое признано недееспособным, должно быть подписано его опекуном, образец подписи которого содержится в анкете зарегистрированного лица. Распоряжение, являющееся основанием для совершения операций по лицевому счету зарегистрированного физического лица, дееспособность которого ограничена, должно быть подписано им, а также содержать отметку о согласии на подписание им распоряжения, подписанную его попечителем, образец подписи которого содержится в анкете
-зарегистрированного лица. Такое распоряжение может не содержать отметку о согласии на его подписание зарегистрированным лицом, подписанную попечителем этого зарегистрированного лица, если держателю реестра представлено его письменное согласие на совершение сделки, являющейся основанием передачи ценных бумаг.
-Если распоряжение подписано родителем, усыновителем или опекуном либо содержит отметку о согласии на подписание зарегистрированным лицом распоряжения, подписанную родителем, усыновителем или попечителем, или держателю реестра представлено письменное согласие родителя, усыновителя или попечителя на совершение сделки, являющейся основанием передачи ценных бумаг, держателю реестра должно быть также представлено письменное разрешение органа опеки и попечительства на совершение (выдачу согласия на совершение) такой сделки.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="184">
   <si>
     <t>Залоговое распоряжение предоставляется для внесения записи о фиксации залога и должно содержать следующие данные:
 В отношении лица, передающего ценные бумаги в залог, и лица, которому ценные бумаги передаются в залог:
@@ -239,28 +79,6 @@
 В случае прекращения залога ценных бумаг и передаче ценных бумаг в связи с обращением на них взыскания по решению суда, распоряжение о прекращении залога должно быть подписано залогодержателем (в том числе скреплено печатью юридического лица) или его уполномоченным представителем (лицом, указанным в решении о выпуске облигаций, обеспеченных залогом ценных бумаг, в качестве лица, которое будет осуществлять их реализацию).</t>
   </si>
   <si>
-    <t>Распоряжение на предоставление информации из реестра должно содержать следующие данные: – наименование эмитента;
-– фамилия, имя, отчество (при наличии; для физических лиц и нотариуса) или полное наименование (для юридических лиц)
-– вид, серия, номер, дата выдачи документа, удостоверяющего личность (для физических лиц); наименование органа, осуществившего государственную регистрацию, ОГРН и дата государственной регистрации (для российских юридических лиц), либо номер, присвоенный иностранному юридическому лицу в торговом реестре или ином учетном регистре государства, в котором зарегистрировано такое юридическое лицо (если имеется), дата государственной регистрации такого юридического лица (для иностранных юридических лиц); реквизиты лицензии (документа) на право нотариальной деятельности (дата, номер и наименование органа выдавшего лицензию (документ) для нотариуса);
-– вид лицевого счета зарегистрированного лица (лицевой счет владельца ценных бумаг, лицевой счет доверительного управляющего, лицевой счет номинального держателя, лицевой счет номинального держателя центрального депозитария, депозитный лицевой счет, казначейский лицевой счет эмитента, лицевой счет эскроу-агента);
-– перечень запрашиваемой информации;
-– способ получения информации;
-– дата, по состоянию на которую необходимо предоставить информацию (в случае запроса выписок, справок о наличии ценных бумаг на счете и списков лиц);
-– период времени (в случае запроса отчетов и справок об операциях по лицевому счету);
-– подпись зарегистрированного лица (в том числе скрепленного печатью юридического лица при наличии) или его уполномоченного представителя.
-Регистратор вправе предоставлять зарегистрированному лицу информацию из реестра без распоряжения, в случае наличия такой обязанности у Регистратора.</t>
-  </si>
-  <si>
-    <t>Распоряжение на снятие факта ограничения операций с ценными бумагами должно содержать следующие данные:
-– полное наименование эмитента;
-– указание Регистратору осуществить снятие ограничения операций с ценными бумагами;
-– вид лицевого счета зарегистрированного лица (лицевой счет владельца ценных бумаг, лицевой счет доверительного управляющего, лицевой счет номинального держателя, лицевой счет номинального держателя центрального депозитария, депозитный лицевой счет, казначейский лицевой счет эмитента);
-– фамилия, имя, отчество (при наличии; для физических лиц и нотариуса) или полное наименование (для юридических лиц);
-– вид, серия, номер, дата выдачи документа, удостоверяющего личность, наименование органа, выдавшего документ (для физических лиц); наименование органа, осуществившего государственную регистрацию, ОГРН и дата государственной регистрации (для российских юридических лиц), либо номер, присвоенный иностранному юридическому лицу в торговом реестре или ином учетном регистре государства, в котором зарегистрировано такое юридическое лицо (если имеется), дата государственной регистрации такого юридического лица и наименование государственного органа, осуществившего государственную регистрацию юридического лица (для иностранных юридических лиц); реквизиты лицензии (документа) на право нотариальной деятельности (дата, номер и наименование органа выдавшего лицензию (документ) для нотариуса);
-– вид, категория (тип) ценных бумаг, государственный регистрационный номер выпуска, количество ценных бумаг (цифрами и прописью), по которым необходимо снять факт ограничения;
-– подпись зарегистрированного лица (в том числе скрепленного печатью юридического лица при наличии) или его уполномоченного представителя.</t>
-  </si>
-  <si>
     <t>Распоряжение владельца о передаче ценных бумаг на депозитный лицевой счет должно содержать следующие данные:
 – полное наименование эмитента; фамилия, имя, отчество (при наличии) / полное наименование владельца, передающего ценные бумаги;
 – вид, категория (тип или серия), государственный регистрационный номер выпуска ценных бумаг;
@@ -285,179 +103,10 @@
 При всех способах предоставления документов для открытия лицевого счета представителем лица, которому требуется открыть лицевой счет, должны быть предоставлены документы, подтверждающие полномочия представителя на предоставление этих документов.</t>
   </si>
   <si>
-    <t>Документы для совершения операции и документы для предоставления информации из реестра предоставляются Регистратору одним из следующих способов:
-– лично зарегистрированным лицом;
-– лично представителем зарегистрированного лица;
-– почтовой связью от зарегистрированного лица или его представителя;
-– с использованием системы электронного документооборота.
-Документы для внесения в реестр записей о переходе права собственности на ценные бумаги, записей о зачислении ценных бумаг на лицевой счет номинального держателя и списании ценных бумаг с лицевого счета номинального держателя, кроме решений суда, документов исполнительного производства, а также кроме документов в электронной форме (подписанных электронной цифровой подписью), направляемых Регистратору зарегистрированным лицом через установленный электронный документооборот между Регистратором и этим лицом, должны быть предоставлены Регистратору или трансфер-агенту Регистратора лично зарегистрированным лицом (его уполномоченным представителем), если:
-- указанная в передаточном распоряжении цена сделки либо суммарная рыночная стоимость ценных бумаг, в отношении которых предоставлены документы, по результатам организованных торгов за день, предшествующий дню получения документов регистратором, либо суммарная номинальная стоимость ценных бумаг (в случае отсутствия рыночной стоимости) превышает 300 000 рублей;
-- количество ценных бумаг, в отношении которых предоставлены документы, составляет не менее 1% общего количества размещенных ценных бумаг соответствующего эмитента.
-Настоящие ограничения распространяются на случаи предоставления Регистратору двух и более распоряжений о зачислении и списании ценных бумаг, полученных Регистратором в срок, установленный для исполнения операции по первому поступившему Регистратору распоряжению, и в совокупности отвечающих одному из критериев, приведенных выше. При несоблюдении указанных ограничений Регистратор вправе отказать в проведении операции в реестре, если документы для проведения операций в реестре не предоставлены лично зарегистрированным лицом или его уполномоченным представителем.
-К документам, предоставляемым Регистратору в соответствии с настоящим пунктом, должны прилагаться документы, подтверждающие оплату услуг Регистратора по Прейскуранту, действующему на момент предоставления таких документов.
-При всех способах предоставления документов для совершения операций или предоставления информации из реестра представителем зарегистрированного лица должны быть предоставлены документы, подтверждающие полномочия представителя на предоставление этих документов. Если представитель направляет документы для совершения операций и предоставления информации из реестра почтой, должна быть предоставлена надлежащим образом удостоверенная копия документа, удостоверяющего личность представителя.
-Если в реестре отсутствует анкета зарегистрированного лица, документы для совершения иных операций и предоставления информации из реестра должны быть предоставлены вместе с анкетой зарегистрированного лица и другими документами, (в случае, если изменились сведения о зарегистрированном лице), необходимыми для внесения изменений в информацию лицевого счета о зарегистрированном лице.
-В случае отсутствия в реестре анкеты зарегистрированного лица, документы, необходимые для внесения изменений в информацию лицевого счета о зарегистрированном лице, должны быть предоставлены лично зарегистрированным лицом или его представителем, если по состоянию на момент предоставления документов:
-- суммарная рыночная стоимость ценных бумаг, учтенных на лицевом счете зарегистрированного лица, по результатам организованных торгов за день, предшествующий дню получения документов Регистратором, или суммарная номинальная стоимость этих ценных бумаг превышает 300 000 рублей;
-- количество ценных бумаг, учтенных на лицевом счете зарегистрированного лица, составляет не менее 1% общего количества размещенных ценных бумаг соответствующего эмитента. 
-В случае если зарегистрированное лицо намерено направлять документы для совершения операции или предоставления информации из реестра Регистратору почтовой связью, соответствующее указание должно содержаться в распоряжении (запросе) зарегистрированного лица либо в любом ином документе, который предоставляется Регистратору любым способом, включая анкету зарегистрированного лица. В случае, если запрос составлен не на бланке Регистратора, и при этом содержит все необходимые данные, Регистратор предоставляет запрашиваемую информацию обратившемуся лицу, при отсутствии иных оснований для отказа. При наличии такого указания в имеющейся в реестре анкете зарегистрированного лица его наличие не требуется в доставленном почтой распоряжении (запросе) для совершения операции (предоставления информации из реестра) на основании этого распоряжения (запроса). Данное требование не распространяется на распоряжения Российской Федерации, субъекта Российской Федерации, муниципального образования в лице органа государственной власти или органа местного самоуправления, осуществляющего правомочия собственника ценных бумаг.</t>
-  </si>
-  <si>
-    <t>Для открытия лицевого счета физическому лицу:
-– копия документа, удостоверяющего личность, заверенная уполномоченным лицом Регистратора, либо копия, заверенная нотариально, если документы не представляются лично лицом, которому открывается лицевой счет (не предоставляется, если анкета представлена лицом, которому открывается лицевой счет, в виде электронного документа, подписанного его электронной подписью);
-– копия свидетельства о рождении или свидетельства об усыновлении/удочерении (для несовершеннолетних до 14 лет), заверенная уполномоченным лицом Регистратора либо копия, заверенная нотариально;
-– копия документа, удостоверяющего личность законного представителя/опекуна (для несовершеннолетних лиц до 18 лет, недееспособных или ограниченных в дееспособности лиц), заверенная уполномоченным лицом Регистратора;
-– копии документов, подтверждающих право на опеку (опекунское удостоверение, приказ о назначении главным врачом лечебного учреждения) (для недееспособных или ограниченных в дееспособности лиц), заверенных уполномоченным лицом Регистратора либо копии, заверенные нотариально;
-– решение суда о признании его недееспособным/ограниченным в дееспособности (для недееспособных или ограниченных в дееспособности лиц) – оригинал или копия, заверенная судом, копия, заверенная нотариально;
-– решение суда о направлении в лечебное учреждение (для недееспособных или ограниченных в дееспособности лиц) – оригинал или копия, заверенная судом.
-Если документы для открытия лицевого счета физическому лицу не представляются лично лицом, которому открывается лицевой счет, Регистратору должны быть предоставлены их копии, удостоверенные нотариально.</t>
-  </si>
-  <si>
-    <t>Для открытия лицевого счета нотариусу:
-– копия документа, удостоверяющего личность, заверенная уполномоченным лицом Регистратора;
-– копия Приказа о наделении нотариуса полномочиями, удостоверенная нотариально;
-– копия лицензии (документа) на право нотариальной деятельности, удостоверенная нотариально.</t>
-  </si>
-  <si>
-    <t>Для открытия лицевого счета юридическому лицу, являющемуся резидентом РФ:
-– копия устава, удостоверенная нотариально или заверенная регистрирующим органом;
-– документ, подтверждающий назначение на должность лиц, имеющих право действовать от имени юридического лица без доверенности (заверенная юридическим лицом копия протокола или оригинал выписки из протокола заседания (собрания) уполномоченного органа зарегистрированного лица, содержащая решение о назначении действующего единоличного исполнительного органа);
-– копия свидетельства о государственной регистрации юридического лица, удостоверенная нотариально или заверенная регистрирующим органом (представляется, если юридическое лицо зарегистрировано 01.07.2002 или позднее);
-– копия свидетельства о внесении записи в ЕГРЮЛ о юридическом лице, зарегистрированном до 1 июля 2002 года, или лист записи ЕГРЮЛ, удостоверенные нотариально или заверенные регистрирующим органом (представляется, если юридическое лицо зарегистрировано до 01.07.2002);
-– оригинал карточки, содержащей нотариально удостоверенный образец подписи лица, имеющего право действовать от имени юридического лица без доверенности, или ее копия, удостоверенная нотариально, если подпись в анкете зарегистрированного лица не удостоверена надлежащим образом;
-– оригинал выписки из ЕГРЮЛ или ее копия, заверенная в установленном порядке, в том числе в электронном виде, подписанная усиленной квалифицированной электронной подписью органа, выдавшего документ (представляется для открытия российскому юридическому лицу лицевого счета владельца ценных бумаг или лицевого счета доверительного управляющего);
-– копия лицензии профессионального участника рынка ценных бумаг на осуществление депозитарной деятельности, удостоверенная нотариально (представляется для открытия лицевого счета номинального держателя);
-– копия лицензии профессионального участника рынка ценных бумаг на осуществление деятельности по управлению ценными бумагами, удостоверенная нотариально (представляется для открытия лицевого счета доверительного управляющего, за исключением случая, когда в соответствии с Федеральным законом «О рынке ценных бумаг» наличие такой лицензии не требуется).
-В случае передачи полномочий единоличного исполнительного органа:
-– управляющей организации дополнительно должны быть предоставлены следующие документы: – приложение к анкете-заявлению зарегистрированного лица/залогодержателя (для юридических лиц), передавшего функции единоличного исполнительного органа управляющей организации/индивидуальному предпринимателю (управляющему);
-– копия решения о передаче полномочий единоличного исполнительного органа Управляющей организации, заверенная юридическим лицом или удостоверенная нотариально;
-– копия договора о передаче полномочий, заключенного между юридическим лицом и Управляющей организацией, заверенная юридическим лицом или удостоверенная нотариально;
-– копия устава, удостоверенная нотариально или заверенная регистрирующим органом;
-– документ, подтверждающий назначение на должность лиц, имеющих право действовать от имени юридического лица без доверенности (заверенная юридическим лицом копия протокола или оригинал выписки из протокола заседания (собрания) уполномоченного органа зарегистрированного лица, содержащая решение о назначении действующего единоличного исполнительного органа);
-– копия свидетельства о государственной регистрации юридического лица, удостоверенная нотариально или заверенная регистрирующим органом (представляется, если юридическое лицо зарегистрировано 01.07.2002 или позднее);
-– копия свидетельства о внесении записи в ЕГРЮЛ о юридическом лице, зарегистрированном до 1 июля 2002 года, или лист записи ЕГРЮЛ, удостоверенные нотариально или заверенные регистрирующим органом (представляется, если юридическое лицо зарегистрировано до 01.07.2002);
-– оригинал выписки из ЕГРЮЛ или ее копия, заверенная в установленном порядке, в том числе в электронном виде, подписанная усиленной квалифицированной электронной подписью органа, выдавшего документ, представляется для открытия российскому юридическому лицу лицевого счета владельца ценных бумаг или лицевого счета доверительного управляющего).
-– индивидуальному предпринимателю (управляющему) дополнительно должны быть предоставлены следующие документы:
-– копия паспорта индивидуального предпринимателя (управляющего);
-– приложение к анкете-заявлению зарегистрированного лица/залогодержателя (для юридических лиц), передавшего функции единоличного исполнительного органа управляющей организации/индивидуальному предпринимателю (управляющему);
-– копия решения о передаче полномочий единоличного исполнительного органа индивидуальному предпринимателю (управляющему), заверенная юридическим лицом или удостоверенная нотариально;
-– копия договора о передаче полномочий, заключенного между юридическим лицом и индивидуальным предпринимателем (управляющим), заверенная юридическим лицом или удостоверенная нотариально;
-– копия свидетельства о государственной регистрации физического лица в качестве индивидуального предпринимателя, удостоверенная нотариально или заверенная регистрирующим органом;
-– оригинал выписки из ЕГРИП или ее копия, заверенная в установленном порядке, в том числе в электронном виде, подписанная усиленной квалифицированной электронной подписью органа, выдавшего документ, представляется для открытия российскому юридическому лицу лицевого счета владельца ценных бумаг или лицевого счета доверительного управляющего).</t>
-  </si>
-  <si>
-    <t>Для открытия лицевого счета Российской Федерации, субъекту Российской Федерации, муниципальному образованию в лице органа государственной власти или органа местного самоуправления, осуществляющего правомочия собственника ценных бумаг:
-– анкета зарегистрированного лица;
-– копия правового акта, на основании которого уполномоченный орган осуществляет правомочия собственника ценных бумаг, верность которой засвидетельствована уполномоченным лицом уполномоченного органа;
-– копия документа, подтверждающего назначение на должность руководителя уполномоченного органа, верность которой засвидетельствована уполномоченным лицом уполномоченного органа; – копия свидетельства о государственной регистрации уполномоченного органа в качестве юридического лица, верность которой засвидетельствована уполномоченным лицом уполномоченного органа;
-– оригиналы документов, подтверждающих полномочия лиц действовать от имени уполномоченного органа, или их копии, верность которых засвидетельствована уполномоченным лицом уполномоченного органа.</t>
-  </si>
-  <si>
-    <t>Для открытия лицевого счета юридическому лицу-нерезиденту необходимо предоставить следующие документы:
-– устав и/или учредительный договор или иной документ, который по законодательству страны происхождения юридического лица является учредительным документом для данной организационно-правовой формы и содержит информацию о полномочиях должностных лиц юридического лица (копия, удостоверенная нотариально);
-– свидетельство о регистрации юридического лица или равнозначный документ (оригинал выписки из торгового реестра или иного учетного регистра государства, в котором зарегистрировано иностранное юридическое лицо, или ее копия, заверенная нотариально, содержащий сведения о регистрации юридического лица в соответствии с законодательством страны происхождения нерезидента;
-– документ, подтверждающий назначение на должность лиц, имеющих право действовать от имени юридического лица без доверенности (протокол/резолюция/решение о назначении директора), или копия выписки из такого документа, заверенные нотариально; – документы, подтверждающие место нахождения юридического лица, оригинал или ее копия, заверенная нотариально;
-– сертификат об акционерах (может быть представлен в качестве документа, содержащего сведения о персональном составе органов управления юридического лица) (копия, заверенная нотариально);
-– копия свидетельства (сертификата) о нахождении компании в реестре, либо выписка из торгового реестра, заверенная нотариально, созданная не более чем за год до предоставления документов Регистратору;
-– документ, содержащий заверенный нотариально образец подписи должностного лица, имеющего право действовать от имени юридического лица без доверенности (если подпись в анкете зарегистрированного лица не удостоверена надлежащим образом).
-В случае если единоличным исполнительным органом юридического лица – нерезидента является юридическое лицо, то в отношении последнего должны быть представлены все вышеперечисленные в настоящем пункте документы и приложение к анкете зарегистрированного лица (для юридических лиц), передавшего функции единоличного исполнительного органа управляющей организации.
-Документы, составленные в соответствии с иностранным правом, представляемые Регистратору нерезидентами должны быть легализованы в установленном порядке, кроме случаев, если в соответствии с федеральными законами и международными договорами РФ такая легализация не требуется. К таким документам должен прилагаться перевод на русский язык, верность которого и (или) подлинность подписи переводчика засвидетельствованы нотариально.</t>
-  </si>
-  <si>
     <t>Для открытия казначейского лицевого счета эмитенту необходимо предоставить заявление эмитента на открытие казначейского лицевого счета.</t>
   </si>
   <si>
     <t>Распоряжения</t>
-  </si>
-  <si>
-    <t>Для физических лиц документами, подтверждающими факт изменения реквизитов, являются:
-При изменении фамилии, имени, отчества:
-– свидетельство об изменении имени, фамилии, отчества;
-– свидетельство о заключении (расторжении) брака.
-Физическое лицо обязано предъявить подлинник или предоставить нотариально удостоверенную копию вышеуказанного документа.
-При изменении данных документа, удостоверяющего личность один из нижеперечисленных документов:
-– справка, выданная органом, осуществившим замену документа, удостоверяющего личность, справка, полученная посредством многофункционального центра предоставления государственных и муниципальных услуг;
-– копия нового документа, удостоверяющего личность, с отметкой о прежнем документе. При этом указанная копия должна быть заверена в присутствии уполномоченного лица Регистратора либо удостоверена нотариально (копия документа, удостоверяющего личность, не предоставляется, если документы для изменения сведений, содержащихся в анкете, представлены зарегистрированным лицом в виде электронных документов, подписанных его электронной подписью).</t>
-  </si>
-  <si>
-    <t>Для юридических лиц (в том числе для эмитентов) документами, подтверждающими факт изменения реквизитов, являются:
-– документы, данные которых изменились, удостоверенные соответствующим образом;
-– нотариально удостоверенная копия свидетельства о внесении изменений в ЕГРЮЛ, если данные изменения подлежат регистрации/внесению в ЕГРЮЛ.
-В случае реорганизации в форме преобразования номинального держателя (доверительного управляющего), которому открыт лицевой счет номинального держателя, а также в случае его реорганизации в форме присоединения к другому депозитарию (доверительному управляющему), которому в реестре владельцев именных ценных бумаг не открыт лицевой счет номинального держателя (доверительного управляющего), Регистратор проводит операцию по внесению изменений в информацию указанного лицевого счета номинального держателя (доверительного управляющего) на основании следующих документов:
-– анкета юридического лица;
-– копия устава, удостоверенная нотариально или заверенная регистрирующим органом;
-– копия документа, подтверждающего внесение в ЕГРЮЛ записи о реорганизации номинального держателя (доверительного управляющего) в форме преобразования, удостоверенная нотариально или заверенная регистрирующим органом, в случае реорганизации в форме преобразования;
-– копия (копии) документа (документов), подтверждающего (подтверждающих) внесение в ЕГРЮЛ записи об исключении из указанного реестра номинального держателя (доверительного управляющего) в результате его реорганизации в форме присоединения, и о его присоединении к другому номинальному держателю (доверительному управляющему), удостоверенная нотариально или заверенная регистрирующим органом, в случае реорганизации в форме присоединения;
-– документ, подтверждающий назначение на должность лиц, имеющих право действовать от имени юридического лица без доверенности (копия протокола, заверенная юридическим лицом, либо оригинал выписки из протокола);
-– карточка с образцами подписей должностных лиц и оттиском печати юридического лица – копия, удостоверенная нотариально (в случае, если должностные лица юридического лица, имеющие право действовать от его имени без доверенности не расписались в анкете зарегистрированного лица в присутствии уполномоченного представителя Регистратора);
-– копия лицензии юридического лица, к которому присоединен номинальный держатель (доверительный управляющий), на осуществление профессиональной деятельности на рынке ценных бумаг, удостоверенная нотариально, в случае реорганизации в форме присоединения;
-– юридическое лицо, созданное в результате преобразования, должно предоставить Регистратору копию указанной лицензии, удостоверенную нотариально в течение 15 (пятнадцати) рабочих дней после получения от Банка России переоформленного в установленном порядке бланка лицензии на осуществление профессиональной деятельности на рынке ценных бумаг.</t>
-  </si>
-  <si>
-    <t>Регистратор вносит в реестр запись о переходе прав собственности на ценные бумаги при совершении сделки на основании распоряжения, предоставленного зарегистрированными лицами или их уполномоченными представителями, уполномоченными представителями эмитента, уполномоченными представителями государственных органов, нотариусом с учетом следующего:
-Распоряжение, являющееся основанием для совершения операций по лицевому счету зарегистрированного физического лица в возрасте до 14 лет, должно быть подписано его родителем, усыновителем или опекуном, образец подписи которого содержится в анкете зарегистрированного лица.
-Распоряжение, являющееся основанием для совершения операций по лицевому счету зарегистрированного физического лица в возрасте от 14 до 18 лет (если это лицо не приобрело дееспособность в полном объеме или не объявлено полностью дееспособным), распоряжение должно содержать отметку о согласии на подписание им распоряжения, подписанную его родителем, усыновителем или попечителем, образец подписи которого содержится в анкете зарегистрированного лица, либо представлено подписанное его родителем, усыновителем или попечителем письменное согласие на совершение сделки, являющейся основанием передачи ценных бумаг.
-Если распоряжение подписано родителем, усыновителем или опекуном либо содержит отметку о согласии на подписание зарегистрированным лицом распоряжения, подписанную родителем, усыновителем или попечителем, или Регистратору представлено письменное согласие родителя, усыновителя или попечителя на совершение сделки, являющейся основанием передачи ценных бумаг, Регистратору должно быть также представлено письменное разрешение органа опеки и попечительства на совершение (выдачу согласия на совершение) такой сделки.
-Распоряжение может быть предоставлено зарегистрированным лицом, передающим ценные бумаги или его уполномоченным представителем.
-При внесении записей о переходе прав собственности на ценные бумаги, находящихся в общей долевой собственности, распоряжение должно быть подписано всеми участниками долевой собственности или их уполномоченными представителями.</t>
-  </si>
-  <si>
-    <t>Регистратор вносит в реестр запись о переходе прав собственности на ценные бумаги в результате наследования на основании оригинала или нотариально удостоверенной копии свидетельства о праве на наследство и/или свидетельства о праве собственности с учетом следующего:
-В случае если лицевой счет наследнику в реестре не был открыт ранее, Регистратору должны быть предоставлены документы, необходимые для открытия лицевого счета.
-Двум или нескольким наследникам открывается один лицевой счет, на который наследуемые ценные бумаги зачисляются с лицевого счета наследодателя, и учитываются на нем, на праве общей долевой собственности. Лицевой счет владельца ценных бумаг для учета права общей долевой собственности на ценные бумаги открывается при условии представления Регистратору анкет на каждого наследника либо одной анкеты одного из наследников, при условии предоставления информации, позволяющей идентифицировать каждого участника общей долевой собственности на ценные бумаги.
-В случае предоставления Регистратору одновременно со свидетельством (если все наследники указаны в одном свидетельстве) или свидетельствами (если свидетельства выданы каждому наследнику) о праве на наследство письменного соглашения (договора, решения суда) о разделе наследуемого имущества с указанием целого количества ценных бумаг, распределенного наследникам, подписанное каждым из наследников или их уполномоченными представителями, Регистратор открывает лицевой счет владельца каждому из наследников и зачисляет на них ценные бумаги согласно соглашению (договору, решению суда) о разделе наследственного имущества.
-Регистратор при совершении операции зачисляет каждому из наследников ценные бумаги в соответствии со свидетельством, в котором указаны все наследники, или свидетельствами, если свидетельства выданы каждому наследнику, и в свидетельстве (-ах) указано целое количество ценных бумаг. Операция совершается при наличии в реестре открытого (-ых) лицевого (-ых) счета (-ов) на наследника (-ов) или предоставлении анкет зарегистрированных лиц для открытия лицевого (-ых) счета (-ов). 
-Соглашение (договор, решение суда) о разделе наследственного имущества между наследниками за несовершеннолетних в возрасте до 14 лет подписывают их законные представители; при достижении 14 лет – соглашение подписывается несовершеннолетними собственноручно.
-В случае раздела наследуемого имущества между наследниками, среди которых имеются несовершеннолетние в возрасте до 14 лет, Регистратору должно быть предоставлено письменное разрешение органов опеки и попечительства на раздел наследуемого имущества.
-В случае если наследники не могут прийти к соглашению о разделе ценных бумаг, Регистратором осуществляется открытие одного лицевого счета с указанием реквизитов всех наследников и зачисление на него общего количества ценных бумаг, указанного в свидетельстве о праве на наследство.</t>
-  </si>
-  <si>
-    <t>Регистратор вносит в реестр запись во исполнение судебных актов на основании судебного акта, вступившего в законную силу, заверенного судом или на основании акта лица, осуществляющего исполнение судебного решения (далее – Исполнительные документы).
-К Исполнительным документам относятся (перечень не является исчерпывающим):
-– Оригинал Исполнительного документа (в случае принудительного исполнения судебного решения);
-– Постановление судебного пристава-исполнителя или иного должностного лица службы судебных приставов (в случае, если Регистратор не является ответчиком в соответствии с решением суда).
-Документы судебных органов, исполнительные листы принимаются к исполнению в следующих случаях:
-– при вручении через уполномоченного представителя судебных органов лично держателю реестра;
-– при получении документов, направленных судебными органами письмом в адрес держателя реестра;
-– документы могут быть предоставлены сторонами по делу или их уполномоченными представителями лично или почтой;
-– постановление судебного пристава-исполнителя может быть вручено держателю реестра лично судебным приставом-исполнителем либо направлено по почте службой судебных приставов или предоставлено взыскателем.
-В исполнительном документе, за исключением постановления судебного пристава-исполнителя, судебного приказа, исполнительной надписи нотариуса и нотариально удостоверенного соглашения об уплате алиментов, должны быть указаны:
-1) наименование и адрес суда или другого органа, выдавшего исполнительный документ, фамилия и инициалы должностного лица;
-2) наименование дела или материалов, на основании которых выдан исполнительный документ, и их номера;
-3) дата принятия судебного акта, акта другого органа или должностного лица;
-4) дата вступления в законную силу судебного акта, акта другого органа или должностного лица либо указание на немедленное исполнение;
-5) сведения о должнике и взыскателе:
-а) для граждан – фамилия, имя, отчество (при наличии), место жительства или место пребывания, а для должника также – дата и место рождения, место работы (если они известны), один из идентификаторов (страховой номер индивидуального лицевого счета, идентификационный номер налогоплательщика, серия и номер документа, удостоверяющего личность, серия и номер водительского удостоверения, серия и номер свидетельства о регистрации транспортного средства), для должника, являющегося индивидуальным предпринимателем, также – идентификационный номер налогоплательщика, основной государственный регистрационный номер (если он известен);
-б) для организаций – наименование и адрес, указанный в едином государственном реестре юридических лиц, фактический адрес (если он известен), идентификационный номер налогоплательщика, основной государственный регистрационный номер (если он известен);
-в) для Российской Федерации, субъекта Российской Федерации или муниципального образования – наименование и адрес органа, уполномоченного от их имени осуществлять права и исполнять обязанности в исполнительном производстве; 
-г) для иностранного государства также наименование и место нахождения соответствующих органа, учреждения или иного образования;
-6) резолютивная часть судебного акта, акта другого органа или должностного лица, содержащая требование о возложении на должника обязанности по передаче взыскателю денежных средств и иного имущества либо совершению в пользу взыскателя определенных действий или воздержанию от совершения определенных действий;
-7) дата выдачи исполнительного документа.
-В постановлении судебного пристава-исполнителя или иного должностного лица службы судебных приставов должны быть указаны:
-1) наименование подразделения судебных приставов и его адрес;
-2) дата вынесения постановления;
-3) должность, фамилия и инициалы лица, вынесшего постановление;
-4) наименование и номер исполнительного производства, по которому выносится постановление;
-5) вопрос, по которому выносится постановление;
-6) основания принимаемого решения со ссылкой на федеральные законы и иные нормативные правовые акты;
-7) решение, принятое по рассматриваемому вопросу;
-8) порядок обжалования постановления.
-В случае поступления Исполнительного документа, инициирующего совершение в реестре операции о списании с лицевого счета должника и о зачислении на лицевой счет взыскателя ценных бумаг, непосредственно Регистратору в порядке ст. 8.1. Федерального закона «Об исполнительном производстве» от 02.10.2007 № 229-ФЗ, Регистратор проводит операцию на основании следующих документов (в совокупности):
-– предоставленного взыскателем Исполнительного документа;
-– заявления взыскателя (представителя взыскателя) о направлении Исполнительного документа для исполнения, в котором указываются:
-– фамилия, имя, отчество (при наличии), гражданство, реквизиты документа, удостоверяющего личность, место жительства или место пребывания, идентификационный номер налогоплательщика (при его наличии), данные миграционной карты и документа, подтверждающего право на пребывание (проживание) в Российской Федерации взыскателя-гражданина;
-– наименование, идентификационный номер налогоплательщика или код иностранной организации, государственный регистрационный номер, место государственной регистрации и юридический адрес взыскателя – юридического лица.
-Представитель взыскателя представляет документ, удостоверяющий его полномочия, и указывает в заявлении сведения о взыскателе и о себе.
-Указанные документы могут быть предоставлены взыскателем при условии, что взыскатель располагает сведениями об имеющихся на указанных счетах должника ценных бумагах.
-Операции списания и зачисления ценных бумаг на основании Исполнительных документов совершаются при условии открытия лицевого счета лицом, на лицевой счет которого должны быть зачислены ценные бумаги.
-В соответствии с п. 4 ст. 73.1. Федерального закона «Об исполнительном производстве» от 02.10.2007 № 229-ФЗ в случае обоснованных сомнений в подлинности Исполнительного документа, полученного непосредственно от взыскателя (его представителя) или сомнений в достоверности представленных сведений, Регистратор для проверки подлинности Исполнительного документа или достоверности сведений вправе задержать исполнение Исполнительного документа, но не более чем на 7 (семь) дней.
-В соответствии с п. 2 ст. 73.1. Федерального Закона «Об исполнительном производстве» от 02.10.2007 № 229-ФЗ в трехдневный срок (за исключением случая, установленного п. 9.5.4.) со дня получения Исполнительного документа от взыскателя или судебного пристава-исполнителя Регистратор исполняет содержащиеся в Исполнительном документе требования о списании с лицевого счета должника и зачислении на лицевой счет взыскателя эмиссионных ценных бумаг либо делает отметку о полном или частичном неисполнении указанных требований в связи с отсутствием на счетах должника эмиссионных ценных бумаг, достаточных для удовлетворения требований взыскателя. 
-В соответствии с п. 5 ст. 73.1. Федерального закона «Об исполнительном производстве» от 02.10.2007 № 229-ФЗ в случае, если имеющихся на лицевом счете должника эмиссионных ценных бумаг недостаточно для исполнения содержащихся в Исполнительном документе требований о списании эмиссионных ценных бумаг, Регистратор производит списание имеющихся на счетах должника эмиссионных ценных бумаг и продолжает дальнейшее исполнение по мере зачисления эмиссионных ценных бумаг на счет должника до исполнения содержащихся в исполнительном документе требований о списании эмиссионных ценных бумаг в полном объеме. О произведенных операциях Регистратор сообщает судебному приставу-исполнителю или взыскателю, если Исполнительный документ поступил от взыскателя.
-Завершением выполнения требований Исполнительного документа является:
-– списание ценных бумаг в полном объеме;
-– постановление судебного пристава-исполнителя о прекращении (окончании, отмене) Исполнительного производства.
-При наличии обстоятельств, затрудняющих исполнение судебного акта, Регистратор вправе обратиться в суд или к судебному приставу-исполнителю для отсрочки или рассрочки исполнения судебного акта, изменения способа и порядка его исполнения.
-В случае невозможности исполнения решения суда, вступившего в законную силу, Регистратор вправе обратиться в суд с заявление о разъяснении данного решения. При этом срок исполнения решения суда приостанавливается до момента получения Регистратором разъяснений суда.</t>
   </si>
   <si>
     <t>Регистратор вносит запись о переходе права собственности на ценные бумаги при добровольной ликвидации юридического лица на основании распоряжения и следующих документов:
@@ -467,9 +116,6 @@
 Распоряжение, необходимое для внесения записи о переходе прав собственности на ценные бумаги в случае добровольной ликвидации зарегистрированного лица должно быть подписано председателем ликвидационной комиссии.
 Выписка из решения о назначении ликвидационной комиссии должна быть подписана председателем и секретарем уполномоченного органа зарегистрированного лица, принявшего решение о добровольной ликвидации.
 Для внесения записей о переходе прав собственности на ценные бумаги в случае ликвидации зарегистрированного юридического лица при несостоятельности (банкротстве) Регистратору должно быть предоставлено решение суда.</t>
-  </si>
-  <si>
-    <t>Особенности внесения в реестр записи о переходе прав собственности на ценные бумаги при приватизации устанавливаются законодательством РФ.</t>
   </si>
   <si>
     <t>Не полностью оплаченные при размещении (распределении при учреждении) акции учитываются на лицевом счете зарегистрированного лица как ограниченные/обремененные обязательствами по их полной оплате.
@@ -482,67 +128,7 @@
 Регистратор не вправе исполнять распоряжение зарегистрированного лица, связанное с совершением им какой-либо сделки с акциями, ограниченными / обремененными обязательством по их полной оплате.</t>
   </si>
   <si>
-    <t>Регистратор вносит по лицевому счету запись о фиксации факта ограничения операций с ценными бумагами (в отношении всех либо части акций) на основании одного из нижеперечисленных документов:
-– исполнительного документа (в т. ч. постановления судебного пристава-исполнителя);
-– определения или решения суда, вступившего в законную силу;
-– постановления следователя о наложении ареста на имущество зарегистрированного лица;
-– оригинала или нотариально удостоверенной копии свидетельства о смерти зарегистрированного лица-наследодателя;
-– запроса нотариуса, связанного с открытием наследственного дела и содержащего фамилию, имя, отчество (при наличии), дату рождения и/или места жительства умершего;
-– сведений об обременении ценных бумаг обязательствами, полученных от предыдущего реестродержателя и копий документов (заверенных передающей стороной), послуживших основанием для внесения в реестр записей об обременении, блокировании и/или аресте;
-– договора условного депонирования;
-– на основании федерального закона.
-Запись о фиксации факта ограничения операций с ценными бумагами, внесенная в реестр во исполнение наложенного судебным приставом-исполнителем ареста на ценные бумаги должника при обращении взыскания на его имущество, не препятствует совершению действий по их погашению, выплате по ним доходов, их конвертации или обмену на иные ценные бумаги, если такие действия предусмотрены условиями выпуска арестованных ценных бумаг и не запрещены постановлением о наложении ареста на ценные бумаги.
-Регистратор вносит в реестр запись о фиксации факта снятия ограничений операций с ценными бумагами (части акций) по лицевому счету зарегистрированного лица, по которому осуществлялась фиксация факта ограничения операций с ценными бумагами на основании одного из нижеперечисленных документов:
-– распоряжения зарегистрированного лица;
-– исполнительного документа или постановления судебного пристава-исполнителя;
-– определения или решения суда, вступившего в законную силу;
-– постановления следователя об отмене ареста на имущество зарегистрированного лица;
-– свидетельства о праве на наследство (оригинал или нотариально удостоверенная копия) перед внесением в реестр записи о переходе прав собственности на ценные бумаги в результате наследования или свидетельства о праве собственности пережившего супруга;
-– иных документов, предусмотренных действующим законодательством Российской Федерации, выданных уполномоченными государственными органами;
-– договора условного депонирования;
-– на основании Федеральных законов.</t>
-  </si>
-  <si>
-    <t>Ценные бумаги списываются со счета доверительного управляющего при предоставлении следующих документов:
-– распоряжения доверительного управляющего на списание/зачисление ценных бумаг на счет учредителя управления (владельца ценных бумаг);
-– свидетельства о праве на наследство на счет (счета) наследника (наследников);
-– решения суда;
-– документов, подтверждающих оплату ценных бумаг в случае выкупа ценных бумаг в порядке, предусмотренном статьей 84.8. Федерального закона «Об акционерных обществах» (в этом случае заявление с указанием реквизитов для перечисления денежных средств за выкупаемые ценные бумаги вправе направить владелец ценных бумаг или доверительный управляющий);
-– иных документов, предусмотренных законодательством Российской Федерации.</t>
-  </si>
-  <si>
-    <t>Прекращение блокирования операций по депозитному лицевому счету, а также списание с депозитного лицевого счета ценных бумаг, переданных в депозит нотариуса, производится Регистратором при предоставлении следующих документов:
-– решения суда;
-– документов, подтверждающих оплату ценных бумаг в случае выкупа ценных бумаг в порядке, предусмотренном статьей 84.8. Федерального закона «Об акционерных обществах»;
-– распоряжения о списании ценных бумаг на счет кредитора, указанного владельцем ценных бумаг;
-– в иных случаях, предусмотренных законодательством Российской Федерации.</t>
-  </si>
-  <si>
     <t>Анкеты</t>
-  </si>
-  <si>
-    <t>Регистратор вносит в реестр запись о фиксации права залога ценных бумаг, в том числе последующего залога ценных бумаг на основании залогового распоряжения.
-Внесение изменений в данные лицевого счета залогодателя о заложенных ценных бумагах и условиях залога осуществляется Регистратором на основании распоряжения о внесении изменений о заложенных ценных бумагах и условиях залога, подписанного залогодателем и залогодержателем (в том числе скрепленного печатью юридического лица) или их уполномоченными представителями. Если ценные бумаги заложены в обеспечение исполнения обязательств по облигациям, подпись залогодержателя не требуется.
-Передача залогодателем заложенных ценных бумаг залогодержателю осуществляется Регистратором на основании распоряжения, подписанного залогодателем (в том числе скрепленного печатью юридического лица при наличии) или его уполномоченным представителем.
-Внесение записи о прекращении залога осуществляется Регистратором на основании распоряжения о прекращении залога, подписанного залогодержателем либо залогодателем и залогодержателем (в том числе скрепленного печатью юридического лица) или их уполномоченными представителями.
-В случае передачи прав по договору о залоге вносятся соответствующие изменения в сведения, содержащиеся в записи об обременении ценных бумаг по лицевому счету залогодателя.
-Указанные действия совершаются держателем реестра на основании распоряжения о передаче права залога.
-Внесение записи о прекращении залога осуществляется Регистратором на основании распоряжения о прекращении залога, подписанного залогодержателем либо залогодателем и залогодержателем (в том числе скрепленного печатью юридического лица) или их уполномоченными представителями.
-Внесение записей о прекращении залога и передаче ценных бумаг в связи с обращением на них взыскания без решения суда осуществляется Регистратором на основании распоряжения, подписанного залогодержателем (в том числе скрепленного печатью юридического лица) или его уполномоченным представителем (лицом, указанным в решении о выпуске облигаций, обеспеченных залогом ценных бумаг, в качестве лица, которое будет осуществлять их реализацию), к которому должны быть приложены документы, указанные в залоговом распоряжении, а именно:
-– договор купли-продажи заложенных ценных бумаг, заключенный по результатам торгов;
-– выписка из реестра сделок организатора торгов, подтверждающая заключение сделки с ценными бумагами;
-– договор купли-продажи ценных бумаг, заключенный комиссионером, и договор комиссии между залогодержателем и комиссионером.
-Внесение записи о прекращении залога ценных бумаг, переданных в залог суду или органу, в производстве которого находится уголовное дело, в случае возвращения ценных бумаг залогодателю осуществляется Регистратором на основании определения суда, в котором решен вопрос о возвращении залога залогодателю, или постановления следователя (дознавателя) о прекращении уголовного дела.
-Внесение записей о прекращении залога ценных бумаг и передаче ценных бумаг в связи с обращением на них взыскания по решению суда осуществляется Регистратором на основании:
-– распоряжения, подписанного залогодержателем (в том числе скрепленного печатью юридического лица) или его уполномоченным представителем (лицом, указанным в решении о выпуске облигаций, обеспеченных залогом ценных бумаг, в качестве лица, которое будет осуществлять их реализацию), и оригиналов или надлежащим образом оформленных копий решения суда и договора купли-продажи заложенных ценных бумаг, заключенного по результатам торгов;
-– распоряжения, подписанного залогодержателем (в том числе скрепленного печатью юридического лица) или его уполномоченным представителем (лицом, указанным в решении о выпуске облигаций, обеспеченных залогом ценных бумаг, в качестве лица, которое будет осуществлять их реализацию), и оригиналов или надлежащим образом оформленных копий решения суда при обращении взыскания на ценные бумаги, обращающиеся на торгах организаторов торговли;
-– в случае оставления заложенных ценных бумаг залогодержателем за собой – решения суда и протокола несостоявшихся повторных торгов, после проведения которых прошло не более одного месяца;
-– в случае обращения в доход государства ценных бумаг, переданных в залог суду или органу, в производстве которого находится уголовное дело,
-– решения суда, вынесенного в соответствии с требованиями уголовно-процессуального законодательства.
-Внесение записи о прекращении залога в случае, когда залогодержатель не воспользовался своим правом оставить заложенные ценные бумаги за собой, осуществляется Регистратором на основании распоряжения о прекращении залога, подписанного залогодателем или его уполномоченным представителем, к которому должны быть приложены:
-– протокол несостоявшихся повторных торгов, после проведения которых прошло не менее 2 месяцев;
-– письменное уведомление (датированное не более чем за 5 (пять) дней до поступления к Регистратору) залогодателя об отсутствии факта поступления к нему заявления залогодержателя об оставлении за собой предмета залога;
-– письменное уведомление (датированное не более чем за 5 (пять) дней до поступления к Регистратору) организатора торгов (судебного пристава-исполнителя) об отсутствии факта поступления.</t>
   </si>
   <si>
     <t>Регистратор вносит в реестр запись о зачислении / списании ценных бумаг со счета номинального держателя при передаче ценных бумаг без перехода прав собственности, на основании распоряжения, в котором указывается договор, на основании которого номинальный держатель обслуживает своего клиента.
@@ -553,48 +139,6 @@
   </si>
   <si>
     <t>Регистратор вносит в реестр запись об объединении лицевых счетов на основании распоряжения зарегистрированного лица на объединение лицевых счетов, при наличии в реестре одного эмитента нескольких лицевых счетов, открытых одному и тому же зарегистрированному лицу.</t>
-  </si>
-  <si>
-    <t>Регистратор вносит в реестр запись о закрытии лицевого счета зарегистрированного лица при отсутствии ценных бумаг на его счете в следующих случаях:
-– на основании распоряжения зарегистрированного лица о закрытии его лицевого счета;
-– при объединении лицевых счетов;
-– в случае прекращения деятельности юридического лица на основании предоставленной Регистратору или полученной Регистратором выписки из ЕГРЮЛ и/или Свидетельства о внесении записи в ЕГРЮЛ;
-– на основании свидетельства о праве на наследство после списания ценных бумаг на счет (счета) наследников;
-– на основании списка клиентов организации, прекратившей исполнение функций номинального держателя, после списания всех ценных бумаг с лицевого счета этого номинального держателя.</t>
-  </si>
-  <si>
-    <t>Лицевой счет владельца ценных бумаг для учета права общей долевой собственности на ценные бумаги открывается при условии представления Регистратору анкет на каждого участника общей долевой собственности.</t>
-  </si>
-  <si>
-    <t>Анкета залогодержателя - физического лица предоставляется для внесения информации о залогодержателе или внесения изменений в информацию о залогодержателе и должна содержать следующие данные:
-– фамилия, имя, отчество (при наличии);
-– гражданство, а если такое физическое лицо является лицом без гражданства, – указание на это обстоятельство;
-– вид, серия, номер, дата выдачи документа, удостоверяющего личность, наименование органа, выдавшего документ;
-– дата и место рождения;
-– адрес места регистрации;
-– адрес фактического места жительства (почтовый адрес) с указанием индекса;
-– образец подписи физического лица;
-– электронный адрес (при наличии);
-– номер телефона, факса (при наличии);
-– способ получения сообщения о проведении общего собрания акционеров из числа предусмотренных Уставом эмитента;
-– может содержать иные сведения, не противоречащие требованиям законодательства.</t>
-  </si>
-  <si>
-    <t>Анкета залогодержателя - юридического лица предоставляется для внесения информации о залогодержателе или внесения изменений в информацию о залогодержателе и должна содержать следующие данные:
-– полное и, если имеется, сокращенное наименование юридического лица в соответствии с его уставом;
-– ОГРН и дата его присвоения (для юридического лица, созданного в соответствии с законодательством Российской Федерации);
-– номер, присвоенный юридическому лицу в торговом реестре или ином учетном регистре государства, в котором зарегистрировано такое юридическое лицо (если имеется), и дата государственной регистрации юридического лица или присвоения номера (для иностранного юридического лица);
-– место нахождения;
-– адрес для направления корреспонденции (почтовый адрес) с указанием индекса;
-– номер телефона, факса (при наличии);
-– электронный адрес (при наличии);
-– способ получения сообщения о проведении общего собрания акционеров из числа предусмотренных Уставом эмитента;
-– фамилия, имя, отчество (при наличии) должностного лица, имеющего право действовать от имени юридического лица без доверенности, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, и наименование органа, выдавшего соответствующий документ, сведения о том, является ли такое должностное лицо ИПДЛ/РПДЛ/ДЛПМО/супругой (-ом), близким родственником;
-– образец печати (при наличии) и образец подписи лица, имеющего право действовать от имени юридического лица без доверенности (может не содержаться в случае направления анкеты в виде электронного документа, подписанного электронной подписью).
-Если полномочия единоличного исполнительного органа юридического лица, которому открывается лицевой счет, переданы управляющей организации, то анкета должна содержать сведения об управляющей организации, в том же объеме, что и в отношении юридического лица, которому открывается лицевой счет.
-В случае введения внешнего управления, открытия конкурсного производства (в случае, если на арбитражного управляющего в деле о банкротстве юридического лица возложено осуществление функций единоличного исполнительного органа), для внесения записей в реестр в анкете дополнительно указываются следующие данные:
-– фамилия, имя, отчество (при наличии), наименование должности и образец подписи арбитражного управляющего, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, и наименование органа, выдавшего соответствующий документ;
-– образец печати юридического лица.</t>
   </si>
   <si>
     <t>Распоряжение о внесении изменений в данные лицевого счета залогодателя о заложенных ценных бумагах и условиях залога должно содержать следующие данные:
@@ -609,33 +153,6 @@
 – условия залога.
 Распоряжение о внесении изменений в условия залога должно быть подписано залогодателем и залогодержателем (в том числе скрепленного печатью юридического лица) или их уполномоченными представителями, либо без такого распоряжения в случаях, предусмотренных федеральным законом или соглашением правообладателя с лицом, осуществляющим учет прав на бездокументарные ценные бумаги, и лицом, в пользу которого установлено обременение. Письменная форма согласия, предусмотренного настоящим пунктом, считается соблюденной, если оно предоставлено Регистратору в форме электронного сообщения, подписанного квалифицированной электронной подписью либо, если это предусмотрено правилами ведения реестра или условиями соглашения депозитария с лицом, в отношении ценных бумаг которого установлено обременение, и лицом, в пользу которого установлено такое обременение, простой или неквалифицированной электронной подписью.
 Если ценные бумаги заложены в обеспечение исполнения обязательств по облигациям, подпись залогодержателя не требуется.</t>
-  </si>
-  <si>
-    <t>Прием документов от зарегистрированных лиц, их уполномоченных представителей, уполномоченных представителей эмитента и иных лиц осуществляется Регистратором в соответствии с требованиями нормативных актов Банка России и Правил ведения реестра. 
-Регистратор осуществляет прием документов по месту нахождения Регистратора, не менее 4 часов каждый рабочий день. Время приема размещено на официальном сайте в сети Интернет: https://crc-reg.com.
-Документы могут быть предоставлены регистратору:
-– лично;
-– через уполномоченного представителя;
-– по почте;
-– через трансфер-агента/эмитента, выполняющего часть функций регистратора;
-– по электронным каналам связи. 
-Распоряжения могут быть направлены Регистратору по почте, если:
-– зарегистрированное лицо прямо указало на такой способ предоставления документов в анкете зарегистрированного лица;
-– зарегистрированное лицо приложило к предоставляемым документам соответствующее письменное указание на такой способ предоставления документов.</t>
-  </si>
-  <si>
-    <t>Регистратор вносит в реестр запись о переходе права собственности на ценные бумаги при реорганизации зарегистрированного лица в форме слияния, присоединения, разделения, выделения и преобразования на основании следующих документов:
-Выписка из передаточного акта о передаче ценных бумаг вновь возникшему юридическому лицу (при слиянии) (в случае его составления), копии договора или решения о реорганизации, заверенные в установленном порядке и документа, подтверждающего государственную регистрацию вновь созданного юридического лица (при реорганизации в форме слияния, разделения, выделения);
-Выписка из передаточного акта о передаче ценных бумаг юридическому лицу, к которому присоединилось зарегистрированное лицо (при присоединении) (в случае его составления), копии договора или решения о реорганизации, заверенные в установленном порядке.
-Выписка из передаточного акта зарегистрированного юридического лица о передаче ценных бумаг одному или нескольким вновь образованным юридическим лицам (при разделении и выделении), копии договора или решения о реорганизации, заверенные в установленном порядке и документа, подтверждающего государственную регистрацию вновь созданного юридического лица.
-Документы, необходимые для открытия лицевого счета нового владельца (если счет не был открыт в реестре ранее).
-Нотариально удостоверенная копия (или электронный документ, подписанный усиленной квалифицированной электронной подписью органа, выдавшего документ) выписки из ЕГРЮЛ о прекращении деятельности юридического лица и/или о создании юридического лица (при присоединении, разделении, слиянии и преобразовании).
-Выписка из передаточного акта должна быть подписана уполномоченными представителями юридического лица (лиц).
-Проведение в реестре операций в связи с реорганизацией в форме преобразования осуществляется путем внесения Регистратором записи о списании ценных бумаг с лицевого счета зарегистрированного лица и зачислении ценных бумаг на лицевой счет вновь возникшего юридического лица.
-В случае реорганизации в форме преобразования номинального держателя (доверительного управляющего), которому открыт лицевой счет в реестре владельцев ценных бумаг, а также в случае его реорганизации в форме присоединения к другому депозитарию (доверительному управляющему), которому в реестре владельцев ценных бумаг не открыт лицевой счет номинального держателя (доверительного управляющего), Регистратором проводится операция по внесению изменений в информацию указанного лицевого счета номинального держателя (доверительного управляющего).
-В случае присоединения номинального держателя к другому депозитарию, которому в реестре владельцев именных ценных бумаг открыт лицевой счет номинального держателя, Регистратором проводится перерегистрация ценных бумаг с лицевого счета присоединенного номинального держателя на лицевой счет номинального держателя, к которому осуществлено присоединение, на основании следующих документов:
-– распоряжения номинального держателя, к которому осуществлено присоединение;
-– копия (копии) документа (документов), подтверждающего (подтверждающих) внесение в ЕГРЮЛ записи об исключении из указанного реестра номинального держателя (доверительного управляющего) в результате его реорганизации в форме присоединения, и о его присоединении к другому номинальному держателю (доверительному управляющему), удостоверенная нотариально или заверенная регистрирующим органом, в случае реорганизации в форме присоединения.</t>
   </si>
   <si>
     <t>Application forms</t>
@@ -1505,6 +1022,562 @@
   <si>
     <t>btn42_en</t>
   </si>
+  <si>
+    <t>Для всех зарегистрированных лиц Заявление-анкета должна содержать:
+– наименование эмитента (эмитентов), в реестр (-ы) которого (-ых) предоставлено Заявление-анкета зарегистрированного лица;
+– цель предоставления (для открытия лицевого счета или внесения изменений в информацию лицевого счета о зарегистрированном лице);
+– вид лицевого счета зарегистрированного лица (лицевой счет владельца ценных бумаг, лицевой счет доверительного управляющего, лицевой счет номинального держателя, лицевой счет номинального держателя центрального депозитария, депозитный лицевой счет, казначейский лицевой счет эмитента, лицевой счет, эскроу-агента);
+– идентификационный номер налогоплательщика (при наличии);
+– банковские реквизиты (при перечислении денежных средств на банковский счет);
+– способ предоставления Регистратору документов, являющихся основанием для совершения операций (почтовым отправлением, лично/уполномоченным представителем, в форме электронного документа, подписанного электронной подписью);
+– способ получения уведомления об открытии/отказе в открытии лицевого счета/других документов от Регистратора (почтовым отправлением, лично у регистратора, уполномоченным представителем, в форме электронного документа, подписанного электронной подписью);
+– согласие на внесение исправительных записей в соответствии со ст. 8.5 Федерального закона «О рынке ценных бумаг»;
+– согласие на обработку персональных данных в соответствии со ст. 9 Федерального закона от 27.07.2006 № 152-ФЗ «О персональных данных» (кроме юридических лиц).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анкета эмитента предоставляется при приеме реестра владельцев ценных бумаг, для внесения записей/изменений в анкетные данные эмитента и должна содержать следующие данные:
+– полное наименование эмитента в соответствии с его Уставом;
+– сокращенное наименование эмитента в соответствии с его Уставом (при наличии);
+– сведения о государственной регистрации и внесения записи в ЕГРЮЛ (дата, номер и наименование государственного органа, осуществившего регистрацию);
+– адрес в пределах места нахождения;
+– почтовый адрес;
+– номер телефона, факса (при наличии);
+– электронный адрес (при наличии);
+– фамилия, имя, отчество (при наличии) единоличного исполнительного органа эмитента, наименование его должности в соответствии с Уставом, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, и наименование органа, выдавшего соответствующий документ, сведения о том, является ли такое должностное лицо ИПДЛ/РПДЛ/ДЛПМО/супругой (- ом), близким родственником;
+– образец оттиска печати (в случае если обязанность по использованию печати предусмотрена законодательством) и образец подписи лица, имеющего право действовать от имени эмитента без доверенности (может не содержаться в случае направления анкеты в виде электронного документа, подписанного электронной подписью);
+– идентификационный номер налогоплательщика (ИНН) (при наличии);
+– банковские реквизиты;
+– иные сведения, не противоречащие требованиям действующего законодательства.
+В случае, если функции единоличного исполнительного органа эмитента по договору переданы Управляющей организации, Регистратору предоставляется анкета эмитента и анкета на Управляющую организацию, содержащая следующие данные:
+– полное наименование Управляющей организации эмитента в соответствии с ее Уставом;
+– сведения о государственной регистрации и/или внесения записи в ЕГРЮЛ (дата, номер и наименование государственного органа, осуществившего регистрацию);
+– адрес в пределах места нахождения;
+– почтовый адрес;
+– номер телефона, факса (при наличии);
+– электронный адрес (при наличии);
+– фамилия, имя, отчество (при наличии) должностного лица, имеющего в соответствии с уставом право действовать от имени Управляющей организации эмитента без доверенности, наименование должности, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность и наименование органа, выдавшего соответствующий документ;
+– образец печати Управляющей организации (при наличии) и образец подписи лица, имеющего право действовать от имени Управляющей организации эмитента без доверенности (может не содержаться в случае направления анкеты в виде электронного документа, подписанного электронной подписью);
+– идентификационный номер налогоплательщика (ИНН);
+– банковские реквизиты;
+– иные сведения, не противоречащие требованиям действующего законодательства.
+</t>
+  </si>
+  <si>
+    <t>Заявление-анкета зарегистрированного лица юридического лица предоставляется для открытия лицевого счета или внесения изменений в информацию лицевого счета и должна содержать следующие данные:
+– полное и, если имеется, сокращенное наименование юридического лица в соответствии с его уставом;
+– ОГРН и дата его присвоения (для юридического лица, созданного в соответствии с действующим законодательством);
+– номер, присвоенный юридическому лицу в торговом реестре или ином учетном регистре государства, в котором зарегистрировано такое юридическое лицо (при наличии), и дата государственной регистрации юридического лица или присвоения номера (для иностранного юридического лица);
+– место в пределах места нахождения;
+– адрес для направления корреспонденции (почтовый адрес) с указанием индекса;
+– ИНН (при наличии);
+– номер телефона, факса (при наличии);
+– электронный адрес (при наличии);
+– способ получения сообщения о проведении общего собрания акционеров из числа предусмотренных Уставом эмитента;
+– фамилия, имя, отчество (при наличии) должностного лица, имеющего право действовать от имени юридического лица без доверенности, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, наименование органа, выдавшего соответствующий документ и код подразделения (при наличии), сведения о том, является ли такое должностное лицо ИПДЛ/РПДЛ/ДЛПМО/супругой (-ом), близким родственником;
+– образец печати (в случае если обязанность по использованию печати предусмотрена действующим законодательством) и образец подписи лица, имеющего право действовать от имени юридического лица без доверенности (может не содержаться в случае направления заявления-анкеты в виде электронного документа, подписанного электронной подписью).
+Если полномочия единоличного исполнительного органа юридического лица, которому открывается лицевой счет, переданы управляющей организации, то заявление-анкета должна содержать сведения об управляющей организации, в том же объеме, что и в отношении юридического лица, которому открывается лицевой счет.
+В случае введения внешнего управления, открытия конкурсного производства (в случае, если на арбитражного управляющего в деле о банкротстве юридического лица возложено осуществление функций единоличного исполнительного органа), для внесения записей в реестр в заявлении-анкете зарегистрированного лица дополнительно указываются следующие данные:
+– фамилия, имя, отчество (при наличии), наименование должности и образец подписи арбитражного управляющего, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, наименование органа, выдавшего соответствующий документ и код подразделения (при наличии);
+– образец печати юридического лица.</t>
+  </si>
+  <si>
+    <t>Заявление-анкета зарегистрированного лица (для нотариуса) предоставляется для открытия лицевого счета или внесения изменений в информацию лицевого счета и должна содержать следующие данные:
+– фамилия, имя, отчество (при наличии) нотариуса; 
+– дата и место рождения нотариуса;
+– вид, серия, номер, дата выдачи документа, удостоверяющего личность нотариуса, а также наименование органа, код подразделения (при наличии) выдавшего этот документ;
+– адрес места регистрации (при наличии) и фактического места жительства нотариуса;
+– ИНН, адрес электронной почты и номер телефона, факса (при наличии) нотариуса (при наличии);
+– регистрационный номер, присвоенный сведениям о нотариусе, включенным в реестр нотариусов и лиц, сдавших квалификационный экзамен., номер и дата приказа о наделении полномочиями нотариуса; банковские реквизиты;
+– образец подписи нотариуса;
+– образец гербовой печати нотариуса.</t>
+  </si>
+  <si>
+    <t>Заявление-анкета, представляемая для открытия лицевого счета органа государственной власти (органа местного самоуправления) должно содержать следующие сведения:
+– полное наименование;
+– ОГРН;
+– дата присвоения ОГРН;
+– адрес в пределах места нахождения и почтовый адрес;
+– адрес электронной почты (при наличии), номер телефона (при наличии); способ получения сообщения о проведении общего собрания акционеров из числа предусмотренных Уставом эмитента;
+– фамилия, имя, отчество (при наличии) руководителя органа государственной власти (органа местного самоуправления), а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, а также наименование органа, код подразделения (при наличии), выдавшего соответствующий документ;
+– образец оттиска гербовой печати органа государственной власти (органа местного самоуправления) и образец подписи руководителя органа государственной власти (органа местного самоуправления);
+– реквизиты банковского счета для получения доходов и выплат по ценным бумагам.</t>
+  </si>
+  <si>
+    <t>Заявление-анкета, предоставляемая при открытии лицевого счета доверительного управляющего, должна содержать в отношении учредителя доверительного управления следующие сведения:
+В отношении физического лица:
+– фамилия, имя, отчество (при наличии);
+– вид, серия, номер, дата выдачи документа, удостоверяющего личность, а также наименование органа, код подразделения (при наличии);
+– дата рождения;
+– адрес места регистрации (при наличии) и места жительства;
+– номер и дата выдачи лицензии на осуществление нотариальной деятельности и наименование органа, выдавшего лицензию, номер и дата приказа о назначении на должность нотариуса, адрес места осуществления нотариальной деятельности (в случае открытия депозитного лицевого счета нотариусу);
+– указание на лицо, осуществляющего право голоса на общем собрании владельцев ценных бумаг;
+– анкетные данные учредителя доверительно управления (если управляющий не уполномочен осуществлять право голоса на общем собрании владельцев ценных бумаг)
+В отношении юридического лица, в том числе органа государственной власти и органа местного самоуправления:
+– полное наименование;
+– номер (если имеется), дата государственной регистрации и наименование органа, осуществившего регистрацию (для иностранного юридического лица), или ОГРН, дата присвоения указанного номера и наименование государственного органа, присвоившего указанный номер (для российского юридического лица);
+– адрес места нахождения;
+– сведения о наличии права голоса на общем собрании владельцев ценных бумаг.</t>
+  </si>
+  <si>
+    <t>Заявление-анкета, предоставляемое для открытия лицевого счета эскроу-агента должна содержать следующие сведения:
+– сведения об эскроу-агенте, депоненте и бенефициаре, предусмотренные соответственно в требованиях к заявлению-анкете юридического лица, физического лица, нотариуса в зависимости от того, кем из указанных лиц является эскроу-агент;
+– сведения о реквизитах номинального банковского счета для перечисления доходов и выплат по депонированным ценным бумагам, в том числе для зачисления денежных средств от погашения депонированных ценных бумаг или их приобретения третьим лицом помимо воли лица, осуществляющего права по этим ценным бумагам. Если эскроу-агентом является банк, для перечисления денежных средств указываются сведения о реквизитах счета эскроу, открытого депоненту в этом банке на основании договора счета эскроу;
+– сведения о том, кто в соответствии с договором эскроу будет осуществлять права по депонированным на указанном лицевом счете ценным бумагам.</t>
+  </si>
+  <si>
+    <t>Заявление-анкета, представляемая для открытия лицевого счета инвестиционного товарищества должна содержать следующие сведения:
+– сведения об управляющем товарище, предусмотренные соответственно в требованиях к заявлению-анкете юридического лица;
+– сведения о договоре инвестиционного товарищества.</t>
+  </si>
+  <si>
+    <t>Заявление-анкета, предоставляемое для открытия лицевого счета цифровых финансовых активов должна содержать следующие сведения:
+– сведения о лице, выпускающим цифровые финансовые активы, предусмотренные соответственно в требованиях к заявлению-анкете юридического лица, физического лица в зависимости от того, кем является лицо, выпускающее цифровые финансовые активы;
+– полное наименование оператора информационной системы;
+– ОГРН и ИНН оператора информационной системы, наименование информационной системы (при наличии);
+– сведения, позволяющие идентифицировать цифровые финансовые активы.</t>
+  </si>
+  <si>
+    <t>Заявление-анкета иностранной структуры без образования юридического лица должны содержать следующие сведения о такой структуре:
+– полное и сокращенное (при наличии) наименования;
+– регистрационный номер (регистрационные номера) (при наличии) иностранной структуры без образования юридического лица, присвоенный (присвоенные) в государстве (на территории) ее регистрации (инкорпорации) при регистрации (инкорпорации);
+– код (коды) (при наличии) иностранной структуры без образования юридического лица в государстве (на территории) ее регистрации (инкорпорации) в качестве налогоплательщика или его аналог (их аналоги).</t>
+  </si>
+  <si>
+    <t>Заявление-анкета залогодержателя - физического лица предоставляется для внесения информации о залогодержателе или внесения изменений в информацию о залогодержателе и должна содержать следующие данные:
+– фамилия, имя, отчество (при наличии);
+– гражданство (подданство), а если такое физическое лицо является лицом без гражданства, – указание на это обстоятельство;
+– вид, серия, номер, дата выдачи документа, удостоверяющего личность, наименование органа, выдавшего документ и код подразделения (при наличии);
+– дата и место рождения;
+– адрес регистрации по месту жительства (при наличии);
+– адрес по месту пребывания (почтовый адрес) с указанием индекса;
+– образец подписи физического лица (в случае если физическое лицо действует от своего имени);
+– реквизиты банковского счета для получения доходов и выплат по ценным бумагам (при наличии);
+– идентификационный номер налогоплательщика (далее - ИНН) (при наличии);
+– страховой номер индивидуального лицевого счета (СНИЛС) (при наличии);
+– электронный адрес (при наличии);
+– номер телефона, факса (при наличии);
+– способ получения сообщения о проведении общего собрания акционеров из числа предусмотренных Уставом эмитента;
+– может содержать иные сведения, не противоречащие требованиям действующего законодательства.</t>
+  </si>
+  <si>
+    <t>Заявление-анкета залогодержателя - юридического лица предоставляется для внесения информации о залогодержателе или внесения изменений в информацию о залогодержателе и должна содержать следующие данные:
+– полное и, если имеется, сокращенное наименование юридического лица в соответствии с его уставом;
+– ОГРН и дата его присвоения (для юридического лица, созданного в соответствии с действующим законодательством);
+– номер, присвоенный юридическому лицу в торговом реестре или ином учетном регистре государства, в котором зарегистрировано такое юридическое лицо (при наличии), и дата государственной регистрации юридического лица или присвоения номера (для иностранного юридического лица);
+– место в пределах места нахождения;
+– адрес для направления корреспонденции (почтовый адрес) с указанием индекса;
+– ИНН (при наличии);
+– номер телефона, факса (при наличии);
+– электронный адрес (при наличии);
+– способ получения сообщения о проведении общего собрания акционеров из числа предусмотренных Уставом эмитента;
+– фамилия, имя, отчество (при наличии) должностного лица, имеющего право действовать от имени юридического лица без доверенности, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, наименование органа, выдавшего соответствующий документ и код подразделения (при наличии), сведения о том, является ли такое должностное лицо ИПДЛ/РПДЛ/ДЛПМО/супругой (-ом), близким родственником;
+– образец печати (в случае если обязанность по использованию печати предусмотрена действующим законодательством) и образец подписи лица, имеющего право действовать от имени юридического лица без доверенности (может не содержаться в случае направления заявления-анкеты в виде электронного документа, подписанного электронной подписью).
+Если полномочия единоличного исполнительного органа юридического лица, которому открывается лицевой счет, переданы управляющей организации, то заявление-анкета должна содержать сведения об управляющей организации, в том же объеме, что и в отношении юридического лица, которому открывается лицевой счет.
+В случае введения внешнего управления, открытия конкурсного производства (в случае, если на арбитражного управляющего в деле о банкротстве юридического лица возложено осуществление функций единоличного исполнительного органа), для внесения записей в реестр в заявлении-анкете зарегистрированного лица дополнительно указываются следующие данные:
+– фамилия, имя, отчество (при наличии), наименование должности и образец подписи арбитражного управляющего, а также вид, серия, номер, дата выдачи документа, удостоверяющего его личность, наименование органа, выдавшего соответствующий документ и код подразделения (при наличии);
+– образец печати юридического лица.</t>
+  </si>
+  <si>
+    <t>Распоряжение о совершении операции должно содержать:
+В отношении лица, передающего ценные бумаги:
+– фамилия, имя, отчество (при наличии; для физических лиц и нотариуса) или полное наименование (для юридических лиц). В случае если распоряжение о совершении операции представляется в виде электронного документа с электронной подписью, оно может не содержать фамилию, имя, отчество физического лица или полное наименование юридического лица;
+– вид лицевого счета зарегистрированного лица (лицевой счет владельца ценных бумаг, лицевой счет доверительного управляющего, лицевой счет номинального держателя, лицевой счет номинального держателя центрального депозитария, депозитный лицевой счет, казначейский лицевой счет эмитента, эскроу). В случае если распоряжение о совершении операции представляется в виде электронного документа с электронной подписью, оно должно содержать номер (код) счета;
+– вид, серия, номер, дата выдачи документа, удостоверяющего личность или свидетельства о рождении (в отношении физического лица в возрасте до 14 лет), наименование органа, выдавшего документ (для физических лиц);
+– ОГРН и дату его присвоения (для российского юридического лица), номер (если имеется) и дату документа, подтверждающего государственную регистрацию (для иностранного юридического лица); реквизиты лицензии (документа) на право нотариальной деятельности (дата, номер и наименование органа, выдавшего лицензию (документ) для нотариуса); адрес места жительства умершего (в случае передачи ценных бумаг учредителем доверительного управления наследуемого имущества);
+– номер лицевого счета.
+В отношении передаваемых ценных бумаг:
+– полное наименование эмитента (может не содержаться в распоряжении, представляемом в виде электронного документа с электронной подписью);
+– вид, категория (тип), государственный регистрационный номер (идентификационный номер) выпуска (дополнительного выпуска) эмиссионных ценных бумаг;
+– количество передаваемых ценных бумаг цифрами и прописью (может не содержаться в распоряжении, представляемом в виде электронного документа с электронной подписью);
+– основание перехода прав собственности на ценные бумаги (наименование и реквизиты документа);
+– указание на наличие и вид обременения обязательствами передаваемых ценных бумаг.
+В отношении лица, на лицевой счет которого должны быть зачислены ценные бумаги:
+– фамилия, имя, отчество (при наличии; для физических лиц и нотариуса) или полное наименование (для юридических лиц);
+– вид лицевого счета зарегистрированного лица (лицевой счет владельца ценных бумаг, лицевой счет доверительного управляющего, лицевой счет номинального держателя, лицевой счет номинального держателя центрального депозитария, депозитный лицевой счет, казначейский лицевой счет эмитента (лица, обязанного по ценным бумагам), лицевой счет эскроу-агента);
+– вид, серия, номер, дата выдачи документа, удостоверяющего личность или свидетельства о рождении (в отношении физического лица в возрасте до 14 лет), наименование органа, выдавшего документ; ОГРН и дату его присвоения (для российского юридического лица), номер (если имеется) и дату документа, подтверждающего государственную регистрацию (для иностранного юридического лица); реквизиты лицензии (документа) на право нотариальной деятельности (дата, номер и наименование органа выдавшего лицензию для нотариуса);
+– номер лицевого счета.
+Распоряжение должно быть подписано зарегистрированным лицом, передающим ценные бумаги или его уполномоченным представителем.
+В случае передачи заложенных ценных бумаг (кроме случая их передачи залогодателем залогодержателю), если условиями залога не предусмотрено, что распоряжение заложенными ценными бумагами осуществляется без согласия залогодержателя, распоряжение должно быть подписано также лицом, образец подписи которого содержится в заявлении-анкете залогодержателя.
+В случае передачи залогодателем заложенных ценных бумаг залогодержателю, распоряжение должно быть подписано залогодателем (в том числе скреплено печатью юридического лица) или его уполномоченным представителем.
+В случае если ценные бумаги принадлежат владельцу на праве общей долевой собственности, распоряжение должно быть подписано всеми участниками общей долевой собственности. При отсутствии таких подписей должна быть предоставлена нотариально удостоверенная доверенность, выданная всеми участниками общей долевой собственности лицу, подписавшему от их имени распоряжение.
+Распоряжение, являющееся основанием для совершения операций по лицевому счету зарегистрированного физического лица в возрасте до 14 лет, должно быть подписано его родителем, усыновителем или опекуном, образец подписи которого содержится в заявлении-анкете зарегистрированного лица.
+Распоряжение, являющееся основанием для совершения операций по лицевому счету зарегистрированного физического лица в возрасте от 14 до 18 лет (если это лицо не приобрело дееспособность в полном объеме или не объявлено полностью дееспособным), должно быть подписано этим зарегистрированным лицом, а также содержать отметку о согласии на подписание им распоряжения, подписанную его родителем, усыновителем или попечителем, образец подписи которого содержится в заявлении-анкете зарегистрированного лица. Такое распоряжение может не содержать отметку о согласии на его подписание зарегистрированным лицом, если держателю реестра представлено подписанное его родителем, усыновителем или попечителем письменное согласие на совершение сделки, являющейся основанием передачи ценных бумаг.
+Распоряжение, являющееся основанием для совершения операций по лицевому счету зарегистрированного физического лица, которое признано недееспособным, должно быть подписано его опекуном, образец подписи которого содержится в заявлении-анкете зарегистрированного лица.
+Распоряжение, являющееся основанием для совершения операций по лицевому счету зарегистрированного физического лица, дееспособность которого ограничена, должно быть подписано им, а также содержать отметку о согласии на подписание им распоряжения, подписанную его попечителем, образец подписи которого содержится в заявлении-анкете зарегистрированного лица. Такое распоряжение может не содержать отметку о согласии на его подписание зарегистрированным лицом, подписанную попечителем этого зарегистрированного лица, если держателю реестра представлено его письменное согласие на совершение сделки, являющейся основанием передачи ценных бумаг.
+Если распоряжение подписано родителем, усыновителем или опекуном либо содержит отметку о согласии на подписание зарегистрированным лицом распоряжения, подписанную родителем, усыновителем или попечителем, или держателю реестра представлено письменное согласие родителя, усыновителя или попечителя на совершение сделки, являющейся основанием передачи ценных бумаг, держателю реестра должно быть также представлено письменное разрешение органа опеки и попечительства на совершение (выдачу согласия на совершение) такой сделки.
+Распоряжение о зачислении ценных бумаг на лицевой счет эскроу-агента содержит вышеуказанные сведения с учётом следующих особенностей:
+– сведения указываются в отношении депонента, бенефициара и эскроу-агента;
+– распоряжение должно содержать сведения о названии, номере (если имеется) и дате заключения договора эскроу, сведения о лице, которое в соответствии с договором эскроу осуществляет права по депонированным ценным бумагам.
+Распоряжение о фиксации ограничения распоряжения ценными бумагами при ограничении прав покупателя по договору репо должно содержать следующие сведения:
+– сведения о лице, подавшем Распоряжение: фамилия, имя, отчество (последнее - при наличии) для физических лиц и полное наименование для юридических лиц;
+– вид (наименование), категория (тип) ценных бумаг в отношении которых подано Распоряжение;
+– регистрационный номер выпуска (дополнительного выпуска) эмиссионных ценных бумаг и индивидуальный код дополнительного выпуска эмиссионных ценных бумаг (последнее - при наличии), если Распоряжение подается в отношении эмиссионных ценных бумаг;
+– указания держателю реестра в отношении ценных бумаг;
+– номер (код) лицевого счета, по которому Регистратор вносит запись об ограничении распоряжения ценными бумагами;
+– количество ценных бумаг, в отношении которых Регистратор вносит запись об ограничении распоряжения ими;
+– реквизиты договора репо, по которому ограничиваются права покупателя.
+Распоряжение о снятии ограничения на распоряжение ценными бумагами при прекращении ограничения прав покупателя по договору репо должно содержать следующие сведения:
+– сведения о лице, подавшем Распоряжение: фамилия, имя, отчество (последнее - при наличии) для физических лиц и полное наименование для юридических лиц;
+– вид (наименование), категория (тип) ценных бумаг в отношении которых подано Распоряжение;
+– регистрационный номер выпуска (дополнительного выпуска) эмиссионных ценных бумаг и индивидуальный код дополнительного выпуска эмиссионных ценных бумаг (последнее - при наличии), если Распоряжение подается в отношении эмиссионных ценных бумаг;
+– указания Регистратору в отношении ценных бумаг;
+– номер (код) лицевого счета, по которому Регистратор вносит запись о снятии ограничения на распоряжение ценными бумагами;
+– количество ценных бумаг, в отношении которых Регистратор вносит запись о снятии ограничения на распоряжение ими;
+– реквизиты договора репо, по которому ограничены права покупателя.</t>
+  </si>
+  <si>
+    <t>Распоряжение на предоставление информации из реестра должно содержать следующие данные:
+– наименование эмитента;
+– фамилия, имя, отчество (при наличии; для физических лиц и нотариуса) или полное наименование (для юридических лиц)
+– вид, серия, номер, дата выдачи документа, удостоверяющего личность (для физических лиц); наименование органа, осуществившего государственную регистрацию, ОГРН и дата государственной регистрации (для российских юридических лиц), либо номер, присвоенный иностранному юридическому лицу в торговом реестре или ином учетном регистре государства, в котором зарегистрировано такое юридическое лицо (если имеется), дата государственной регистрации такого юридического лица (для иностранных юридических лиц); реквизиты лицензии (документа) на право нотариальной деятельности (дата, номер и наименование органа выдавшего лицензию (документ) для нотариуса);
+– вид лицевого счета зарегистрированного лица (лицевой счет владельца ценных бумаг, лицевой счет доверительного управляющего, лицевой счет номинального держателя, лицевой счет номинального держателя центрального депозитария, депозитный лицевой счет, казначейский лицевой счет эмитента, лицевой счет эскроу-агента, лицевой счет инвестиционного товарищества, лицевой счет цифровых финансовых активов);
+– перечень запрашиваемой информации;
+– способ получения информации;
+– дата, по состоянию на которую необходимо предоставить информацию (в случае запроса выписок, справок о наличии ценных бумаг на счете и списков лиц);
+– период времени (в случае запроса отчетов об операциях по лицевому счету);
+– подпись зарегистрированного лица (в том числе скрепленная печатью юридического лица при наличии) или его уполномоченного представителя.
+Регистратор вправе предоставлять зарегистрированному лицу информацию из реестра без распоряжения, в случае наличия такой обязанности у Регистратора.</t>
+  </si>
+  <si>
+    <t>Распоряжение на снятие факта ограничения операций с ценными бумагами должно содержать следующие данные:
+– полное наименование эмитента;
+– указание Регистратору осуществить снятие ограничения операций с ценными бумагами;
+– вид лицевого счета зарегистрированного лица (лицевой счет владельца ценных бумаг, лицевой счет доверительного управляющего, лицевой счет номинального держателя, лицевой счет номинального держателя центрального депозитария, депозитный лицевой счет, казначейский лицевой счет эмитента, лицевой счет эскроу-агента, лицевой счет инвестиционного товарищества, лицевой счет цифровых финансовых активов);
+– фамилия, имя, отчество (при наличии; для физических лиц и нотариуса) или полное наименование (для юридических лиц);
+– вид, серия, номер, дата выдачи документа, удостоверяющего личность, наименование органа, выдавшего документ (для физических лиц); наименование органа, осуществившего государственную регистрацию, ОГРН и дата государственной регистрации (для российских юридических лиц), либо номер, присвоенный иностранному юридическому лицу в торговом реестре или ином учетном регистре государства, в котором зарегистрировано такое юридическое лицо (если имеется), дата государственной регистрации такого юридического лица и наименование государственного органа, осуществившего государственную регистрацию юридического лица (для иностранных юридических лиц); реквизиты лицензии (документа) на право нотариальной деятельности (дата, номер и наименование органа выдавшего лицензию (документ) для нотариуса);
+– вид, категория (тип) ценных бумаг, государственный регистрационный номер выпуска, количество ценных бумаг (цифрами и прописью), по которым необходимо снять факт ограничения;
+– подпись зарегистрированного лица (в том числе скрепленная печатью юридического лица при наличии) или его уполномоченного представителя.</t>
+  </si>
+  <si>
+    <t>Прием документов от зарегистрированных лиц, их уполномоченных представителей, уполномоченных представителей эмитента и иных лиц осуществляется Регистратором в соответствии с требованиями нормативных актов Банка России и Правил ведения реестра.
+Регистратор осуществляет прием документов по месту нахождения Регистратора, не менее 4 часов каждый рабочий день. Время приема размещено на официальном сайте в сети Интернет: https://crc-reg.com.
+Документы могут быть предоставлены Регистратору:
+– лично;
+– через уполномоченного представителя;
+– по почте;
+– по электронным каналам связи.
+Распоряжения могут быть направлены Регистратору по почте, если:
+– зарегистрированное лицо прямо указало на такой способ предоставления документов в заявлении-анкете зарегистрированного лица;
+– зарегистрированное лицо приложило к предоставляемым документам соответствующее письменное указание на такой способ предоставления документов.</t>
+  </si>
+  <si>
+    <t>Документы для совершения операции и документы для предоставления информации из реестра предоставляются Регистратору одним из следующих способов:
+– лично зарегистрированным лицом;
+– лично представителем зарегистрированного лица;
+– почтовой связью от зарегистрированного лица или его представителя;
+– с использованием системы электронного документооборота.
+Документы для внесения в реестр записей о переходе права собственности на ценные бумаги, записей о зачислении ценных бумаг на лицевой счет номинального держателя и списании ценных бумаг с лицевого счета номинального держателя, кроме решений суда, документов исполнительного производства, а также кроме документов в электронной форме (подписанных электронной цифровой подписью), направляемых Регистратору зарегистрированным лицом через установленный электронный документооборот между Регистратором и этим лицом, должны быть предоставлены Регистратору лично зарегистрированным лицом (его уполномоченным представителем), если:
+- указанная в передаточном распоряжении цена сделки либо суммарная рыночная стоимость ценных бумаг, в отношении которых предоставлены документы, по результатам организованных торгов за день, предшествующий дню получения документов регистратором, либо суммарная номинальная стоимость ценных бумаг (в случае отсутствия рыночной стоимости) превышает 300 000 рублей;
+- количество ценных бумаг, в отношении которых предоставлены документы, составляет не менее 1% общего количества размещенных ценных бумаг соответствующего эмитента.
+Настоящие ограничения распространяются на случаи предоставления Регистратору двух и более распоряжений о зачислении и списании ценных бумаг, полученных Регистратором в срок, установленный для исполнения операции по первому поступившему Регистратору распоряжению, и в совокупности отвечающих одному из критериев, приведенных выше. При несоблюдении указанных ограничений Регистратор вправе отказать в проведении операции в реестре, если документы для проведения операций в реестре не предоставлены лично зарегистрированным лицом или его уполномоченным представителем.
+К документам, предоставляемым Регистратору в соответствии с настоящим пунктом, должны прилагаться документы, подтверждающие оплату услуг Регистратора по Прейскуранту, действующему на момент предоставления таких документов.
+При всех способах предоставления документов для совершения операций или предоставления информации из реестра представителем зарегистрированного лица должны быть предоставлены документы, подтверждающие полномочия представителя на предоставление этих документов. Если представитель направляет документы для совершения операций и предоставления информации из реестра почтой, должна быть предоставлена надлежащим образом удостоверенная копия документа, удостоверяющего личность представителя.
+Если в реестре отсутствует анкета зарегистрированного лица, документы для совершения иных операций и предоставления информации из реестра должны быть предоставлены вместе с заявлением-анкетой зарегистрированного лица и другими документами, (в случае, если изменились сведения о зарегистрированном лице), необходимыми для внесения изменений в информацию лицевого счета о зарегистрированном лице.
+В случае отсутствия в реестре анкеты зарегистрированного лица, документы, необходимые для внесения изменений в информацию лицевого счета о зарегистрированном лице, должны быть предоставлены лично зарегистрированным лицом или его представителем, если по состоянию на момент предоставления документов:
+- суммарная рыночная стоимость ценных бумаг, учтенных на лицевом счете зарегистрированного лица, по результатам организованных торгов за день, предшествующий дню получения документов Регистратором, или суммарная номинальная стоимость этих ценных бумаг превышает 300 000 рублей;
+- количество ценных бумаг, учтенных на лицевом счете зарегистрированного лица, составляет не менее 1% общего количества размещенных ценных бумаг соответствующего эмитента.
+В случае если зарегистрированное лицо намерено направлять документы для совершения операции или предоставления информации из реестра Регистратору почтовой связью, соответствующее указание должно содержаться в распоряжении (запросе) зарегистрированного лица либо в любом ином документе, который предоставляется Регистратору любым способом, включая заявление-анкету зарегистрированного лица. В случае, если запрос составлен не на бланке Регистратора, и при этом содержит все необходимые данные, Регистратор предоставляет запрашиваемую информацию обратившемуся лицу, при отсутствии иных оснований для отказа. При наличии такого указания в имеющейся в реестре заявлении-анкете зарегистрированного лица его наличие не требуется в доставленном почтой распоряжении (запросе) для совершения операции (предоставления информации из реестра) на основании этого распоряжения (запроса). Данное требование не распространяется на распоряжения Российской Федерации, субъекта Российской Федерации, муниципального образования в лице органа государственной власти или органа местного самоуправления, осуществляющего правомочия собственника ценных бумаг.</t>
+  </si>
+  <si>
+    <t>Для открытия лицевого счета физическому лицу:
+– копия документа, удостоверяющего личность, заверенная уполномоченным лицом Регистратора, либо копия, заверенная нотариально, если документы не представляются лично лицом, которому открывается лицевой счет (не предоставляется, если заявление-анкета представлена лицом, которому открывается лицевой счет, в виде электронного документа, подписанного его электронной подписью);
+– копия свидетельства о рождении или свидетельства об усыновлении/удочерении (для несовершеннолетних до 14 лет), заверенная уполномоченным лицом Регистратора либо копия, заверенная нотариально;
+– копия документа, удостоверяющего личность законного представителя/опекуна (для несовершеннолетних лиц до 18 лет, недееспособных или ограниченных в дееспособности лиц), заверенная уполномоченным лицом Регистратора;
+– копии документов, подтверждающих право на опеку (опекунское удостоверение, приказ о назначении главным врачом лечебного учреждения) (для недееспособных или ограниченных в дееспособности лиц), заверенных уполномоченным лицом Регистратора либо копии, заверенные нотариально;
+– решение суда о признании его недееспособным/ограниченным в дееспособности (для недееспособных или ограниченных в дееспособности лиц) – оригинал или копия, заверенная судом, копия, заверенная нотариально;
+– решение суда о направлении в лечебное учреждение (для недееспособных или ограниченных в дееспособности лиц) – оригинал или копия, заверенная судом.
+Если документы для открытия лицевого счета физическому лицу не представляются лично лицом, которому открывается лицевой счет, Регистратору должны быть предоставлены их копии, удостоверенные нотариально.</t>
+  </si>
+  <si>
+    <t>Для открытия лицевого счета нотариусу:
+– копия документа, удостоверяющего личность, заверенная уполномоченным лицом Регистратора;
+– копия Приказа о наделении нотариуса полномочиями, удостоверенная нотариально;
+– копия лицензии (документа) на право нотариальной деятельности, удостоверенная нотариально.
+Если документы для открытия лицевого счета нотариусу не представляются лично лицом, которому открывается лицевой счет, Регистратору должны быть предоставлены их копии, удостоверенные нотариально.</t>
+  </si>
+  <si>
+    <t>Для открытия лицевого счета юридическому лицу, являющемуся резидентом РФ:
+– копия устава, удостоверенная нотариально или заверенная регистрирующим органом;
+– документ, подтверждающий назначение на должность лиц, имеющих право действовать от имени юридического лица без доверенности (заверенная юридическим лицом копия протокола или оригинал выписки из протокола заседания (собрания) уполномоченного органа зарегистрированного лица, содержащая решение о назначении действующего единоличного исполнительного органа);
+– копия свидетельства о государственной регистрации юридического лица, удостоверенная нотариально или заверенная регистрирующим органом (представляется, если юридическое лицо зарегистрировано 01.07.2002 или позднее);
+– копия свидетельства о внесении записи в ЕГРЮЛ о юридическом лице, зарегистрированном до 1 июля 2002 года, или лист записи ЕГРЮЛ, удостоверенные нотариально или заверенные регистрирующим органом (представляется, если юридическое лицо зарегистрировано до 01.07.2002);
+– оригинал карточки, содержащей нотариально удостоверенный образец подписи лица, имеющего право действовать от имени юридического лица без доверенности, или ее копия, удостоверенная нотариально, если подпись в заявлении-анкете зарегистрированного лица не удостоверена надлежащим образом;
+– оригинал выписки из ЕГРЮЛ или ее копия, заверенная в установленном порядке, в том числе в электронном виде, подписанная усиленной квалифицированной электронной подписью органа, выдавшего документ (представляется для открытия российскому юридическому лицу лицевого счета владельца ценных бумаг или лицевого счета доверительного управляющего);
+– копия лицензии профессионального участника рынка ценных бумаг на осуществление депозитарной деятельности, удостоверенная нотариально (представляется для открытия лицевого счета номинального держателя);
+– копия лицензии профессионального участника рынка ценных бумаг на осуществление деятельности по управлению ценными бумагами, удостоверенная нотариально (представляется для открытия лицевого счета доверительного управляющего, за исключением случая, когда в соответствии с Федеральным законом «О рынке ценных бумаг» наличие такой лицензии не требуется).
+В случае передачи полномочий единоличного исполнительного органа:
+– управляющей организации Регистратору дополнительно должны быть предоставлены следующие документы:
+– приложение к Заявлению-анкете зарегистрированного лица/залогодержателя (для юридических лиц), передавшего функции единоличного исполнительного органа управляющей организации/индивидуальному предпринимателю (управляющему);
+– копия решения о передаче полномочий единоличного исполнительного органа Управляющей организации, заверенная юридическим лицом или удостоверенная нотариально;
+– копия договора о передаче полномочий, заключенного между юридическим лицом и Управляющей организацией, заверенная юридическим лицом или удостоверенная нотариально;
+– копия устава, удостоверенная нотариально или заверенная регистрирующим органом;
+– документ, подтверждающий назначение на должность лиц, имеющих право действовать от имени юридического лица без доверенности (заверенная юридическим лицом копия протокола или оригинал выписки из протокола заседания (собрания) уполномоченного органа зарегистрированного лица, содержащая решение о назначении действующего единоличного исполнительного органа);
+– копия свидетельства о государственной регистрации юридического лица, удостоверенная нотариально или заверенная регистрирующим органом (представляется, если юридическое лицо зарегистрировано 01.07.2002 или позднее);
+– копия свидетельства о внесении записи в ЕГРЮЛ о юридическом лице, зарегистрированном до 1 июля 2002 года, или лист записи ЕГРЮЛ, удостоверенные нотариально или заверенные регистрирующим органом (представляется, если юридическое лицо зарегистрировано до 01.07.2002);
+– оригинал выписки из ЕГРЮЛ или ее копия, заверенная в установленном порядке, в том числе в электронном виде, подписанная усиленной квалифицированной электронной подписью органа, выдавшего документ, представляется для открытия российскому юридическому лицу лицевого счета владельца ценных бумаг или лицевого счета доверительного управляющего).
+– индивидуальному предпринимателю (управляющему) Регистратору дополнительно должны быть предоставлены следующие документы:
+– копия паспорта индивидуального предпринимателя (управляющего);
+– приложение к заявлению-анкете зарегистрированного лица/залогодержателя (для юридических лиц), передавшего функции единоличного исполнительного органа управляющей организации/индивидуальному предпринимателю (управляющему);
+– копия решения о передаче полномочий единоличного исполнительного органа индивидуальному предпринимателю (управляющему), заверенная юридическим лицом или удостоверенная нотариально;
+– копия договора о передаче полномочий, заключенного между юридическим лицом и индивидуальным предпринимателем (управляющим), заверенная юридическим лицом или удостоверенная нотариально;
+– копия свидетельства о государственной регистрации физического лица в качестве индивидуального предпринимателя, удостоверенная нотариально или заверенная регистрирующим органом;
+– оригинал выписки из ЕГРИП или ее копия, заверенная в установленном порядке, в том числе в электронном виде, подписанная усиленной квалифицированной электронной подписью органа, выдавшего документ, представляется для открытия российскому юридическому лицу лицевого счета владельца ценных бумаг или лицевого счета доверительного управляющего).</t>
+  </si>
+  <si>
+    <t>Для открытия лицевого счета органа государственной власти (органа местного самоуправления):
+– копия правового акта, на основании которого уполномоченный орган осуществляет правомочия собственника ценных бумаг, верность которой засвидетельствована уполномоченным лицом уполномоченного органа;
+– копия документа, подтверждающего назначение на должность руководителя уполномоченного органа, верность которой засвидетельствована уполномоченным лицом уполномоченного органа;
+– копия свидетельства о государственной регистрации уполномоченного органа в качестве юридического лица, верность которой засвидетельствована уполномоченным лицом уполномоченного органа;
+– оригиналы документов, подтверждающих полномочия лиц действовать от имени уполномоченного органа, или их копии, верность которых засвидетельствована уполномоченным лицом уполномоченного органа.</t>
+  </si>
+  <si>
+    <t>Для открытия лицевого счета юридическому лицу-нерезиденту необходимо предоставить следующие документы:
+– устав и/или учредительный договор или иной документ, который по действующему законодательству страны происхождения юридического лица является учредительным документом для данной организационно-правовой формы и содержит информацию о полномочиях должностных лиц юридического лица (копия, удостоверенная нотариально);
+– свидетельство о регистрации юридического лица или равнозначный документ (оригинал выписки из торгового реестра или иного учетного регистра государства, в котором зарегистрировано иностранное юридическое лицо, или ее копия, заверенная нотариально, содержащий сведения о регистрации юридического лица в соответствии с действующим законодательством страны происхождения нерезидента;
+– документ, подтверждающий назначение на должность лиц, имеющих право действовать от имени юридического лица без доверенности (протокол/резолюция/решение о назначении директора), или копия выписки из такого документа, заверенные нотариально;
+– документы, подтверждающие место нахождения юридического лица, оригинал или ее копия, заверенная нотариально;
+– сертификат об акционерах (может быть представлен в качестве документа, содержащего сведения о персональном составе органов управления юридического лица) (копия, заверенная нотариально);
+– копия свидетельства (сертификата) о нахождении компании в реестре, либо выписка из торгового реестра, заверенная нотариально, созданная не более чем за год до предоставления документов Регистратору;
+– документ, содержащий заверенный нотариально образец подписи должностного лица, имеющего право действовать от имени юридического лица без доверенности (если подпись в заявлении-анкете зарегистрированного лица не удостоверена надлежащим образом).
+В случае если единоличным исполнительным органом юридического лица – нерезидента является юридическое лицо, то в отношении последнего должны быть представлены все вышеперечисленные в настоящем пункте документы и приложение к заявлению-анкете зарегистрированного лица (для юридических лиц), передавшего функции единоличного исполнительного органа управляющей организации.
+Документы, составленные в соответствии с иностранным правом, представляемые Регистратору нерезидентами должны быть легализованы в установленном порядке, кроме случаев, если в соответствии с федеральными законами и международными договорами РФ такая легализация не требуется. К таким документам должен прилагаться перевод на русский язык, верность которого и (или) подлинность подписи переводчика засвидетельствованы нотариально.</t>
+  </si>
+  <si>
+    <t>Заявление-анкета зарегистрированного лица физического лица предоставляется для открытия лицевого счета или внесения изменений в информацию лицевого счета и должна содержать следующие данные:
+– фамилия, имя, отчество (при наличии);
+– гражданство (подданство), а если такое физическое лицо является лицом без гражданства, – указание на это обстоятельство;
+– вид, серия, номер, дата выдачи документа, удостоверяющего личность, наименование органа, выдавшего документ и код подразделения (при наличии);
+– дата и место рождения;
+– адрес регистрации по месту жительства (при наличии);
+– адрес по месту пребывания (почтовый адрес) с указанием индекса;
+– образец подписи физического лица (в случае если физическое лицо действует от своего имени);
+– реквизиты банковского счета для получения доходов и выплат по ценным бумагам (при наличии);
+– идентификационный номер налогоплательщика (далее - ИНН) (при наличии);
+– страховой номер индивидуального лицевого счета (СНИЛС) (при наличии);
+– электронный адрес (при наличии);
+– номер телефона, факса (при наличии);
+– способ получения сообщения о проведении общего собрания акционеров из числа предусмотренных Уставом эмитента;
+– может содержать иные сведения, не противоречащие требованиям действующего законодательства.
+Для физического лица в возрасте до 18 лет должны содержаться также следующие сведения:
+– фамилия, имя, отчество (при наличии) родителя (родителей), усыновителя, опекуна или попечителя;
+– серия и номер, дата выдачи, наименование органа, выдавшего документ, и код подразделения (при наличии) документа (документов), удостоверяющего личность родителя (родителей), усыновителя, опекуна или попечителя;
+– образец подписи родителя (родителей), усыновителя, опекуна или попечителя. Сведения, предусмотренные настоящим пунктом, могут не включаться в Заявление-анкету, если лицевой счет открывается физическому лицу, являющемуся несовершеннолетним физическим лицом, и указанное лицо представило документы, подтверждающие, что оно приобрело дееспособность в полном объеме или объявлено полностью дееспособным.
+В Заявлении-анкете, представляемом для открытия лицевого счета физическому лицу, признанному недееспособным, должны содержаться также следующие сведения:
+– фамилия, имя, отчество (при наличии) опекуна;
+– серия и номер, дата выдачи, наименование органа, выдавшего документ, и код подразделения (при наличии) документа (документов), удостоверяющего личность опекуна;
+– реквизиты акта о назначении опекуна;
+– образец подписи опекуна.
+В Заявлении-анкете, представляемом для открытия лицевого счета физическому лицу, дееспособность которого ограничена, должны содержаться также следующие сведения:
+– фамилия, имя, отчество (при наличии) попечителя;
+– серия и номер, дата выдачи, наименование органа, выдавшего документ, и код подразделения (при наличии) документа (документов), удостоверяющего личность попечителя;
+– реквизиты акта о назначении попечителя;
+– образец подписи попечителя.
+В случае назначения финансового управляющего в деле о банкротстве физического лица, Регистратору дополнительно предоставляются сведения:
+– фамилия, имя, отчество (при наличии) финансового управляющего, образец его подписи (подпись должна быть удостоверена нотариально, если не была проставлена в присутствии сотрудника Регистратора), а также серия и номер, дата выдачи, наименование органа, выдавшего документ, и код подразделения (при наличии) документа, удостоверяющего его личность, реквизиты судебного акта об утверждении финансового управляющего.
+Если лицо, которому открывается лицевой счет, моложе 14 лет, в заявлении-анкете может не содержаться образец его подписи.
+В заявлении-анкете, предоставляемой для открытия лицевого счета физическому лицу в возрасте до 18 лет, должен содержаться образец подписи родителя (родителей), усыновителя, опекуна или попечителя.
+В заявлении-анкете, предоставляемом для открытия лицевого счета лица, признанного недееспособным (или дееспособность которого ограничена), должен содержаться образец подписи опекуна (попечителя).
+Заявление-анкета для открытия участнику общей долевой собственности лицевого счета владельца, на котором должен осуществляться учет права общей долевой собственности на ценные бумаги, должно содержать анкетные данные как минимум одного участника общей долевой собственности, а также сведения о количестве участников общей долевой собственности.</t>
+  </si>
+  <si>
+    <t>Для физических лиц документами, подтверждающими факт изменения реквизитов, являются:
+При изменении фамилии, имени, отчества:
+– свидетельство об изменении имени, фамилии, отчества;
+– свидетельство о заключении (расторжении) брака.
+Физическое лицо обязано предъявить подлинник или предоставить нотариально удостоверенную копию вышеуказанного документа.
+При изменении данных документа, удостоверяющего личность один из нижеперечисленных документов:
+– справка, выданная органом, осуществившим замену документа, удостоверяющего личность, справка, полученная посредством многофункционального центра предоставления государственных и муниципальных услуг;
+– копия нового документа, удостоверяющего личность, с отметкой о прежнем документе. При этом указанная копия должна быть заверена в присутствии уполномоченного лица Регистратора либо удостоверена нотариально (копия документа, удостоверяющего личность, не предоставляется, если документы для изменения сведений, содержащихся в заявлении-анкете, представлены зарегистрированным лицом в виде электронных документов, подписанных его электронной подписью).</t>
+  </si>
+  <si>
+    <t>Для юридических лиц (в том числе для эмитентов) документами, подтверждающими факт изменения реквизитов, являются:
+– документы, данные которых изменились, удостоверенные соответствующим образом;
+– нотариально удостоверенная копия свидетельства о внесении изменений в ЕГРЮЛ, если данные изменения подлежат регистрации/внесению в ЕГРЮЛ.
+В случае реорганизации в форме преобразования номинального держателя (доверительного управляющего), которому открыт лицевой счет номинального держателя, а также в случае его реорганизации в форме присоединения к другому депозитарию (доверительному управляющему), которому в реестре владельцев ценных бумаг не открыт лицевой счет номинального держателя (доверительного управляющего), Регистратор проводит операцию по внесению изменений в информацию указанного лицевого счета номинального держателя (доверительного управляющего) на основании следующих документов:
+– заявление-анкета юридического лица;
+– копия устава, удостоверенная нотариально или заверенная регистрирующим органом;
+– копия документа, подтверждающего внесение в ЕГРЮЛ записи о реорганизации номинального держателя (доверительного управляющего) в форме преобразования, удостоверенная нотариально или заверенная регистрирующим органом, в случае реорганизации в форме преобразования;
+– копия (копии) документа (документов), подтверждающего (подтверждающих) внесение в ЕГРЮЛ записи об исключении из указанного реестра номинального держателя (доверительного управляющего) в результате его реорганизации в форме присоединения, и о его присоединении к другому номинальному держателю (доверительному управляющему), удостоверенная нотариально или заверенная регистрирующим органом, в случае реорганизации в форме присоединения;
+– документ, подтверждающий назначение на должность лиц, имеющих право действовать от имени юридического лица без доверенности (копия протокола, заверенная юридическим лицом, либо оригинал выписки из протокола);
+– карточка с образцами подписей должностных лиц и оттиском печати юридического лица – копия, удостоверенная нотариально (в случае, если должностные лица юридического лица, имеющие право действовать от его имени без доверенности не расписались в заявлении-анкете зарегистрированного лица в присутствии уполномоченного представителя Регистратора);
+– копия лицензии юридического лица, к которому присоединен номинальный держатель (доверительный управляющий), на осуществление профессиональной деятельности на рынке ценных бумаг, удостоверенная нотариально, в случае реорганизации в форме присоединения;
+– юридическое лицо, созданное в результате преобразования, должно предоставить Регистратору копию указанной лицензии, удостоверенную нотариально в течение 15 (пятнадцати) рабочих дней после получения от Банка России переоформленного в установленном порядке бланка лицензии на осуществление профессиональной деятельности на рынке ценных бумаг.</t>
+  </si>
+  <si>
+    <t>Регистратор вносит в реестр запись о переходе прав собственности на ценные бумаги при совершении сделки на основании распоряжения, предоставленного зарегистрированными лицами или их уполномоченными представителями, уполномоченными представителями эмитента, уполномоченными представителями государственных органов, нотариусом с учетом следующего:
+Распоряжение, являющееся основанием для совершения операций по лицевому счету зарегистрированного физического лица в возрасте до 14 лет, должно быть подписано его родителем, усыновителем или опекуном, образец подписи которого содержится в заявлении-анкете зарегистрированного лица.
+Распоряжение, являющееся основанием для совершения операций по лицевому счету зарегистрированного физического лица в возрасте от 14 до 18 лет (если это лицо не приобрело дееспособность в полном объеме или не объявлено полностью дееспособным), распоряжение должно содержать отметку о согласии на подписание им распоряжения, подписанную его родителем, усыновителем или попечителем, образец подписи которого содержится в заявлении-анкете зарегистрированного лица, либо представлено подписанное его родителем, усыновителем или попечителем письменное согласие на совершение сделки, являющейся основанием передачи ценных бумаг.
+Если распоряжение подписано родителем, усыновителем или опекуном либо содержит отметку о согласии на подписание зарегистрированным лицом распоряжения, подписанную родителем, усыновителем или попечителем, или Регистратору представлено письменное согласие родителя, усыновителя или попечителя на совершение сделки, являющейся основанием передачи ценных бумаг, Регистратору должно быть также представлено письменное разрешение органа опеки и попечительства на совершение (выдачу согласия на совершение) такой сделки.
+Распоряжение может быть предоставлено зарегистрированным лицом, передающим ценные бумаги или его уполномоченным представителем.
+При внесении записей о переходе прав собственности на ценные бумаги, находящихся в общей долевой собственности, распоряжение должно быть подписано всеми участниками долевой собственности или их уполномоченными представителями.</t>
+  </si>
+  <si>
+    <t>Регистратор вносит в реестр запись о переходе прав собственности на ценные бумаги в результате наследования на основании оригинала или нотариально удостоверенной копии свидетельства о праве на наследство и/или свидетельства о праве собственности с учетом следующего:
+В случае если лицевой счет наследнику в реестре не был открыт ранее, Регистратору должны быть предоставлены документы, необходимые для открытия лицевого счета.
+Двум и более наследникам Регистратором открывается один лицевой счет, на который наследуемые ценные бумаги зачисляются со счета наследодателя и учитываются на праве общей долевой собственности пропорционально долям, определенным в свидетельстве о праве на наследство.
+В случае предоставления Регистратору одновременно со свидетельством (если все наследники указаны в одном свидетельстве) или свидетельствами (если свидетельства выданы каждому наследнику) о праве на наследство письменного соглашения (договора, решения суда) о разделе наследуемого имущества с указанием целого количества ценных бумаг, распределенного наследникам, подписанное каждым из наследников или их уполномоченными представителями, Регистратор открывает лицевой счет владельца каждому из наследников и зачисляет на них ценные бумаги согласно соглашению (договору, решению суда) о разделе наследственного имущества.
+Регистратор при совершении операции зачисляет каждому из наследников ценные бумаги в соответствии со свидетельством, в котором указаны все наследники, или свидетельствами, если свидетельства выданы каждому наследнику, и в свидетельстве (-ах) указано целое количество ценных бумаг. Операция совершается при наличии в реестре открытого (-ых) лицевого (-ых) счета (-ов) на наследника (-ов) или предоставлении заявлений-анкет зарегистрированных лиц для открытия лицевого (-ых) счета (-ов).
+Соглашение (договор, решение суда) о разделе наследственного имущества между наследниками за несовершеннолетних в возрасте до 14 лет подписывают их законные представители; при достижении 14 лет – соглашение подписывается несовершеннолетними собственноручно.
+В случае раздела наследуемого имущества между наследниками, среди которых имеются несовершеннолетние в возрасте до 14 лет, Регистратору должно быть предоставлено письменное разрешение органов опеки и попечительства на раздел наследуемого имущества.
+В случае если наследники не могут прийти к соглашению о разделе ценных бумаг, Регистратором осуществляется открытие одного лицевого счета с указанием реквизитов всех наследников и зачисление на него общего количества ценных бумаг, указанного в свидетельстве о праве на наследство.</t>
+  </si>
+  <si>
+    <t>Регистратор вносит в реестр запись во исполнение судебных актов на основании судебного акта, вступившего в законную силу, заверенного судом или на основании акта лица, осуществляющего исполнение судебного решения (далее – Исполнительные документы).
+К Исполнительным документам относятся (перечень не является исчерпывающим):
+– Оригинал Исполнительного документа (в случае принудительного исполнения судебного решения);
+– Постановление судебного пристава-исполнителя или иного должностного лица службы судебных приставов (в случае, если Регистратор не является ответчиком в соответствии с решением суда).
+Документы судебных органов, исполнительные листы принимаются к исполнению в следующих случаях:
+– при вручении через уполномоченного представителя судебных органов лично держателю реестра;
+– при получении документов, направленных судебными органами письмом в адрес держателя реестра;
+– документы могут быть предоставлены сторонами по делу или их уполномоченными представителями лично или почтой;
+– постановление судебного пристава-исполнителя может быть вручено держателю реестра лично судебным приставом-исполнителем либо направлено по почте службой судебных приставов или предоставлено взыскателем.
+В исполнительном документе, за исключением постановления судебного пристава-исполнителя, судебного приказа, исполнительной надписи нотариуса и нотариально удостоверенного соглашения об уплате алиментов, должны быть указаны:
+1) наименование и адрес суда или другого органа, выдавшего исполнительный документ, фамилия и инициалы должностного лица;
+2) наименование дела или материалов, на основании которых выдан исполнительный документ, и их номера;
+3) дата принятия судебного акта, акта другого органа или должностного лица;
+4) дата вступления в законную силу судебного акта, акта другого органа или должностного лица либо указание на немедленное исполнение;
+5) сведения о должнике и взыскателе:
+а) для граждан – фамилия, имя, отчество (при наличии), место жительства или место пребывания, а для должника также – дата и место рождения, место работы (если они известны), один из идентификаторов (страховой номер индивидуального лицевого счета, идентификационный номер налогоплательщика, серия и номер документа, удостоверяющего личность, серия и номер водительского удостоверения, серия и номер свидетельства о регистрации транспортного средства), для должника, являющегося индивидуальным предпринимателем, также – идентификационный номер налогоплательщика, основной государственный регистрационный номер (если он известен);
+б) для организаций – наименование и адрес, указанный в едином государственном реестре юридических лиц, фактический адрес (если он известен), идентификационный номер налогоплательщика, основной государственный регистрационный номер (если он известен);
+в) для Российской Федерации, субъекта Российской Федерации или муниципального образования – наименование и адрес органа, уполномоченного от их имени осуществлять права и исполнять обязанности в исполнительном производстве;
+г) для иностранного государства также наименование и место нахождения соответствующих органа, учреждения или иного образования;
+6) резолютивная часть судебного акта, акта другого органа или должностного лица, содержащая требование о возложении на должника обязанности по передаче взыскателю денежных средств и иного имущества либо совершению в пользу взыскателя определенных действий или воздержанию от совершения определенных действий;
+7) дата выдачи исполнительного документа.
+В постановлении судебного пристава-исполнителя или иного должностного лица службы судебных приставов должны быть указаны:
+1) наименование подразделения судебных приставов и его адрес;
+2) дата вынесения постановления;
+3) должность, фамилия и инициалы лица, вынесшего постановление;
+4) наименование и номер исполнительного производства, по которому выносится постановление;
+5) вопрос, по которому выносится постановление;
+6) основания принимаемого решения со ссылкой на федеральные законы и иные нормативные правовые акты;
+7) решение, принятое по рассматриваемому вопросу;
+8) порядок обжалования постановления.
+В случае поступления Исполнительного документа, инициирующего совершение в реестре операции о списании с лицевого счета должника и о зачислении на лицевой счет взыскателя ценных бумаг, непосредственно Регистратору в порядке ст. 8.1. Федерального закона «Об исполнительном производстве» от 02.10.2007 № 229-ФЗ, Регистратор проводит операцию на основании следующих документов (в совокупности):
+– предоставленного взыскателем Исполнительного документа;
+– заявления взыскателя (представителя взыскателя) о направлении Исполнительного документа для исполнения, в котором указываются:
+– фамилия, имя, отчество (при наличии), гражданство, реквизиты документа, удостоверяющего личность, место жительства или место пребывания, идентификационный номер налогоплательщика (при его наличии), данные миграционной карты и документа, подтверждающего право на пребывание (проживание) в Российской Федерации взыскателя-гражданина;
+– наименование, идентификационный номер налогоплательщика или код иностранной организации, государственный регистрационный номер, место государственной регистрации и юридический адрес взыскателя – юридического лица.
+Представитель взыскателя представляет документ, удостоверяющий его полномочия, и указывает в заявлении сведения о взыскателе и о себе.
+Указанные документы могут быть предоставлены взыскателем при условии, что взыскатель располагает сведениями об имеющихся на указанных счетах должника ценных бумагах.
+Операции списания и зачисления ценных бумаг на основании Исполнительных документов совершаются при условии открытия лицевого счета лицом, на лицевой счет которого должны быть зачислены ценные бумаги.
+В соответствии с п. 4 ст. 73.1. Федерального закона «Об исполнительном производстве» от 02.10.2007 № 229-ФЗ в случае обоснованных сомнений в подлинности Исполнительного документа, полученного непосредственно от взыскателя (его представителя) или сомнений в достоверности представленных сведений, Регистратор для проверки подлинности Исполнительного документа или достоверности сведений вправе задержать исполнение Исполнительного документа, но не более чем на 7 (семь) дней.
+В соответствии с п. 2 ст. 73.1. Федерального Закона «Об исполнительном производстве» от 02.10.2007 № 229-ФЗ в трехдневный срок со дня получения Исполнительного документа от взыскателя или судебного пристава-исполнителя Регистратор исполняет содержащиеся в Исполнительном документе требования о списании с лицевого счета должника и зачислении на лицевой счет взыскателя эмиссионных ценных бумаг либо делает отметку о полном или частичном неисполнении указанных требований в связи с отсутствием на счетах должника эмиссионных ценных бумаг, достаточных для удовлетворения требований взыскателя.
+В соответствии с п. 5 ст. 73.1. Федерального закона «Об исполнительном производстве» от 02.10.2007 № 229-ФЗ в случае, если имеющихся на лицевом счете должника эмиссионных ценных бумаг недостаточно для исполнения содержащихся в Исполнительном документе требований о списании эмиссионных ценных бумаг, Регистратор производит списание имеющихся на счетах должника эмиссионных ценных бумаг и продолжает дальнейшее исполнение по мере зачисления эмиссионных ценных бумаг на счет должника до исполнения содержащихся в исполнительном документе требований о списании эмиссионных ценных бумаг в полном объеме. О произведенных операциях Регистратор сообщает судебному приставу-исполнителю или взыскателю, если Исполнительный документ поступил от взыскателя.
+Завершением выполнения требований Исполнительного документа является:
+– списание ценных бумаг в полном объеме;
+– постановление судебного пристава-исполнителя о прекращении (окончании, отмене) Исполнительного производства.
+При наличии обстоятельств, затрудняющих исполнение судебного акта, Регистратор вправе обратиться в суд или к судебному приставу-исполнителю для отсрочки или рассрочки исполнения судебного акта, изменения способа и порядка его исполнения.
+В случае невозможности исполнения решения суда, вступившего в законную силу, Регистратор вправе обратиться в суд с заявление о разъяснении данного решения. При этом срок исполнения решения суда приостанавливается до момента получения Регистратором разъяснений суда.</t>
+  </si>
+  <si>
+    <t>Регистратор вносит в реестр запись о переходе права собственности на ценные бумаги при реорганизации зарегистрированного лица в форме слияния, присоединения, разделения, выделения и преобразования на основании следующих документов:
+Выписка из передаточного акта о передаче ценных бумаг вновь возникшему юридическому лицу (при слиянии) (в случае его составления), копии договора или решения о реорганизации, заверенные в установленном порядке и документа, подтверждающего государственную регистрацию вновь созданного юридического лица (при реорганизации в форме разделения, выделения);
+Выписка из передаточного акта о передаче ценных бумаг юридическому лицу, к которому присоединилось зарегистрированное лицо (при присоединении) (в случае его составления), копии договора или решения о реорганизации, заверенные в установленном порядке.
+Выписка из передаточного акта зарегистрированного юридического лица о передаче ценных бумаг одному или нескольким вновь образованным юридическим лицам (при разделении и выделении), копии договора или решения о реорганизации, заверенные в установленном порядке и документа, подтверждающего государственную регистрацию вновь созданного юридического лица.
+Документы, необходимые для открытия лицевого счета нового владельца (если счет не был открыт в реестре ранее).
+Нотариально удостоверенная копия (или электронный документ, подписанный усиленной квалифицированной электронной подписью органа, выдавшего документ) выписки из ЕГРЮЛ о прекращении деятельности юридического лица и/или о создании юридического лица (при присоединении, разделении, слиянии и преобразовании).
+Выписка из передаточного акта должна быть подписана уполномоченными представителями юридического лица (лиц).
+Проведение в реестре операций в связи с реорганизацией в форме преобразования осуществляется путем внесения Регистратором записи о списании ценных бумаг с лицевого счета зарегистрированного лица и зачислении ценных бумаг на лицевой счет вновь возникшего юридического лица.
+В случае реорганизации в форме преобразования номинального держателя (доверительного управляющего), которому открыт лицевой счет в реестре владельцев ценных бумаг, а также в случае его реорганизации в форме присоединения к другому номинальному держателю (доверительному управляющему), которому в реестре владельцев ценных бумаг не открыт лицевой счет номинального держателя (доверительного управляющего), Регистратором проводится операция по внесению изменений в информацию указанного лицевого счета номинального держателя (доверительного управляющего).
+В случае присоединения номинального держателя к другому номинальному держателю, которому в реестре владельцев ценных бумаг открыт лицевой счет номинального держателя, Регистратором проводится перерегистрация ценных бумаг с лицевого счета присоединенного номинального держателя на лицевой счет номинального держателя, к которому осуществлено присоединение, на основании следующих документов:
+– распоряжения номинального держателя, к которому осуществлено присоединение;
+– копия (копии) документа (документов), подтверждающего (подтверждающих) внесение в ЕГРЮЛ записи об исключении из указанного реестра номинального держателя (доверительного управляющего) в результате его реорганизации в форме присоединения, и о его присоединении к другому номинальному держателю (доверительному управляющему), удостоверенная нотариально или заверенная регистрирующим органом, в случае реорганизации в форме присоединения.</t>
+  </si>
+  <si>
+    <t>Особенности внесения в реестр записи о переходе прав собственности на ценные бумаги при приватизации устанавливаются действующим законодательством.</t>
+  </si>
+  <si>
+    <t>Регистратор вносит в реестр запись о фиксации права залога ценных бумаг, в том числе последующего залога ценных бумаг на основании залогового распоряжения.
+Записи об изменении условий обременения бездокументарных ценных бумаг и о его прекращении вносятся на основании распоряжения владельца при наличии согласия в письменной форме лица, в пользу которого установлено обременение, либо без такого распоряжения в случаях, предусмотренных федеральным законом или соглашением правообладателя с Регистратором и лицом, в пользу которого установлено обременение. Письменная форма согласия, считается соблюденной, если оно предоставлено Регистратору в форме электронного сообщения, подписанного квалифицированной электронной подписью либо, или условиями соглашения депозитария с лицом, в отношении ценных бумаг которого установлено обременение, и лицом, в пользу которого установлено такое обременение, простой или неквалифицированной электронной подписью.
+Внесение изменений в данные лицевого счета залогодателя о заложенных ценных бумагах и условиях залога осуществляется Регистратором на основании распоряжения о внесении изменений о заложенных ценных бумагах и условиях залога, подписанного залогодателем и залогодержателем (в том числе скрепленного печатью юридического лица) или их уполномоченными представителями. Если ценные бумаги заложены в обеспечение исполнения обязательств по облигациям, подпись залогодержателя не требуется.
+Передача залогодателем заложенных ценных бумаг залогодержателю осуществляется Регистратором на основании распоряжения, подписанного залогодателем (в том числе скрепленного печатью юридического лица при наличии) или его уполномоченным представителем.
+В случае передачи прав по договору о залоге вносятся соответствующие изменения в сведения, содержащиеся в записи об обременении ценных бумаг по лицевому счету залогодателя.
+Указанные действия совершаются держателем реестра на основании распоряжения о передаче права залога.
+Внесение записи о прекращении залога осуществляется Регистратором на основании распоряжения о прекращении залога, подписанного залогодержателем либо залогодателем и залогодержателем (в том числе скрепленного печатью юридического лица) или их уполномоченными представителями.
+Внесение записей о прекращении залога и передаче ценных бумаг в связи с обращением на них взыскания без решения суда осуществляется Регистратором на основании распоряжения, подписанного залогодержателем (в том числе скрепленного печатью юридического лица) или его уполномоченным представителем (лицом, указанным в решении о выпуске облигаций, обеспеченных залогом ценных бумаг, в качестве лица, которое будет осуществлять их реализацию), к которому должны быть приложены документы, указанные в залоговом распоряжении, а именно:
+– договор купли-продажи заложенных ценных бумаг, заключенный по результатам торгов;
+– выписка из реестра сделок организатора торгов, подтверждающая заключение сделки с ценными бумагами;
+– договор купли-продажи ценных бумаг, заключенный комиссионером, и договор комиссии между залогодержателем и комиссионером.
+Внесение записи о прекращении залога ценных бумаг, переданных в залог суду или органу, в производстве которого находится уголовное дело, в случае возвращения ценных бумаг залогодателю осуществляется Регистратором на основании определения суда, в котором решен вопрос о возвращении залога залогодателю, или постановления следователя (дознавателя) о прекращении уголовного дела.
+Внесение записей о прекращении залога ценных бумаг и передаче ценных бумаг в связи с обращением на них взыскания по решению суда осуществляется Регистратором на основании:
+– распоряжения, подписанного залогодержателем (в том числе скрепленного печатью юридического лица) или его уполномоченным представителем (лицом, указанным в решении о выпуске облигаций, обеспеченных залогом ценных бумаг, в качестве лица, которое будет осуществлять их реализацию), и оригиналов или надлежащим образом оформленных копий решения суда и договора купли-продажи заложенных ценных бумаг, заключенного по результатам торгов;
+– распоряжения, подписанного залогодержателем (в том числе скрепленного печатью юридического лица) или его уполномоченным представителем (лицом, указанным в решении о выпуске облигаций, обеспеченных залогом ценных бумаг, в качестве лица, которое будет осуществлять их реализацию), и оригиналов или надлежащим образом оформленных копий решения суда при обращении взыскания на ценные бумаги, обращающиеся на торгах организаторов торговли;
+– в случае оставления заложенных ценных бумаг залогодержателем за собой – решения суда и протокола несостоявшихся повторных торгов, после проведения которых прошло не более одного месяца;
+– в случае обращения в доход государства ценных бумаг, переданных в залог суду или органу, в производстве которого находится уголовное дело, – решения суда, вынесенного в соответствии с требованиями действующего уголовно-процессуального законодательства.
+Внесение записи о прекращении залога в случае, когда залогодержатель не воспользовался своим правом оставить заложенные ценные бумаги за собой, осуществляется Регистратором на основании распоряжения о прекращении залога, подписанного залогодателем или его уполномоченным представителем, к которому должны быть приложены:
+– протокол несостоявшихся повторных торгов, после проведения которых прошло не менее 2 месяцев;
+– письменное уведомление (датированное не более чем за 5 (пять) дней до поступления к Регистратору) залогодателя об отсутствии факта поступления к нему заявления залогодержателя об оставлении за собой предмета залога;
+– письменное уведомление (датированное не более чем за 5 (пять) дней до поступления к Регистратору) организатора торгов (судебного пристава-исполнителя) об отсутствии факта поступления.
+Внесение записи об обременении депонированных ценных бумаг по договору эскроу в случае, когда эскроу-агентом является зарегистрированное лицо осуществляется Регистратором путём зачисления ценных бумаг на лицевой счет эскроу-агента на основании распоряжения о зачислении ценных бумаг на лицевой счет эскроу-агента, подписанного депонентом, бенефициаром и эскроу-агентом.
+Внесение записей об изменении условий, прекращении обременения ценных бумаг по договору эскроу в случае, когда эскроу-агентом является зарегистрированное лицо осуществляется Регистратором на основании распоряжения о внесении изменений в условия обременения ценных бумаг по договору эскроу, подписанного депонентом, бенефициаром и эскроу-агентом.
+Внесение в реестр записи о прекращении обременения ценных бумаг по договору эскроу осуществляется Регистратором на основании распоряжения эскроу-агента о списании ценных бумаг с лицевого счета эскроу-агента и зачисления их на лицевой счет депонента или бенефициара.</t>
+  </si>
+  <si>
+    <t>Регистратор вносит по лицевому счету запись о фиксации факта ограничения операций с ценными бумагами (в отношении всех либо части акций) на основании одного из нижеперечисленных документов:
+– исполнительного документа (в т. ч. постановления судебного пристава-исполнителя);
+– определения или решения суда, вступившего в законную силу;
+– постановления следователя о наложении ареста на имущество зарегистрированного лица;
+– оригинала или нотариально удостоверенной копии свидетельства о смерти зарегистрированного лица-наследодателя;
+– запроса нотариуса, связанного с открытием наследственного дела и содержащего фамилию, имя, отчество (при наличии), дату рождения и/или места жительства умершего;
+– сведений об обременении ценных бумаг обязательствами, полученных от предыдущего реестродержателя и копий документов (заверенных передающей стороной), послуживших основанием для внесения в реестр записей об обременении, блокировании и/или аресте;
+– договора условного депонирования;
+– на основании федерального закона.
+Запись о фиксации факта ограничения операций с ценными бумагами, внесенная в реестр во исполнение наложенного судебным приставом-исполнителем ареста на ценные бумаги должника при обращении взыскания на его имущество, не препятствует совершению действий по их погашению, выплате по ним доходов, их конвертации или обмену на иные ценные бумаги, если такие действия предусмотрены условиями выпуска арестованных ценных бумаг и не запрещены постановлением о наложении ареста на ценные бумаги.
+Регистратор вносит в реестр запись о фиксации факта снятия ограничений операций с ценными бумагами (части акций) по лицевому счету зарегистрированного лица, по которому осуществлялась фиксация факта ограничения операций с ценными бумагами на основании одного из нижеперечисленных документов:
+– распоряжения зарегистрированного лица;
+– исполнительного документа или постановления судебного пристава-исполнителя;
+– определения или решения суда, вступившего в законную силу;
+– постановления следователя об отмене ареста на имущество зарегистрированного лица;
+– свидетельства о праве на наследство (оригинал или нотариально удостоверенная копия) перед внесением в реестр записи о переходе прав собственности на ценные бумаги в результате наследования или свидетельства о праве собственности пережившего супруга;
+– иных документов, предусмотренных действующим законодательством, выданных уполномоченными государственными органами;
+– договора условного депонирования;
+– на основании Федеральных законов.
+Регистратор вносит в реестр запись о факте ограничения операций с ценными бумагами по депозитному лицевому счету после зачисления на данный счет ценных бумаг, за исключением операции по предоставлению информации на основании распоряжения нотариуса или эмитента, операции по списанию ценных бумаг с депозитного лицевого счета и операций, которые не требуют волеизъявления зарегистрированного лица.
+Снятие факта ограничения операций с ценными бумагами по депозитному лицевому счету производится Регистратором при предоставлении документов (оригиналы или копии, удостоверенные нотариально или соответствующим государственным органом).
+Блокирование (замораживание) ценных бумаг осуществляется на основании документов, размещенных на официальном сайте Федеральной службы по финансовому мониторингу либо информации, полученной через Личный кабинет, либо на основании внутреннего документа Регистратора.
+Внесение записи об установлении или снятии ограничений по счету номинального держателя в связи с наложением (снятием) ареста по счету депо:
+– Регистратор вносит запись об установлении ограничения по счету номинального держателя в реестре в связи с наложением ареста по счету депо на основании распоряжения номинального держателя;
+– указанные ограничения снимаются по счету номинального держателя по основаниям, предусмотренным федеральными законами или нормативными актами Банка России.</t>
+  </si>
+  <si>
+    <t>Зачисление ценных бумаг на счет доверительного управляющего, не являющегося приобретателем ценных бумаг, осуществляется на основании распоряжения на списание/зачисление ценных бумаг, подписанного владельцем ценных бумаг, либо на основании передаточного распоряжения, подписанного нотариусом или исполнителем завещания, действующими в качестве учредителя доверительного управления с целью управления наследственным имуществом.
+В случае если распоряжение о совершении операции о переводе ценных бумаг на счет доверительного управляющего подписано исполнителем завещания, Регистратору предоставляется надлежащим образом заверенная копия завещания.
+Ценные бумаги списываются со счета доверительного управляющего при предоставлении следующих документов:
+– распоряжения доверительного управляющего на списание/зачисление ценных бумаг на счет учредителя управления (владельца ценных бумаг);
+– свидетельства о праве на наследство на счет (счета) наследника (наследников);
+– решения суда;
+– документов, подтверждающих оплату ценных бумаг в случае выкупа ценных бумаг в порядке, предусмотренном статьей 84.8. Федерального закона «Об акционерных обществах» (в этом случае заявление с указанием реквизитов для перечисления денежных средств за выкупаемые ценные бумаги вправе направить владелец ценных бумаг или доверительный управляющий);
+– иных документов, предусмотренных действующим законодательством.
+В случае прекращения договора доверительного управления ценными бумагами Регистратор открывает на имя учредителя управления (выгодоприобретателя) лицевой счет владельца ценных бумаг.
+Указанный счет открывается по заявлению управляющего без заявления учредителя управления (выгодоприобретателя) и подписанной им заявления-анкеты зарегистрированного лица.
+Регистратор осуществляет блокирование операций с ценными бумагами по такому лицевому счету до представления зарегистрированным лицом, которому он открыт, документов, необходимых в соответствии с Правилами для открытия лицевых счетов владельцев ценных бумаг.</t>
+  </si>
+  <si>
+    <t>В случае если ценные бумаги переданы в депозит нотариуса, Регистратор на основании предоставленной нотариусом заявлении-анкеты открывает в реестре депозитный лицевой счет для лица, не являющегося приобретателем ценных бумаг, и на основании распоряжения владельца на списание/зачисление ценных бумаг зачисляет на этот счет указанное в распоряжении количество ценных бумаг.
+Прекращение блокирования операций по депозитному лицевому счету, а также списание с депозитного лицевого счета ценных бумаг, переданных в депозит нотариуса, производится Регистратором при предоставлении следующих документов:
+– решения суда;
+– документов, подтверждающих оплату ценных бумаг в случае выкупа ценных бумаг в порядке, предусмотренном статьей 84.8. Федерального закона «Об акционерных обществах»;
+– распоряжения о списании ценных бумаг на счет кредитора, указанного владельцем ценных бумаг;
+– в иных случаях, предусмотренных действующим законодательством.</t>
+  </si>
+  <si>
+    <t>btn46_ru</t>
+  </si>
+  <si>
+    <t>btn47_ru</t>
+  </si>
+  <si>
+    <t>Регистратор вносит в реестр запись о закрытии лицевого счета зарегистрированного лица при отсутствии ценных бумаг на его счете в следующих случаях:
+– на основании распоряжения зарегистрированного лица о закрытии его лицевого счета;
+– при объединении лицевых счетов;
+– в случае прекращения деятельности юридического лица на основании предоставленной Регистратору или полученной Регистратором выписки из ЕГРЮЛ и/или Свидетельства о внесении записи в ЕГРЮЛ;
+– на основании свидетельства о праве на наследство после списания ценных бумаг на счет (счета) наследников;
+– на основании списка клиентов организации, прекратившей исполнение функций номинального держателя, после списания всех ценных бумаг с лицевого счета этого номинального держателя;
+– судебного акта.</t>
+  </si>
+  <si>
+    <t>btn48_ru</t>
+  </si>
 </sst>
 </file>
 
@@ -1520,12 +1593,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1540,11 +1619,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1825,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,724 +1920,748 @@
     <col min="2" max="2" width="146.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B37" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B39" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="270" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B40" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B42" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="270" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="315" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B57" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B59" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B60" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B61" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B62" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B63" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B64" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B65" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B66" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>145</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>146</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>147</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>150</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="270" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>151</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>152</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>154</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>155</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="345" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="405" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="405" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
